--- a/out/test_evaluation_results.xlsx
+++ b/out/test_evaluation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,44 +436,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Prompt</t>
+          <t>Original</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Original</t>
+          <t>LLM Translation</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>LLM Translation</t>
+          <t>Google Translation</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Google Translation</t>
+          <t>Evaluation</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Evaluation</t>
+          <t>LLM Score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Google Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Better Translation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
         <is>
           <t>国务院办公厅印发了"关于推动个人养老金发展的意见"(简称"意见"),对于完善我国基本养老保险,企业年金和个人养老保险的多支柱养老保险体系,进一步加强我国社会保障体系建设,具有重要意义."中国养老金发展报告2021"数据显示,我国各类养老基金规模达到13万亿元人民币,与我国GDP规模的比率为11.36%,跟许多国家相比差距还很大,因此我国个人养老金管理行业有着广阔的发展空间.根据"意见",个人养老金账户资金可用于购买符合规定的银行理财,储蓄存款,商业养老保险,公募基金等运作安全,成熟稳定,标的规范,侧重长期保值的金融产品,这将影响到超过十亿人的自身利益,巨大的刚性需求必将有力推动我国金融市场和金融服务业的高质量的可持续发展,并为银行,保险和资产管理业带来新的利润增长点.
 2000年,市值排名前100美国大企业中金融服务企业多达22家,而且排名靠前,其中商业银行占6席.此后,商业银行的地位逐渐衰落,而财富与资产管理公司发展迅速.从资产管理规模来看,2021年底贝莱德管理的资产规模超过10万亿美元,成为全球基金管理业,金融服务业的龙头企业.
@@ -482,7 +480,7 @@
 人们寿命延长对养老基金管理构成了严峻问题.在面临多重不确定因素的同时,全球老龄化问题依然是不争的事实,人口老龄化会改变就业市场,让年轻人越来越难融入劳动大军,并且随着高成本病人数量增加,医疗卫生支出日益剧增,更加凸显了养老金的长期投资不足问题.企业主缴纳的收益确定型(DB,defined benefit plan)养</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>The General Office of the State Council issued the "Opinions on Promoting the Development of Personal Pensions" (hereinafter referred to as the "Opinions"), which is of great significance for improving the multi-pillar pension insurance system of China's basic pension insurance, enterprise annuity and individual pension insurance, and further strengthening the construction of China's social security system." According to the data of China's pension development report 2021, the scale of various pension funds in China has reached 13 trillion yuan, and the ratio of China's GDP scale is 11.36%, which is still a big gap compared with many countries, so China's personal pension management industry has a broad space for development. According to the "opinions", the funds in the personal pension account can be used to purchase financial products that meet the requirements of bank wealth management, savings deposits, commercial pension insurance, public funds, etc., which are safe, mature and stable, and the subject matter is standardized, focusing on long-term value preservation, which will affect the self-interests of more than one billion people, and the huge rigid demand will effectively promote the high-quality sustainable development of China's financial market and financial service industry, and bring new profit growth points to the banking, insurance and asset management industry.
 In 2000, there were as many as 22 financial service companies among the top 100 large American enterprises by market capitalization, and they ranked high, of which commercial banks accounted for 6 seats. Since then, the status of commercial banks has gradually declined, while wealth and asset management companies have grown rapidly. From the perspective of assets under management, BlackRock has assets under management of more than $10 trillion at the end of 2021, becoming a leading enterprise in the global fund management industry and financial services industry.
@@ -491,31 +489,37 @@
 The prolongation of people's lives poses a serious problem for the management of pension funds. In the face of multiple uncertainties, the problem of global ageing remains an indisputable fact, the aging of the population will change the job market, making it increasingly difficult for young people to integrate into the workforce, and with the increase in the number of high-cost patients, health care spending is increasing day by day, which highlights the long-term underinvestment of pensions. The business owner pays a defined benefit plan (DB).</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The General Office of the State Council issued the "Opinions on Promoting the Development of Personal Pensions" (hereinafter referred to as the "Opinions"), which is of great significance for improving my country's multi-pillar pension insurance system of basic pension insurance, enterprise annuities and personal pension insurance, and further strengthening the construction of my country's social security system. According to the "China Pension Development Report 2021", the scale of various pension funds in my country has reached 13 trillion yuan, which is 11.36% of my country's GDP. Compared with many countries, there is still a big gap. Therefore, my country's personal pension management industry has broad room for development. According to the "Opinions", funds in personal pension accounts can be used to purchase financial products such as bank wealth management, savings deposits, commercial pension insurance, and public offering funds that meet regulations and are safe, mature, stable, and standardized, focusing on long-term value preservation. This will affect the interests of more than one billion people. The huge rigid demand will surely strongly promote the high-quality and sustainable development of my country's financial market and financial services industry, and bring new profit growth points to the banking, insurance and asset management industries. In 2000, there were as many as 22 financial services companies among the top 100 US companies by market value, and they ranked high, of which commercial banks accounted for 6 seats. Since then, the status of commercial banks has gradually declined, while wealth and asset management companies have developed rapidly. In terms of asset management scale, BlackRock's assets under management will exceed 10 trillion US dollars at the end of 2021, making it a leading company in the global fund management and financial services industries. Converting savings into long-term investments will change the future development path of the financial industry, because long-term investment is the best way to financial success. Insufficient investment in pension funds has become a common problem facing the world, resulting in many retirees being unable to obtain adequate financial security. To borrow an example often used by BlackRock, a 25-year-old office worker deposits $10,000 in a bank and earns $50,000 when he retires. If this money is invested in a representative stock index such as the S&amp;P 500, the income will exceed $800,000 when he retires. This is the charm of long-term investment, but many people in the world lack investment opportunities and channels. The reform of the personal pension system is undoubtedly a new financial track for the financial services industry in many countries, and it is also expected to reverse the problem of insufficient investment in pension funds and improve the pension security of retirees. Over the past two decades, factors such as the aging of the global population, investor behavior, interest rate environment, risk awareness, internationalization, technology level and climate change have posed new challenges to pension fund investment, gradually changing the investment strategy and technology application level of pension funds. The operating environment of the fund management industry is becoming more and more complex. The extension of people's life expectancy poses a serious problem for pension fund management. While facing multiple uncertainties, the global aging problem remains an indisputable fact. The aging of the population will change the job market, making it increasingly difficult for young people to integrate into the labor force. In addition, as the number of high-cost patients increases, medical and health expenditures are increasing, which further highlights the long-term underinvestment of pension funds. The defined benefit plan (DB) pension paid by business owners is</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The General Office of the State Council issued the "Opinions on Promoting the Development of Personal Pensions" (hereinafter referred to as the "Opinions"), which is of great significance for improving my country's multi-pillar pension insurance system of basic pension insurance, enterprise annuities and personal pension insurance, and further strengthening the construction of my country's social security system. According to the "China Pension Development Report 2021", the scale of various pension funds in my country has reached 13 trillion yuan, which is 11.36% of my country's GDP. Compared with many countries, there is still a big gap. Therefore, my country's personal pension management industry has broad room for development. According to the "Opinions", funds in personal pension accounts can be used to purchase financial products such as bank wealth management, savings deposits, commercial pension insurance, and public offering funds that meet regulations and are safe, mature, stable, and standardized, focusing on long-term value preservation. This will affect the interests of more than one billion people. The huge rigid demand will surely strongly promote the high-quality and sustainable development of my country's financial market and financial services industry, and bring new profit growth points to the banking, insurance and asset management industries. In 2000, there were as many as 22 financial services companies among the top 100 US companies by market value, and they ranked high, of which commercial banks accounted for 6 seats. Since then, the status of commercial banks has gradually declined, while wealth and asset management companies have developed rapidly. In terms of asset management scale, BlackRock's assets under management will exceed 10 trillion US dollars at the end of 2021, making it a leading company in the global fund management and financial services industries. Converting savings into long-term investments will change the future development path of the financial industry, because long-term investment is the best way to financial success. Insufficient investment in pension funds has become a common problem facing the world, resulting in many retirees being unable to obtain adequate financial security. To borrow an example often used by BlackRock, a 25-year-old office worker deposits $10,000 in a bank and earns $50,000 when he retires. If this money is invested in a representative stock index such as the S&amp;P 500, the income will exceed $800,000 when he retires. This is the charm of long-term investment, but many people in the world lack investment opportunities and channels. The reform of the personal pension system is undoubtedly a new financial track for the financial services industry in many countries, and it is also expected to reverse the problem of insufficient investment in pension funds and improve the pension security of retirees. Over the past two decades, factors such as the aging of the global population, investor behavior, interest rate environment, risk awareness, internationalization, technology level and climate change have posed new challenges to pension fund investment, gradually changing the investment strategy and technology application level of pension funds. The operating environment of the fund management industry is becoming more and more complex. The extension of people's life expectancy poses a serious problem for pension fund management. While facing multiple uncertainties, the global aging problem remains an indisputable fact. The aging of the population will change the job market, making it increasingly difficult for young people to integrate into the labor force. In addition, as the number of high-cost patients increases, medical and health expenditures are increasing, which further highlights the long-term underinvestment of pension funds. The defined benefit plan (DB) pension paid by business owners is</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[88]分（准确性[35]，流畅性[25]，原意保留[28]）  
+谷歌翻译：[85]分（准确性[34]，流畅性[27]，原意保留[24]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性和专业性上稍微优于谷歌翻译，尤其是在一些专业术语的使用上，如“多支柱养老保险体系”翻译为“multi-pillar pension insurance system”更为准确。流畅性方面，大模型翻译的句子结构更为自然，而谷歌翻译在某些地方显得略为生硬，例如“这将影响到超过十亿人的自身利益”翻译为“this will affect the interests of more than one billion people”稍显直白。原意保留方面，两者都较好，但大模型翻译在细节上更为细腻。]</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The General Office of the State Council issued the "Opinions on Promoting the Development of Personal Pensions" (hereinafter referred to as the "Opinions"), which is of great significance for improving the multi-pillar pension insurance system of China's basic pension insurance, enterprise annuity and individual pension insurance, and further strengthening the construction of China's social security system." According to the data of China's pension development report 2021, the scale of various pension funds in China has reached 13 trillion yuan, and the ratio of China's GDP scale is 11.36%, which is still a big gap compared with many countries, so China's personal pension management industry has a broad space for development. According to the "opinions", the funds in the personal pension account can be used to purchase financial products that meet the requirements of bank wealth management, savings deposits, commercial pension insurance, public funds, etc., which are safe, mature and stable, and the subject matter is standardized, focusing on long-term value preservation, which will affect the self-interests of more than one billion people, and the huge rigid demand will effectively promote the high-quality sustainable development of China's financial market and financial service industry, and bring new profit growth points to the banking, insurance and asset management industry.
+In 2000, there were as many as 22 financial service companies among the top 100 large American enterprises by market capitalization, and they ranked high, of which commercial banks accounted for 6 seats. Since then, the status of commercial banks has gradually declined, while wealth and asset management companies have grown rapidly. From the perspective of assets under management, BlackRock has assets under management of more than $10 trillion at the end of 2021, becoming a leading enterprise in the global fund management industry and financial services industry.
+Turning savings into long-term investments will change the future path of the financial industry, as long-term investing is the best path to financial success. Underinvestment in pension funds has become a common problem facing the world, resulting in many retirees not receiving adequate financial security. To borrow BlackRock's oft-used example, a 25-year-old office worker deposits $10,000 in the bank and earns $50,000 when he retires. If this money were invested in a representative stock index such as the S&amp;P 500, it would have earned more than $800,000 at retirement. This is the charm of long-term investment, but there are many people in the world who lack investment opportunities and channels. The reform of the personal pension system is undoubtedly a new financial track for the financial service industry in many countries, and it is also expected to reverse the problem of insufficient investment in pension funds and improve the pension security of retirees.
+Over the past two decades, factors such as global population aging, investor behavior, interest rate environment, risk awareness, internationalization, technology level and climate change have posed new challenges to pension fund investment, and gradually changed the investment strategy and technology application level of pension funds. The operating environment of the fund management industry is becoming increasingly complex.
+The prolongation of people's lives poses a serious problem for the management of pension funds. In the face of multiple uncertainties, the problem of global ageing remains an indisputable fact, the aging of the population will change the job market, making it increasingly difficult for young people to integrate into the workforce, and with the increase in the number of high-cost patients, health care spending is increasing day by day, which highlights the long-term underinvestment of pensions. The business owner pays a defined benefit plan (DB).</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>本文摘要:经济危机之后,央企及地方国企的海外并购潮风起云涌,也经常出现了不少问题,有些甚至经常出现了极大的亏损.2012年以来,海外形势再次发生了相当大的变化,如欧债危机,美国在贸易和投资领域对中国的遏止等.在新形势下,如何有效地做到海外收购风险,沦为了国企必需细心思量的新课题. 早在2006年6月,国资委就印发了"中央企业全面风险管理提示",拒绝中央企业根据自身实际情况积极开展全面风险管理工作,保证将风险掌控在与总体目标相适应并可忍受的范围内.
 经济危机之后,央企及地方国企的海外并购潮风起云涌,也经常出现了不少问题,有些甚至经常出现了极大的亏损.2012年以来,海外形势再次发生了相当大的变化,如欧债危机,美国在贸易和投资领域对中国的遏止等.在新形势下,如何有效地做到海外收购风险,沦为了国企必需细心思量的新课题.
@@ -525,7 +529,7 @@
 据此,有专家预测,数字化生产模式的原材料用于仅有为传统生产方式的十分之一,能源消耗,生产成本将大大降低,通过网络平台必要自定义交易费用减少,传统的劳动力成本和资源能耗消耗的较为优势在技术创新和智慧创新等新的核心竞争力冲击下将不会失去,由此,眼下倍受危机后遗症的</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Abstract:After the economic crisis, the overseas mergers and acquisitions of central enterprises and local state-owned enterprises have surged, and there are often many problems, some of which have even suffered huge losses.Since 2012, the overseas situation has undergone considerable changes again, such as the European debt crisis, and the United States' containment of China in the field of trade and investment. Under the new situation, how to effectively achieve overseas acquisition risks has become a new topic that state-owned enterprises must carefully consider. As early as June 2006, the State-owned Assets Supervision and Administration Commission (SASAC) issued the "Comprehensive Risk Management Tips for Central Enterprises", refusing to allow central enterprises to actively carry out comprehensive risk management work according to their own actual conditions, and ensuring that the risks are controlled within a tolerable range that is compatible with the overall objectives.
 Since 2012, the overseas situation has undergone considerable changes again, such as the European debt crisis, and the United States' containment of China in the field of trade and investment. Under the new situation, how to effectively achieve overseas acquisition risks has become a new topic that state-owned enterprises must carefully consider.
@@ -535,31 +539,38 @@
 According to this, some experts predict that the raw materials of the digital production mode are only one-tenth of the traditional production mode, energy consumption, production costs will be greatly reduced, the necessary custom transaction costs through the network platform will be reduced, and the comparative advantages of traditional labor costs and resource energy consumption will not be lost under the impact of new core competitiveness such as technological innovation and wisdom innovation</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Abstract: After the economic crisis, the overseas mergers and acquisitions of central and local state-owned enterprises have been surging, and many problems have also occurred, and some have even suffered huge losses. Since 2012, the overseas situation has undergone significant changes, such as the European debt crisis and the US's containment of China in the fields of trade and investment. Under the new situation, how to effectively deal with the risks of overseas acquisitions has become a new issue that state-owned enterprises must consider carefully. As early as June 2006, the State-owned Assets Supervision and Administration Commission issued the "Reminder on Comprehensive Risk Management of Central Enterprises", requiring central enterprises to actively carry out comprehensive risk management work based on their actual conditions and ensure that risks are controlled within a tolerable range that is consistent with the overall goals. After the economic crisis, the overseas mergers and acquisitions of central and local state-owned enterprises have been surging, and many problems have also occurred, and some have even suffered huge losses. Since 2012, the overseas situation has undergone significant changes, such as the European debt crisis and the US's containment of China in the fields of trade and investment. Under the new situation, how to effectively deal with the risks of overseas acquisitions has become a new issue that state-owned enterprises must consider carefully. As early as June 2006, the SASAC issued the "Reminder on Comprehensive Risk Management of Central Enterprises", requiring central enterprises to actively carry out comprehensive risk management work according to their actual conditions, and ensure that risks are controlled within a tolerable range that is consistent with the overall goals. While recognizing the achievements of central enterprises' risk management work, Shao Ning, deputy director of the SASAC, also believes that although many central enterprises have already started risk management work, the risk management of many enterprises is still a formality. In 2012, 76 enterprises were required to submit annual risk management reports, accounting for 64% of the total 118 central enterprises. If the previous state-owned enterprise reform was to create dividends, the focus of the reform of state-owned enterprises in the future is to release dividends. It is necessary to speed up the improvement of the policies that have been implemented in recent years that are not conducive to enterprise mergers and reorganizations, and hope that enterprises will dissolve non-strategic assets as soon as possible. In fact, state-owned enterprises, especially central enterprises, still regard mergers and reorganizations as an important reform and development task. Now we are entering a big dawn. It can be said that now is the best time to implement mergers and reorganizations to achieve industrial transformation and upgrading. In 2013, many high-tech technologies will undergo decisive changes. Multi-point cooperation and cross-cooperation around the world are emerging from incipient signs to clearness. It contains a series of revolutionary changes, including mergers and acquisitions, restructuring and industrial transformation and upgrading, which will have a profound impact on corporate competitiveness, industry competitiveness and national competitiveness. For example, 3D printing technology can easily produce personalized products and realize large-scale customized production. Once this model appears, it will become a new method. Therefore, some experts predict that the raw material usage of the digital production model will be only one-tenth of the traditional production method, and energy consumption and production costs will be greatly reduced. Through the network platform, the transaction fees required for customization will be reduced. The comparative advantages of traditional labor costs and resource energy consumption will not be lost under the impact of new core competitiveness such as technological innovation and smart innovation. Therefore, the current crisis-affected industries will be in a period of rapid development.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abstract: After the economic crisis, the overseas mergers and acquisitions of central and local state-owned enterprises have been surging, and many problems have also occurred, and some have even suffered huge losses. Since 2012, the overseas situation has undergone significant changes, such as the European debt crisis and the US's containment of China in the fields of trade and investment. Under the new situation, how to effectively deal with the risks of overseas acquisitions has become a new issue that state-owned enterprises must consider carefully. As early as June 2006, the State-owned Assets Supervision and Administration Commission issued the "Reminder on Comprehensive Risk Management of Central Enterprises", requiring central enterprises to actively carry out comprehensive risk management work based on their actual conditions and ensure that risks are controlled within a tolerable range that is consistent with the overall goals. After the economic crisis, the overseas mergers and acquisitions of central and local state-owned enterprises have been surging, and many problems have also occurred, and some have even suffered huge losses. Since 2012, the overseas situation has undergone significant changes, such as the European debt crisis and the US's containment of China in the fields of trade and investment. Under the new situation, how to effectively deal with the risks of overseas acquisitions has become a new issue that state-owned enterprises must consider carefully. As early as June 2006, the SASAC issued the "Reminder on Comprehensive Risk Management of Central Enterprises", requiring central enterprises to actively carry out comprehensive risk management work according to their actual conditions, and ensure that risks are controlled within a tolerable range that is consistent with the overall goals. While recognizing the achievements of central enterprises' risk management work, Shao Ning, deputy director of the SASAC, also believes that although many central enterprises have already started risk management work, the risk management of many enterprises is still a formality. In 2012, 76 enterprises were required to submit annual risk management reports, accounting for 64% of the total 118 central enterprises. If the previous state-owned enterprise reform was to create dividends, the focus of the reform of state-owned enterprises in the future is to release dividends. It is necessary to speed up the improvement of the policies that have been implemented in recent years that are not conducive to enterprise mergers and reorganizations, and hope that enterprises will dissolve non-strategic assets as soon as possible. In fact, state-owned enterprises, especially central enterprises, still regard mergers and reorganizations as an important reform and development task. Now we are entering a big dawn. It can be said that now is the best time to implement mergers and reorganizations to achieve industrial transformation and upgrading. In 2013, many high-tech technologies will undergo decisive changes. Multi-point cooperation and cross-cooperation around the world are emerging from incipient signs to clearness. It contains a series of revolutionary changes, including mergers and acquisitions, restructuring and industrial transformation and upgrading, which will have a profound impact on corporate competitiveness, industry competitiveness and national competitiveness. For example, 3D printing technology can easily produce personalized products and realize large-scale customized production. Once this model appears, it will become a new method. Therefore, some experts predict that the raw material usage of the digital production model will be only one-tenth of the traditional production method, and energy consumption and production costs will be greatly reduced. Through the network platform, the transaction fees required for customization will be reduced. The comparative advantages of traditional labor costs and resource energy consumption will not be lost under the impact of new core competitiveness such as technological innovation and smart innovation. Therefore, the current crisis-affected industries will be in a period of rapid development.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[75]分（准确性[28]，流畅性[22]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性和流畅性上稍优于谷歌翻译，尤其是在专业术语的使用上，如“Comprehensive Risk Management Tips for Central Enterprises”翻译得较为准确。而谷歌翻译在某些句子结构上显得较为生硬，例如“the comparative advantages of traditional labor costs and resource energy consumption will not be lost”可以更自然地表达为“the comparative advantages of traditional labor costs and resource consumption will diminish.”]</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Abstract:After the economic crisis, the overseas mergers and acquisitions of central enterprises and local state-owned enterprises have surged, and there are often many problems, some of which have even suffered huge losses.Since 2012, the overseas situation has undergone considerable changes again, such as the European debt crisis, and the United States' containment of China in the field of trade and investment. Under the new situation, how to effectively achieve overseas acquisition risks has become a new topic that state-owned enterprises must carefully consider. As early as June 2006, the State-owned Assets Supervision and Administration Commission (SASAC) issued the "Comprehensive Risk Management Tips for Central Enterprises", refusing to allow central enterprises to actively carry out comprehensive risk management work according to their own actual conditions, and ensuring that the risks are controlled within a tolerable range that is compatible with the overall objectives.
+Since 2012, the overseas situation has undergone considerable changes again, such as the European debt crisis, and the United States' containment of China in the field of trade and investment. Under the new situation, how to effectively achieve overseas acquisition risks has become a new topic that state-owned enterprises must carefully consider.
+As early as June 2006, the State-owned Assets Supervision and Administration Commission (SASAC) issued the "Comprehensive Risk Management Tips for Central Enterprises", refusing to allow central enterprises to actively carry out comprehensive risk management work according to their own actual conditions, and ensuring that the risks are controlled within a tolerable range that is compatible with the overall objectives. In 2012, 76 enterprises were forced to report annual risk management reports, accounting for 64% of the total number of 118 central enterprises.
+If the reform of state-owned enterprises in the previous period is to build dividends, the focus of the reform of state-owned enterprises in the future is to release dividends, and it is necessary to slow down and improve the policies that are not conducive to the merger and reorganization of enterprises in recent years, and hope that enterprises will dismantle non-strategic assets as soon as possible. In essence, state-owned enterprises, especially central enterprises, still regard acquisition and restructuring as one of the most important reform and development tasks to implement. At present, it has entered a big dawn, and it can be said that now is the worst time to implement the acquisition and restructuring to build industrial transformation and upgrading.
+In 2013, a lot of high-tech will get decisive changes in this year, multi-point cooperation on a global scale, cross-cooperation is from the beginning to the clear, which contains a series of revolutionary changes, including the acquisition and restructuring and industrial transformation and upgrading, will have a far-reaching impact on the competitiveness of enterprises, industry competitiveness, and national competitiveness. For example, 3D printer technology can produce personalized products at will, and build a large scale of custom production, once this model appears frequently, it will be reduced to a new way.
+According to this, some experts predict that the raw materials of the digital production mode are only one-tenth of the traditional production mode, energy consumption, production costs will be greatly reduced, the necessary custom transaction costs through the network platform will be reduced, and the comparative advantages of traditional labor costs and resource energy consumption will not be lost under the impact of new core competitiveness such as technological innovation and wisdom innovation</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>摘要:美元快速加息缩表叠加大宗商品价格上涨冲击,加息成为不少国家的货币政策选择.但并非所有国家都以"反向货币战"应对美元指数上涨,各国政策出现分化.汇率是经济实力在国际社会的综合体现.历史上,日本广场协议前后近四十年的汇率波动显示,静态分析框架下政策主动权,政策应对方式不同,会导致不同的政策效果.对人民币汇率政策的建议:打消人民币升值恐惧症,做好预期管理,防止大幅震荡,预防汇率升值后的经济通缩螺旋.
 汇率是一国经济实力在国际社会的综合体现.5月30日德国"经济周刊"网站发表美国哈佛大学教授杰弗里弗兰克尔的文章称:由于全球高通胀可能仍将持续一段时间,发生"反向货币战"的可能性正变得越来越大.从2010年巴西财政部部长提出"货币战争"到美国提出"反向货币战",外汇市场中汇率决定要素及各国经济决策发生何种改变?[1]
@@ -570,7 +581,7 @@
 土耳其央行去年曾经加息,在未</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Abstract:The rapid interest rate hike and balance sheet reduction of the US dollar and the impact of rising commodity prices have made interest rate hikes a monetary policy choice in many countries. However, not all countries responded to the rise of the dollar index with a "reverse currency war", and national policies diverged. The exchange rate is a comprehensive reflection of economic strength in the international community. Historically, the exchange rate fluctuations in the past 40 years before and after the Plaza Accord in Japan show that different policy initiatives and policy responses under the static analysis framework will lead to different policy effects. Suggestions for RMB exchange rate policy: dispel the fear of RMB appreciation, do a good job in expectation management, prevent large shocks, and prevent the economic deflationary spiral after exchange rate appreciation.
 On May 30, the German "Economic Weekly" website published an article by Jeffrey Frankl, a professor at Harvard University in the United States, saying that because high global inflation may continue for a period of time, the possibility of a "reverse currency war" is becoming more and more likely. From the "currency war" proposed by the Brazilian Minister of Finance in 2010 to the "reverse currency war" proposed by the United States, how have the determinants of exchange rates in the foreign exchange market and the economic decisions of various countries changed? [1]
@@ -581,31 +592,39 @@
 Turkey's central bank raised interest rates last year, but not yet</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Abstract: Rapid interest rate hikes and balance sheet reductions in the US dollar, coupled with the impact of rising commodity prices, have made interest rate hikes a monetary policy option for many countries. However, not all countries have responded to the rise in the US dollar index with a "reverse currency war", and policies have diverged among countries. The exchange rate is a comprehensive reflection of economic strength in the international community. Historically, the exchange rate fluctuations in Japan for nearly 40 years before and after the Plaza Accord show that different policy initiatives and policy responses under the static analysis framework will lead to different policy effects. Suggestions for RMB exchange rate policy: dispel the fear of RMB appreciation, do a good job of expectation management, prevent large fluctuations, and prevent the economic deflationary spiral after the exchange rate appreciation. The exchange rate is a comprehensive reflection of a country's economic strength in the international community. On May 30, the German "Wirtschaftswoche" website published an article by Jeffrey Frankel, a professor at Harvard University in the United States, saying that since global high inflation may continue for some time, the possibility of a "reverse currency war" is becoming increasingly greater. From the Brazilian Finance Minister's proposal of "currency war" in 2010 to the United States' proposal of "reverse currency war", what changes have taken place in the exchange rate determination factors in the foreign exchange market and the economic decisions of various countries? [1] "Currency war" is a description of competitive currency devaluation. The devaluation of a country's currency is conducive to promoting the export of its own goods. Even if the trade balance does not improve immediately, it will have an effect after a period of time, that is, the "J curve effect". As a country with a trade deficit, the United States often accuses its trading partners of undervaluing their currencies to expand trade surpluses. In the Plaza Accord in 1985, the United States required the appreciation of currencies such as the yen, mark, pound, and franc to alleviate its foreign trade deficit. Since 1988, the US Congress has required the Treasury Department to submit a semi-annual report on whether the United States' major trading partners manipulate their currencies. The theoretical basis of these policies is that the trade balance determines the exchange rate level. "Reverse currency war" means that currencies compete to appreciate. Its main theoretical basis is interest rate parity. In mid-May this year, the US investment bank Goldman Sachs proposed that many central banks followed the US interest rate hike, abandoned their preference for weak currencies, and embraced strong exchange rates, and a "reverse currency war" began. Since 2022, the US dollar's interest rate hikes and balance sheet reduction have led to global capital flowing back to the United States, and the currencies of many countries have plummeted. With the soaring prices of oil, food and other commodities, inflation data in many countries are currently at a multi-decade high. In order to prevent the depreciation of their own currencies, India, the United Kingdom, South Korea, Singapore, Brazil, Argentina, Chile, Mexico and New Zealand have all adopted interest rate hike policies. This is the current situation of exchange rates and interest rates in various countries described by the "reverse currency war". According to the "trilemma", a country cannot have both independent monetary policy, market exchange rate and free capital flow. Some countries with weaker economies have capital flight and exchange rate depreciation, and can only choose to raise interest rates. For example, the Sri Lankan rupee fell 80% as of mid-May this year, its foreign exchange reserves were exhausted, and it fell into a debt crisis. However, there are still some countries that have not been forced to raise interest rates in the face of capital outflows. The yen is the currency with the largest depreciation, depreciating by 13% this year, but the Bank of Japan has not chosen to raise interest rates. The euro has depreciated by 5.6% this year, and the European Central Bank has not chosen to raise interest rates. The Central Bank of Turkey raised interest rates last year, and in the future</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abstract: Rapid interest rate hikes and balance sheet reductions in the US dollar, coupled with the impact of rising commodity prices, have made interest rate hikes a monetary policy option for many countries. However, not all countries have responded to the rise in the US dollar index with a "reverse currency war", and policies have diverged among countries. The exchange rate is a comprehensive reflection of economic strength in the international community. Historically, the exchange rate fluctuations in Japan for nearly 40 years before and after the Plaza Accord show that different policy initiatives and policy responses under the static analysis framework will lead to different policy effects. Suggestions for RMB exchange rate policy: dispel the fear of RMB appreciation, do a good job of expectation management, prevent large fluctuations, and prevent the economic deflationary spiral after the exchange rate appreciation. The exchange rate is a comprehensive reflection of a country's economic strength in the international community. On May 30, the German "Wirtschaftswoche" website published an article by Jeffrey Frankel, a professor at Harvard University in the United States, saying that since global high inflation may continue for some time, the possibility of a "reverse currency war" is becoming increasingly greater. From the Brazilian Finance Minister's proposal of "currency war" in 2010 to the United States' proposal of "reverse currency war", what changes have taken place in the exchange rate determination factors in the foreign exchange market and the economic decisions of various countries? [1] "Currency war" is a description of competitive currency devaluation. The devaluation of a country's currency is conducive to promoting the export of its own goods. Even if the trade balance does not improve immediately, it will have an effect after a period of time, that is, the "J curve effect". As a country with a trade deficit, the United States often accuses its trading partners of undervaluing their currencies to expand trade surpluses. In the Plaza Accord in 1985, the United States required the appreciation of currencies such as the yen, mark, pound, and franc to alleviate its foreign trade deficit. Since 1988, the US Congress has required the Treasury Department to submit a semi-annual report on whether the United States' major trading partners manipulate their currencies. The theoretical basis of these policies is that the trade balance determines the exchange rate level. "Reverse currency war" means that currencies compete to appreciate. Its main theoretical basis is interest rate parity. In mid-May this year, the US investment bank Goldman Sachs proposed that many central banks followed the US interest rate hike, abandoned their preference for weak currencies, and embraced strong exchange rates, and a "reverse currency war" began. Since 2022, the US dollar's interest rate hikes and balance sheet reduction have led to global capital flowing back to the United States, and the currencies of many countries have plummeted. With the soaring prices of oil, food and other commodities, inflation data in many countries are currently at a multi-decade high. In order to prevent the depreciation of their own currencies, India, the United Kingdom, South Korea, Singapore, Brazil, Argentina, Chile, Mexico and New Zealand have all adopted interest rate hike policies. This is the current situation of exchange rates and interest rates in various countries described by the "reverse currency war". According to the "trilemma", a country cannot have both independent monetary policy, market exchange rate and free capital flow. Some countries with weaker economies have capital flight and exchange rate depreciation, and can only choose to raise interest rates. For example, the Sri Lankan rupee fell 80% as of mid-May this year, its foreign exchange reserves were exhausted, and it fell into a debt crisis. However, there are still some countries that have not been forced to raise interest rates in the face of capital outflows. The yen is the currency with the largest depreciation, depreciating by 13% this year, but the Bank of Japan has not chosen to raise interest rates. The euro has depreciated by 5.6% this year, and the European Central Bank has not chosen to raise interest rates. The Central Bank of Turkey raised interest rates last year, and in the future</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行具体的分析和评分。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：大模型翻译在准确性上稍强，尤其在对“反向货币战”及其背景的描述上更为清晰。例如，使用“reverse currency war”而非“反向货币战”更符合英语表达习惯。此外，大模型翻译在流畅性上表现更佳，句子结构更自然，尤其在处理复杂句时更显得通顺。谷歌翻译在一些细节上略显生硬，如“the possibility of a 'reverse currency war' is becoming increasingly greater”可以更简洁地表达为“the possibility of a 'reverse currency war' is growing.”</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Abstract:The rapid interest rate hike and balance sheet reduction of the US dollar and the impact of rising commodity prices have made interest rate hikes a monetary policy choice in many countries. However, not all countries responded to the rise of the dollar index with a "reverse currency war", and national policies diverged. The exchange rate is a comprehensive reflection of economic strength in the international community. Historically, the exchange rate fluctuations in the past 40 years before and after the Plaza Accord in Japan show that different policy initiatives and policy responses under the static analysis framework will lead to different policy effects. Suggestions for RMB exchange rate policy: dispel the fear of RMB appreciation, do a good job in expectation management, prevent large shocks, and prevent the economic deflationary spiral after exchange rate appreciation.
+On May 30, the German "Economic Weekly" website published an article by Jeffrey Frankl, a professor at Harvard University in the United States, saying that because high global inflation may continue for a period of time, the possibility of a "reverse currency war" is becoming more and more likely. From the "currency war" proposed by the Brazilian Minister of Finance in 2010 to the "reverse currency war" proposed by the United States, how have the determinants of exchange rates in the foreign exchange market and the economic decisions of various countries changed? [1]
+"Currency wars" is a description of the competitive devaluation of currencies. The depreciation of a country's currency is conducive to promoting the export of its own goods, and even if the trade balance does not improve immediately, it will have an effect after a period of time, that is, the "J-curve effect". As a trade deficit country, the United States often accuses its trading partners of undervaluing their currencies to expand their trade surplus. In the Plaza Accord in 1985, the United States demanded that the yen, mark, pound sterling, franc and other currencies appreciate to ease its foreign trade deficit. The U.S. Congress requires the Treasury Department to submit semi-annual reports on whether major U.S. trading partners manipulate their currencies. The rationale for these policies is that the trade balance determines the level of the exchange rate.
+A "reverse currency war" means that currencies are racing to appreciate. Its main theoretical basis is interest rate parity. In mid-May this year, Goldman Sachs, a U.S. investment bank, proposed that many central banks should follow the U.S. interest rate hike, abandon their preference for weak currencies, and instead embrace a strong exchange rate, starting a "reverse currency war".
+Since 2022, the US dollar has raised interest rates and reduced its balance sheet, resulting in global capital flowing back to the United States, and the currencies of many countries have plummeted. With oil, food, and other commodity prices soaring, inflation data in many countries is currently at multi-decade highs. In order to prevent the depreciation of their national currencies, India, the United Kingdom, South Korea, Singapore, Brazil, Argentina, Chile, Mexico and New Zealand, among others, have adopted interest rate hike policies. This is the current state of exchange rates and interest rates in various countries described by the "reverse currency war".
+According to the "triple paradox", a country cannot have both its own monetary policy, market exchange rate and free flow of capital. Some countries with weaker economies have fled capital and depreciated exchange rates, so they can only choose to raise interest rates. For example, the Sri Lankan rupee fell by 80% as of mid-May this year, and its foreign exchange reserves dried up and it fell into a debt crisis. However, there are still some countries that have not been forced to raise interest rates in the face of capital outflows. The yen was the most depreciating currency, depreciating 13% during the year, but the Bank of Japan did not choose to raise interest rates. The euro depreciated by 5.6% during the year and the ECB did not choose to raise interest rates.
+Turkey's central bank raised interest rates last year, but not yet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>中新网10月19日电 据新加坡"联合早报"19日报道,美国联邦储备局主席耶伦警告,美国贫富悬殊已进一步扩大,财富不均的情况接近百年来的最高水准.她质疑这是否符合美国人传统上秉持的"人人机会平等"的观念.
 耶伦在波士顿就美国贫富差距问题而举行的会议上指出,在过去数十年,美国人的收入及财富不均问题日益严重,只有在2008年经济危机时稍微缓和.
@@ -621,7 +640,7 @@
 美联储上个月发布的一份报告指出,在2010年至2013年期间,美国家庭的收入增长只集中在3%的最富裕家庭,增长率达30%,但绝大部分贫穷家庭的收入在这时期一直在下降.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chinanews.com, October 19 According to Singapore's "Lianhe Zaobao" reported on the 19th, U.S. Federal Reserve Chairman Yellen warned that the gap between the rich and the poor in the United States has further widened, and the wealth inequality is close to the highest level in a century. She questioned whether this was in line with the traditional American notion of equal opportunity for all.
 Yellen pointed out at a conference in Boston on the gap between rich and poor in the United States that income and wealth inequality in the United States has increased over the past few decades, and only eased slightly during the economic crisis in 2008.
@@ -637,31 +656,44 @@
 A report released by the Federal Reserve last month noted that between 2010 and 2013, income growth in U.S. households was concentrated in the richest 3 percent of households, with a growth rate of 30 percent, but the income of the vast majority of poor households has been declining during this period.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chinanews.com, October 19 (Chinanews.com) According to Singapore's Lianhe Zaobao on the 19th, US Federal Reserve Chairman Janet Yellen warned that the gap between the rich and the poor in the United States has further widened, and the wealth inequality is close to the highest level in a hundred years. She questioned whether this is in line with the traditional American concept of "equal opportunities for all". Yellen pointed out at a conference on the gap between the rich and the poor in the United States in Boston that the income and wealth inequality of Americans has become increasingly serious in the past few decades, and only eased slightly during the 2008 economic crisis. The economic recession caused the wealth of the rich in the United States to shrink, and the government increased spending to subsidize the poor during that period, which narrowed the gap between the rich and the poor. However, Yellen said that when the economy gradually recovered and the stock market rebounded, the gap between the rich and the poor continued to widen because the salary increase and the recovery of the labor market were still too slow, making it difficult for the poor to increase their income. She said: "Over the past few decades, the income and wealth of the rich have continued to grow, but the living standards of most people have stagnated." She pointed out that the Federal Reserve's consumer finance survey showed that the wealth of the lower-class families in the United States only accounted for 1% of the total wealth in the United States last year, while the richest 5% of Americans enjoyed 63% of the total wealth. Yellen also warned that the current student loan debt has quadrupled from 10 years ago, from 260 billion US dollars in 2004 to 1.1 trillion US dollars this year. She said that the rising tuition fees hindered the children of low-income families from receiving higher education, which in turn affected their opportunities to earn higher incomes and accumulate wealth in the future. "I think we should reflect on whether this trend is in line with national values, especially the concept of equal opportunities that Americans have traditionally attached great importance to." However, Yellen did not propose specific policies to narrow the gap between the rich and the poor, but pointed out four major areas that would help improve the problem, namely corporate ownership, inheritance rights, affordable higher education expenses, and children's access to educational resources. In this regard, economist Bandolz pointed out that Yellen's remarks on the gap between the rich and the poor "illustrated something more important than monetary policy" and covered issues that "may be more important to the future of the United States and many developed countries." "She's clearly not just talking," said Paul Perna, an economist at a Connecticut consulting firm. "She's the first Fed chair to emphasize that the government has an obligation to promote equal opportunities for everyone." A report released by the Federal Reserve last month pointed out that between 2010 and 2013, income growth in the United States was concentrated in the top 3% of households, with a growth rate of 30%, while the income of the vast majority of poor households has been declining during this period.</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chinanews.com, October 19 (Chinanews.com) According to Singapore's Lianhe Zaobao on the 19th, US Federal Reserve Chairman Janet Yellen warned that the gap between the rich and the poor in the United States has further widened, and the wealth inequality is close to the highest level in a hundred years. She questioned whether this is in line with the traditional American concept of "equal opportunities for all". Yellen pointed out at a conference on the gap between the rich and the poor in the United States in Boston that the income and wealth inequality of Americans has become increasingly serious in the past few decades, and only eased slightly during the 2008 economic crisis. The economic recession caused the wealth of the rich in the United States to shrink, and the government increased spending to subsidize the poor during that period, which narrowed the gap between the rich and the poor. However, Yellen said that when the economy gradually recovered and the stock market rebounded, the gap between the rich and the poor continued to widen because the salary increase and the recovery of the labor market were still too slow, making it difficult for the poor to increase their income. She said: "Over the past few decades, the income and wealth of the rich have continued to grow, but the living standards of most people have stagnated." She pointed out that the Federal Reserve's consumer finance survey showed that the wealth of the lower-class families in the United States only accounted for 1% of the total wealth in the United States last year, while the richest 5% of Americans enjoyed 63% of the total wealth. Yellen also warned that the current student loan debt has quadrupled from 10 years ago, from 260 billion US dollars in 2004 to 1.1 trillion US dollars this year. She said that the rising tuition fees hindered the children of low-income families from receiving higher education, which in turn affected their opportunities to earn higher incomes and accumulate wealth in the future. "I think we should reflect on whether this trend is in line with national values, especially the concept of equal opportunities that Americans have traditionally attached great importance to." However, Yellen did not propose specific policies to narrow the gap between the rich and the poor, but pointed out four major areas that would help improve the problem, namely corporate ownership, inheritance rights, affordable higher education expenses, and children's access to educational resources. In this regard, economist Bandolz pointed out that Yellen's remarks on the gap between the rich and the poor "illustrated something more important than monetary policy" and covered issues that "may be more important to the future of the United States and many developed countries." "She's clearly not just talking," said Paul Perna, an economist at a Connecticut consulting firm. "She's the first Fed chair to emphasize that the government has an obligation to promote equal opportunities for everyone." A report released by the Federal Reserve last month pointed out that between 2010 and 2013, income growth in the United States was concentrated in the top 3% of households, with a growth rate of 30%, while the income of the vast majority of poor households has been declining during this period.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[90]分（准确性[38]，流畅性[28]，原意保留[24]）  
+谷歌翻译：[85]分（准确性[35]，流畅性[30]，原意保留[20]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性和流畅性方面表现更好，尤其在用词和句式上更为自然。例如，“the gap between the rich and the poor continues to widen”比谷歌翻译的“the gap between the rich and the poor continued to widen”更符合英语的时态使用。此外，大模型翻译在保留原文细节方面也更为细致，如“the wealth of lower-income families in the United States accounted for only 1% of the overall wealth”更清晰地传达了信息。]</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chinanews.com, October 19 According to Singapore's "Lianhe Zaobao" reported on the 19th, U.S. Federal Reserve Chairman Yellen warned that the gap between the rich and the poor in the United States has further widened, and the wealth inequality is close to the highest level in a century. She questioned whether this was in line with the traditional American notion of equal opportunity for all.
+Yellen pointed out at a conference in Boston on the gap between rich and poor in the United States that income and wealth inequality in the United States has increased over the past few decades, and only eased slightly during the economic crisis in 2008.
+The recession caused the wealth of the wealthy in the United States to shrink, and the government increased spending to subsidize the poor during that period, which narrowed the gap between the rich and the poor.
+However, Yellen said that as the economy gradually recovers and the stock market rebounds, the gap between rich and poor continues to widen, as wage increases and the recovery of the labor market are still too slow, making it difficult for the poor to raise their incomes.
+"Over the past few decades, the incomes and wealth of the rich have continued to grow, but the standard of living of the majority of the population has stagnated," she said.
+She pointed out that the Federal Reserve's consumer finance survey showed that the wealth of lower-income families in the United States accounted for only 1% of the overall wealth of the United States last year, while the richest 5% of Americans enjoyed 63% of the overall wealth.
+Yellen also warned that student loan debt is now four times what it was a decade ago, from $260 billion in 2004 to $1.1 trillion this year.
+She said the high tuition fees hinder the access of children from low-income families to higher education, which in turn affects their chances of earning higher incomes and accumulating wealth in the future. I think we should reflect on whether this trend is in line with national values, especially the notion of equal opportunity that Americans have traditionally placed high regard."
+However, Yellen did not propose specific policies to reduce the gap between rich and poor, but she did point to four areas that could help improve the problem: business ownership, inheritance, affordable spending on higher education, and access to educational resources for children.
+In this regard, economist Bandolz pointed out that Yellen's remarks on the disparity between rich and poor "illustrate something more important than monetary policy" and cover topics that "may be more important for the future of the United States and many developed countries".
+Penner, an economist at a consulting firm in Connecticut, said: "She's clearly not just talking about it, Yellen is pointing out that the government has an obligation to promote equal opportunities for all, and she was the first Fed chair to go out of her way to emphasize that."
+A report released by the Federal Reserve last month noted that between 2010 and 2013, income growth in U.S. households was concentrated in the richest 3 percent of households, with a growth rate of 30 percent, but the income of the vast majority of poor households has been declining during this period.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
         <is>
           <t>1月17日,国资委党委召开扩大会议,认真传达学习习近平总书记在省部级主要领导干部学习贯彻党的十九届六中全会精神专题研讨班上重要讲话精神,研究贯彻落实措施.国资委党委书记,主任郝鹏主持会议并讲话强调,要认真学习领会坚决贯彻落实习近平总书记重要讲话精神,更加深刻认识"两个确立"的决定性意义,进一步增强"四个意识",坚定"四个自信",做到"两个维护",牢记"国之大者",弘扬伟大建党精神,巩固拓展党史学习教育成果,以高质量党建引领保障国资央企高质量发展,坚定不移做强做优做大国有资本和国有企业,更好发挥国有经济战略支撑作用,以实际行动迎接党的二十大胜利召开.国资委党委委员出席会议.
 会议认为,习近平总书记的重要讲话贯通历史,现实和未来,内涵丰富,立意高远,从党和国家事业发展全局出发,深刻阐述了贯穿党的十九届六中全会决议的几个重大问题和推进党史学习教育常态化长效化问题,具有很强的政治性,思想性,战略性,对深入领悟党的十九届六中全会精神和"中共中央关于党的百年奋斗重大成就和历史经验的决议"精髓要义,增加历史自信,增进团结统一,增强斗争精神,不断夺取新时代中国特色社会主义新胜利,具有重大而深远的指导意义.要切实把思想和行动统一到习近平总书记重要讲话精神上来,坚定信心,勇毅前行,大力推动国资央企在新时代新征程上勇担新使命,展现新作为.
@@ -669,7 +701,7 @@
 会议指出,要深入学习,全面领会习近平总书记关于正确把握社会主要矛盾和中心任务的重要论述,在解决发展不平衡不充分问题上贡献国资国企力量.党关于</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>On January 17, the Party Committee of the State-owned Assets Supervision and Administration Commission held an enlarged meeting to conscientiously convey and study the spirit of General Secretary Xi Jinping's important speech at the special seminar on the study and implementation of the spirit of the Sixth Plenary Session of the 19th Central Committee of the Communist Party of China for major leading cadres at the provincial and ministerial levels, and to study and implement the measures. Hao Peng, Secretary of the Party Committee and Director of the State-owned Assets Supervision and Administration Commission, presided over the meeting and emphasized in his speech that it is necessary to conscientiously study and comprehend the spirit of General Secretary Xi Jinping's important speech, more deeply understand the decisive significance of the "two establishments", further enhance the "four consciousnesses", strengthen the "four self-confidences", and achieve the "two maintenances", keep in mind the "great man of the country", carry forward the great spirit of party building, consolidate and expand the achievements of party history learning and education, and ensure the high-quality development of state-owned central enterprises with high-quality party building. We will unswervingly strengthen and optimize the state-owned capital and state-owned enterprises, give better play to the strategic supporting role of the state-owned economy, and welcome the victory of the 20th National Congress of the Communist Party of China with practical actions. Members of the Party Committee of the State-owned Assets Supervision and Administration
 The meeting believes that General Secretary Xi Jinping's important speech runs through history, reality and the future, rich in connotation, lofty intentions, starting from the overall development of the cause of the party and the country, profoundly expounding several major issues throughout the resolution of the Sixth Plenary Session of the 19th Central Committee of the Communist Party of China and promoting the normalization and long-term effect of party history learning and education, with a strong political, ideological and strategic understanding of the spirit of the Sixth Plenary Session of the 19th Central Committee of the Communist Party of China and the essence of the "resolution of the CPC Central Committee on the major achievements and historical experience of the party's centennial struggle", and increase historical self-confidence. It is of great and far-reaching guiding significance to enhance unity and unity, strengthen the spirit of struggle, and constantly win new victories of socialism with Chinese characteristics in the new era. It is necessary to effectively unify thoughts and actions to the spirit of General Secretary Xi Jinping's important speech, strengthen confidence, move forward bravely, and vigorously promote state-owned central enterprises to take on new missions and show new achievements in the new era and new journey.
@@ -677,31 +709,36 @@
 The meeting pointed out that it is necessary to study in depth, fully understand General Secretary Xi Jinping's important exposition on correctly grasping the main contradictions and central tasks of society, and contribute to the strength of state-owned assets and state-owned enterprises in solving the problem of unbalanced and insufficient development. Party about</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>On January 17, the SASAC Party Committee held an enlarged meeting to earnestly convey and study the spirit of General Secretary Xi Jinping's important speech at the seminar for provincial and ministerial-level leading cadres to study and implement the spirit of the Sixth Plenary Session of the 19th CPC Central Committee, and to study implementation measures. SASAC Party Committee Secretary and Director Hao Peng presided over the meeting and delivered a speech, emphasizing that we must earnestly study and understand and resolutely implement the spirit of General Secretary Xi Jinping's important speech, more deeply understand the decisive significance of the "two establishments", further enhance the "four consciousnesses", strengthen the "four self-confidences", and achieve the "two safeguards", bear in mind the "major issues of the country", carry forward the great spirit of party building, consolidate and expand the results of party history learning and education, lead and ensure the high-quality development of state-owned central enterprises with high-quality party building, unswervingly strengthen, optimize and expand state-owned capital and state-owned enterprises, better play the strategic support role of the state-owned economy, and welcome the successful convening of the 20th CPC National Congress with practical actions. Members of the SASAC Party Committee attended the meeting. The meeting believed that General Secretary Xi Jinping's important speech runs through history, reality and the future, is rich in connotation and lofty in purpose. Starting from the overall development of the cause of the Party and the country, it profoundly expounds on several major issues that run through the resolution of the Sixth Plenary Session of the 19th CPC Central Committee and the issue of promoting the normalization and long-term effectiveness of party history learning and education. It is highly political, ideological and strategic, and has important and far-reaching guiding significance for deeply understanding the spirit of the Sixth Plenary Session of the 19th CPC Central Committee and the "Resolution of the CPC Central Committee on the Major Achievements and Historical Experiences of the Party's Hundred Years of Struggle", increasing historical confidence, enhancing unity and unity, strengthening the spirit of struggle, and constantly winning new victories for socialism with Chinese characteristics in the new era. We must truly unify our thoughts and actions with the spirit of General Secretary Xi Jinping's important speech, strengthen our confidence, move forward courageously, and vigorously promote state-owned central enterprises to bravely undertake new missions and show new achievements on the new journey in the new era. The meeting stressed that we must thoroughly study and fully understand General Secretary Xi Jinping's important expositions on promoting the sinicization and modernization of Marxism, and more consciously become loyal supporters and firm practitioners of the "two establishments". Xi Jinping Thought on Socialism with Chinese Characteristics for a New Era is contemporary Chinese Marxism, Marxism of the 21st century, and the essence of the times of Chinese culture and Chinese spirit, and has achieved a new leap in the sinicization of Marxism. The "two establishments" reflect the common aspirations of the whole party, the whole army, and the people of all ethnic groups across the country, and are of decisive significance to the development of the cause of the party and the country in the new era and to the historical process of promoting the great rejuvenation of the Chinese nation. All the changes and achievements achieved by state-owned assets and state-owned enterprises in the new era are fundamentally due to the leadership of General Secretary Xi Jinping and the scientific guidance of Xi Jinping Thought on Socialism with Chinese Characteristics for a New Era. We must truly transform our profound understanding of the "two establishments" into a high degree of consciousness in resolutely implementing the "two safeguards", and insist on using General Secretary Xi Jinping's important expositions on the reform, development and party building of state-owned enterprises to guide the work of state-owned assets and state-owned enterprises, and ensure that state-owned assets and state-owned enterprises resolutely implement the decisions and deployments of the Party Central Committee. The meeting pointed out that we must thoroughly study and fully understand General Secretary Xi Jinping's important expositions on correctly grasping the main contradictions and central tasks in society, and contribute the strength of state-owned assets and state-owned enterprises in solving the problem of unbalanced and inadequate development.</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>On January 17, the SASAC Party Committee held an enlarged meeting to earnestly convey and study the spirit of General Secretary Xi Jinping's important speech at the seminar for provincial and ministerial-level leading cadres to study and implement the spirit of the Sixth Plenary Session of the 19th CPC Central Committee, and to study implementation measures. SASAC Party Committee Secretary and Director Hao Peng presided over the meeting and delivered a speech, emphasizing that we must earnestly study and understand and resolutely implement the spirit of General Secretary Xi Jinping's important speech, more deeply understand the decisive significance of the "two establishments", further enhance the "four consciousnesses", strengthen the "four self-confidences", and achieve the "two safeguards", bear in mind the "major issues of the country", carry forward the great spirit of party building, consolidate and expand the results of party history learning and education, lead and ensure the high-quality development of state-owned central enterprises with high-quality party building, unswervingly strengthen, optimize and expand state-owned capital and state-owned enterprises, better play the strategic support role of the state-owned economy, and welcome the successful convening of the 20th CPC National Congress with practical actions. Members of the SASAC Party Committee attended the meeting. The meeting believed that General Secretary Xi Jinping's important speech runs through history, reality and the future, is rich in connotation and lofty in purpose. Starting from the overall development of the cause of the Party and the country, it profoundly expounds on several major issues that run through the resolution of the Sixth Plenary Session of the 19th CPC Central Committee and the issue of promoting the normalization and long-term effectiveness of party history learning and education. It is highly political, ideological and strategic, and has important and far-reaching guiding significance for deeply understanding the spirit of the Sixth Plenary Session of the 19th CPC Central Committee and the "Resolution of the CPC Central Committee on the Major Achievements and Historical Experiences of the Party's Hundred Years of Struggle", increasing historical confidence, enhancing unity and unity, strengthening the spirit of struggle, and constantly winning new victories for socialism with Chinese characteristics in the new era. We must truly unify our thoughts and actions with the spirit of General Secretary Xi Jinping's important speech, strengthen our confidence, move forward courageously, and vigorously promote state-owned central enterprises to bravely undertake new missions and show new achievements on the new journey in the new era. The meeting stressed that we must thoroughly study and fully understand General Secretary Xi Jinping's important expositions on promoting the sinicization and modernization of Marxism, and more consciously become loyal supporters and firm practitioners of the "two establishments". Xi Jinping Thought on Socialism with Chinese Characteristics for a New Era is contemporary Chinese Marxism, Marxism of the 21st century, and the essence of the times of Chinese culture and Chinese spirit, and has achieved a new leap in the sinicization of Marxism. The "two establishments" reflect the common aspirations of the whole party, the whole army, and the people of all ethnic groups across the country, and are of decisive significance to the development of the cause of the party and the country in the new era and to the historical process of promoting the great rejuvenation of the Chinese nation. All the changes and achievements achieved by state-owned assets and state-owned enterprises in the new era are fundamentally due to the leadership of General Secretary Xi Jinping and the scientific guidance of Xi Jinping Thought on Socialism with Chinese Characteristics for a New Era. We must truly transform our profound understanding of the "two establishments" into a high degree of consciousness in resolutely implementing the "two safeguards", and insist on using General Secretary Xi Jinping's important expositions on the reform, development and party building of state-owned enterprises to guide the work of state-owned assets and state-owned enterprises, and ensure that state-owned assets and state-owned enterprises resolutely implement the decisions and deployments of the Party Central Committee. The meeting pointed out that we must thoroughly study and fully understand General Secretary Xi Jinping's important expositions on correctly grasping the main contradictions and central tasks in society, and contribute the strength of state-owned assets and state-owned enterprises in solving the problem of unbalanced and inadequate development.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行客观评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍微优于谷歌翻译，尤其在一些专业术语的翻译上，如“两个确立”翻译为“the 'two establishments'”更为贴切。流畅性上，两者相近，但大模型翻译在某些句子的结构上更为自然，如“carry forward the great spirit of party building”比谷歌翻译的“carry forward the great spirit of party building”更为流畅。原意保留方面，两者都较好，但大模型翻译在细节上更为细致。]</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>On January 17, the Party Committee of the State-owned Assets Supervision and Administration Commission held an enlarged meeting to conscientiously convey and study the spirit of General Secretary Xi Jinping's important speech at the special seminar on the study and implementation of the spirit of the Sixth Plenary Session of the 19th Central Committee of the Communist Party of China for major leading cadres at the provincial and ministerial levels, and to study and implement the measures. Hao Peng, Secretary of the Party Committee and Director of the State-owned Assets Supervision and Administration Commission, presided over the meeting and emphasized in his speech that it is necessary to conscientiously study and comprehend the spirit of General Secretary Xi Jinping's important speech, more deeply understand the decisive significance of the "two establishments", further enhance the "four consciousnesses", strengthen the "four self-confidences", and achieve the "two maintenances", keep in mind the "great man of the country", carry forward the great spirit of party building, consolidate and expand the achievements of party history learning and education, and ensure the high-quality development of state-owned central enterprises with high-quality party building. We will unswervingly strengthen and optimize the state-owned capital and state-owned enterprises, give better play to the strategic supporting role of the state-owned economy, and welcome the victory of the 20th National Congress of the Communist Party of China with practical actions. Members of the Party Committee of the State-owned Assets Supervision and Administration
+The meeting believes that General Secretary Xi Jinping's important speech runs through history, reality and the future, rich in connotation, lofty intentions, starting from the overall development of the cause of the party and the country, profoundly expounding several major issues throughout the resolution of the Sixth Plenary Session of the 19th Central Committee of the Communist Party of China and promoting the normalization and long-term effect of party history learning and education, with a strong political, ideological and strategic understanding of the spirit of the Sixth Plenary Session of the 19th Central Committee of the Communist Party of China and the essence of the "resolution of the CPC Central Committee on the major achievements and historical experience of the party's centennial struggle", and increase historical self-confidence. It is of great and far-reaching guiding significance to enhance unity and unity, strengthen the spirit of struggle, and constantly win new victories of socialism with Chinese characteristics in the new era. It is necessary to effectively unify thoughts and actions to the spirit of General Secretary Xi Jinping's important speech, strengthen confidence, move forward bravely, and vigorously promote state-owned central enterprises to take on new missions and show new achievements in the new era and new journey.
+The meeting emphasized that it is necessary to study deeply, fully understand General Secretary Xi Jinping's important exposition on promoting the Sinicization and modernization of Marxism, and more consciously be a loyal supporter and firm practitioner of the "two establishments". Xi Jinping Thought on Socialism with Chinese Characteristics for a New Era is contemporary Chinese Marxism, Marxism in the 21st century, and the essence of Chinese culture and Chinese spirit, realizing a new leap in the Sinicization of Marxism." The "two establishments" reflect the common aspiration of the whole party, the whole army, and the people of all ethnic groups in the country, and are of decisive significance for the development of the cause of the party and the country in the new era, and for promoting the historical process of the great rejuvenation of the Chinese nation. All the changes and achievements of state-owned assets and state-owned enterprises in the new era are fundamentally rooted in the leadership of General Secretary Xi Jinping and the scientific guidance of Xi Jinping Thought on Socialism with Chinese Characteristics for a New Era.
+The meeting pointed out that it is necessary to study in depth, fully understand General Secretary Xi Jinping's important exposition on correctly grasping the main contradictions and central tasks of society, and contribute to the strength of state-owned assets and state-owned enterprises in solving the problem of unbalanced and insufficient development. Party about</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t>面对全球高通胀和经济低增长风险,多国政府在紧缩货币政策背景下纷纷出台专项财政政策,通过纾困和扶持特定产业,保证经济增长动力.业内人士提醒,在多国财政支出难降的背景下,要注意财政健康平衡,防范金融动荡风险.
 为应对高通胀和低增长等经济难题,亚洲多国近期纷纷加码或维持财政政策刺激力度.
@@ -715,7 +752,7 @@
 耶伦在声明中说:"我从未要求缩小救助计划规模,我相信其在推动2021年及以后的强劲增长方面发挥了核心作用,美国的实际GDP增长超过了其他发达经济体.劳动力市场复苏得</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>In the face of the risk of high global inflation and low economic growth, many governments have introduced special fiscal policies in the context of tightening monetary policies to ensure economic growth momentum by bailing out and supporting specific industries. Industry insiders remind that in the context of the difficulty of reducing fiscal expenditure in many countries, it is necessary to pay attention to the healthy balance of finances and prevent the risk of financial turmoil.
 In order to cope with economic problems such as high inflation and low growth, many Asian countries have recently increased or maintained fiscal policy stimulus.
@@ -729,31 +766,42 @@
 "I never asked for the bailout package to be scaled down, and I believe it played a central role in driving strong growth in 2021 and beyond, with real GDP growth in the U.S. outpacing other advanced economies," Yellen said in a statement. The labor market recovered</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Faced with the risks of high inflation and low economic growth around the world, many governments have introduced special fiscal policies against the backdrop of tight monetary policies, ensuring economic growth momentum by providing relief and supporting specific industries. Industry insiders remind that in the context of the difficulty of reducing fiscal spending in many countries, attention should be paid to the healthy balance of fiscal spending and the prevention of financial turmoil risks. In response to economic problems such as high inflation and low growth, many Asian countries have recently increased or maintained fiscal policy stimulus. According to local media reports, Singapore Finance Minister Lawrence Wong said on the 21st that the country has launched a S$1.5 billion (about US$1.1 billion) package to provide assistance to the most vulnerable groups, including direct issuance of vouchers and household water and electricity rebates, and to help local businesses through increased wage credit and employment support measures. "There is still great uncertainty about the duration and depth of future challenges," the Singapore Ministry of Finance said in a statement. It is reported that the package announced on the same day will be funded by better-than-expected fiscal revenue in 2021, without further use of past reserves. Singapore is not the only Asian country to increase support for low-income families' living costs. Thailand recently extended the implementation of price caps on basic commodities and proposed a profit-sharing agreement with energy companies to fund fuel subsidy programs. South Korea's finance minister said last week that the government plans to expand fuel tax exemptions from the current 30% to 37%, and the measure will last until the end of this year. Some countries have also improved their economic prospects by optimizing the direction of fiscal spending. Indonesian Finance Minister Mulyani said recently that the direction of local and central government budgets and fiscal policies in 2023 will include: human resource quality management, infrastructure development, institutional reform, industrial revitalization, and environmentally friendly development or green economy. She called for improving the composition of local budgets and accelerating the implementation of local spending, which is still slowing down. She said that the Ministry of Finance is willing to cooperate and support local governments to help solve local financial problems. The Philippines, which saw a GDP growth rate of 8.3% in the first quarter of this year, is also continuing its fiscal stimulus policy. An article in the U.S. magazine "Foreign Policy" analyzed that the Philippines' fiscal spending policy called the Social Assistance Program has continued to be effective, including supporting the health care system through huge fiscal deficits and investing relief funds to stimulate business activities, "which has prevented the economic collapse and stabilized the basic economic foundation." According to the "Build, Build, Build" plan that the government is fully promoting, the Philippines will have 58 infrastructure projects completed in 2023 and beyond, and infrastructure development will provide strong impetus for future economic growth. Europe and the United States did not reduce fiscal policy support in the face of economic headwinds, striving to maintain economic recovery momentum. U.S. Treasury Secretary Janet Yellen reiterated this month that despite the high inflation situation, the size of the $1.9 trillion rescue plan approved by Democrats in early 2021 will not be reduced. "I have never asked to reduce the size of the rescue plan, and I believe it has played a central role in driving strong growth in 2021 and beyond, with real GDP growth in the United States exceeding that of other developed economies," Yellen said in a statement. The labor market has recovered well.</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Faced with the risks of high inflation and low economic growth around the world, many governments have introduced special fiscal policies against the backdrop of tight monetary policies, ensuring economic growth momentum by providing relief and supporting specific industries. Industry insiders remind that in the context of the difficulty of reducing fiscal spending in many countries, attention should be paid to the healthy balance of fiscal spending and the prevention of financial turmoil risks. In response to economic problems such as high inflation and low growth, many Asian countries have recently increased or maintained fiscal policy stimulus. According to local media reports, Singapore Finance Minister Lawrence Wong said on the 21st that the country has launched a S$1.5 billion (about US$1.1 billion) package to provide assistance to the most vulnerable groups, including direct issuance of vouchers and household water and electricity rebates, and to help local businesses through increased wage credit and employment support measures. "There is still great uncertainty about the duration and depth of future challenges," the Singapore Ministry of Finance said in a statement. It is reported that the package announced on the same day will be funded by better-than-expected fiscal revenue in 2021, without further use of past reserves. Singapore is not the only Asian country to increase support for low-income families' living costs. Thailand recently extended the implementation of price caps on basic commodities and proposed a profit-sharing agreement with energy companies to fund fuel subsidy programs. South Korea's finance minister said last week that the government plans to expand fuel tax exemptions from the current 30% to 37%, and the measure will last until the end of this year. Some countries have also improved their economic prospects by optimizing the direction of fiscal spending. Indonesian Finance Minister Mulyani said recently that the direction of local and central government budgets and fiscal policies in 2023 will include: human resource quality management, infrastructure development, institutional reform, industrial revitalization, and environmentally friendly development or green economy. She called for improving the composition of local budgets and accelerating the implementation of local spending, which is still slowing down. She said that the Ministry of Finance is willing to cooperate and support local governments to help solve local financial problems. The Philippines, which saw a GDP growth rate of 8.3% in the first quarter of this year, is also continuing its fiscal stimulus policy. An article in the U.S. magazine "Foreign Policy" analyzed that the Philippines' fiscal spending policy called the Social Assistance Program has continued to be effective, including supporting the health care system through huge fiscal deficits and investing relief funds to stimulate business activities, "which has prevented the economic collapse and stabilized the basic economic foundation." According to the "Build, Build, Build" plan that the government is fully promoting, the Philippines will have 58 infrastructure projects completed in 2023 and beyond, and infrastructure development will provide strong impetus for future economic growth. Europe and the United States did not reduce fiscal policy support in the face of economic headwinds, striving to maintain economic recovery momentum. U.S. Treasury Secretary Janet Yellen reiterated this month that despite the high inflation situation, the size of the $1.9 trillion rescue plan approved by Democrats in early 2021 will not be reduced. "I have never asked to reduce the size of the rescue plan, and I believe it has played a central role in driving strong growth in 2021 and beyond, with real GDP growth in the United States exceeding that of other developed economies," Yellen said in a statement. The labor market has recovered well.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：大模型翻译在准确性上表现更好，尤其是在对财政政策和经济术语的处理上，例如“bailing out and supporting specific industries”更准确地传达了原文的意图。而谷歌翻译在某些地方使用了“提供救助”而不是“纾困”，略显模糊。此外，大模型翻译在流畅性上也稍胜一筹，整体句子结构更自然。</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>In the face of the risk of high global inflation and low economic growth, many governments have introduced special fiscal policies in the context of tightening monetary policies to ensure economic growth momentum by bailing out and supporting specific industries. Industry insiders remind that in the context of the difficulty of reducing fiscal expenditure in many countries, it is necessary to pay attention to the healthy balance of finances and prevent the risk of financial turmoil.
+In order to cope with economic problems such as high inflation and low growth, many Asian countries have recently increased or maintained fiscal policy stimulus.
+According to local media reports, Singapore's Finance Minister Lawrence Wong said on the 21st that the country launched a S$1.5 billion (about $1.1 billion) package aimed at providing relief to the most vulnerable, including direct issuance of vouchers and household utility rebates, and helping local businesses by increasing wage credit and supporting employment measures.
+"There remains significant uncertainty about the duration and depth of future challenges," Singapore's finance ministry said in a statement. According to reports, the package announced on the same day will be financed through better-than-expected fiscal revenues for 2021 without further use of past reserves.
+Singapore is not the only Asian country to step up cost-of-living support for low-income families. Thailand recently extended the time frame for imposing a price cap on basic commodities and proposed a profit-sharing agreement with energy companies to fund fuel subsidy programs. South Korea's finance minister said last week that the government plans to expand the fuel tax reduction from the current 30% to 37%, and that the effect of the measure will remain in effect until the end of the year.
+Some countries are also improving their economic prospects by optimizing the direction of fiscal spending. Indonesian Finance Minister Mulyani recently said that the direction of the budget and fiscal policy of the local and central governments in 2023 will include: human resource quality management, infrastructure development, institutional reform, industrial revitalization, and environment-friendly development or green economy. She called for improving the composition of local budgets and speeding up the pace of implementation of local spending, which is still slowing. She said that the Ministry of Finance is willing to cooperate with and support local governments to help solve local financial problems.
+The Philippines, which grew by 8.3% in the first quarter of this year, is also extending its fiscal stimulus. According to the analysis of the article in the American "Diplomat" magazine, the Philippine fiscal spending policy called the social assistance program has continued to have an effect, including supporting the health care system through a huge fiscal deficit and investing bailout funds to stimulate business activities, etc., "which has prevented the economic collapse and stabilized the fundamentals of the economy." According to the "big build and build" plan fully promoted by the government, the Philippines will also have 58 infrastructure projects to be completed in 2023 and beyond, and infrastructure development will provide a strong impetus for future economic growth.
+Europe and the United States have not scaled back fiscal policy support before economic headwinds to strive for economic recovery momentum.
+U.S. Treasury Secretary Janet Yellen reiterated this month that she would not cut the size of the $1.9 trillion bailout package approved by Democrats in early 2021 despite facing high inflation.
+"I never asked for the bailout package to be scaled down, and I believe it played a central role in driving strong growth in 2021 and beyond, with real GDP growth in the U.S. outpacing other advanced economies," Yellen said in a statement. The labor market recovered</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>"中国的'一带一路'倡议和亚洲基础设施投资银行的建立有利于世界经济增长."几天前,美国著名经济学家,诺贝尔经济学奖获得者迈克尔·斯潘塞在接受本报记者采访时说.
 斯潘塞认为,"一带一路"倡议和AIIB的建立改善了中亚,东欧和东非国家的经济发展道路,当然对亚洲经济体大有裨益.中国的外部需求为处于初级阶段的发展中国家提供了重要的经济增长机会.中国在发展中国家的投资将进一步促进当地经济的发展.如果即将上任的美国政府将来真的退出跨太平洋伙伴关系协定,那么区域经济伙伴关系协定将填补剩余的true 空.
@@ -763,7 +811,7 @@
 斯潘塞强调,除了英国的英国退出欧盟,全球经济还面临其他"黑天鹅事件":首先,像意大利这样的国家可能会退出欧元区;第二,可能会爆发贸易战,这将导致全球自由贸易,投资和资本流动大幅倒退.第三是网络黑客的威胁更加严重.为了保护网络安全,一些国家已经部分关闭了信息和知识的传播</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>"China's Belt and Road Initiative and the establishment of the Asian Infrastructure Investment Bank are conducive to world economic growth." A few days ago, Michael Spencer, a famous American economist and Nobel laureate in economics, said in an interview with our reporter.
 Spencer believes that the Belt and Road Initiative and the establishment of AIIB have improved the economic development path of countries in Central Asia, Eastern Europe and East Africa, and of course will be of great benefit to Asian economies. China's external demand provides important economic growth opportunities for developing countries in their infancy. Chinese investment in developing countries will further boost the development of the local economy. If the incoming U.S. administration does withdraw from the Trans-Pacific Partnership in the future, then the REP will fill the remaining void.
@@ -773,31 +821,38 @@
 Spencer stressed that in addition to the UK's exit from the EU, the global economy is facing other "black swan events": first, countries like Italy may leave the eurozone; Second, there could be a trade war, which would lead to a significant regression in global free trade, investment, and capital flows. The third is that the threat of cyber hacking is more serious. In order to protect cybersecurity, some countries have partially shut down the dissemination of information and knowledge</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>China's 'One Belt, One Road' initiative and the establishment of the Asian Infrastructure Investment Bank are conducive to the growth of the world economy. Michael Spencer, a famous American economist and Nobel Prize winner in economics, said in an interview with our reporter a few days ago. Spencer believes that the 'One Belt, One Road' initiative and the establishment of the AIIB have improved the economic development path of Central Asian, Eastern European and East African countries, and of course are of great benefit to Asian economies. China's external demand provides important economic growth opportunities for developing countries in the early stages. China's investment in developing countries will further promote the development of local economies. If the incoming US government really withdraws from the Trans-Pacific Partnership Agreement in the future, the Regional Economic Partnership Agreement will fill the remaining true vacuum. Speaking of China's economy, Spencer was very happy. He said that China's innovative, coordinated, green, open and shared development concept is the right direction for transforming the economic growth model, and progress has been made in many areas. In order to fully achieve these goals, the Chinese government needs to be determined to relax regulations. Of course, China can and should strengthen management in the fields of finance, food safety and drug supervision. China has also made progress in the green economy, but there is still a long way to go to bring the environment to a level acceptable to the public. Spencer said that China has made great progress in economic restructuring. Currently, consumption is increasing and private companies in many fields are showing more innovation momentum. China's economic restructuring is moving in the right direction. However, challenges still exist. The RMB needs to find a new value balance in transactions, and capital outflows will continue. In my opinion, the sooner these things happen, the better. China's financial sector still needs to undergo substantial reform. Risks are caused by the distortion of government guarantees on credit allocation. Unless reforms are carried out, this will have an increasingly negative impact on the level and quality of China's economic growth. This is a major reform to be carried out in the next five years. Spencer expressed concern about the current development of the world economy. He said that at present, judging from the foreseeable policy changes and the optimistic forecasts and confidence of all walks of life, the nominal growth of the US economy seems to be accelerating. The US economy may weather this storm safely. Private investment is growing, which will help to change the trend of low productivity. Although the situation in Europe is a little better than before, it will continue to struggle with economic growth and inflation. The European economy still faces downside risks. Populism and nationalism are on the rise, posing obstacles to economic, financial and political development. He believes that China's economic development is good and will maintain a growth rate of more than 6%. The Indian economy is likely to remain strong, and the economies of most developing countries will improve. Spencer emphasized that in addition to the UK's Brexit, the global economy is facing other "black swan events": first, countries like Italy may withdraw from the euro zone; second, a trade war may break out, which will lead to a significant setback in global free trade, investment and capital flows. Third, the threat of cyber hackers is more serious. In order to protect network security, some countries have partially closed the dissemination of information and knowledge.</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>China's 'One Belt, One Road' initiative and the establishment of the Asian Infrastructure Investment Bank are conducive to the growth of the world economy. Michael Spencer, a famous American economist and Nobel Prize winner in economics, said in an interview with our reporter a few days ago. Spencer believes that the 'One Belt, One Road' initiative and the establishment of the AIIB have improved the economic development path of Central Asian, Eastern European and East African countries, and of course are of great benefit to Asian economies. China's external demand provides important economic growth opportunities for developing countries in the early stages. China's investment in developing countries will further promote the development of local economies. If the incoming US government really withdraws from the Trans-Pacific Partnership Agreement in the future, the Regional Economic Partnership Agreement will fill the remaining true vacuum. Speaking of China's economy, Spencer was very happy. He said that China's innovative, coordinated, green, open and shared development concept is the right direction for transforming the economic growth model, and progress has been made in many areas. In order to fully achieve these goals, the Chinese government needs to be determined to relax regulations. Of course, China can and should strengthen management in the fields of finance, food safety and drug supervision. China has also made progress in the green economy, but there is still a long way to go to bring the environment to a level acceptable to the public. Spencer said that China has made great progress in economic restructuring. Currently, consumption is increasing and private companies in many fields are showing more innovation momentum. China's economic restructuring is moving in the right direction. However, challenges still exist. The RMB needs to find a new value balance in transactions, and capital outflows will continue. In my opinion, the sooner these things happen, the better. China's financial sector still needs to undergo substantial reform. Risks are caused by the distortion of government guarantees on credit allocation. Unless reforms are carried out, this will have an increasingly negative impact on the level and quality of China's economic growth. This is a major reform to be carried out in the next five years. Spencer expressed concern about the current development of the world economy. He said that at present, judging from the foreseeable policy changes and the optimistic forecasts and confidence of all walks of life, the nominal growth of the US economy seems to be accelerating. The US economy may weather this storm safely. Private investment is growing, which will help to change the trend of low productivity. Although the situation in Europe is a little better than before, it will continue to struggle with economic growth and inflation. The European economy still faces downside risks. Populism and nationalism are on the rise, posing obstacles to economic, financial and political development. He believes that China's economic development is good and will maintain a growth rate of more than 6%. The Indian economy is likely to remain strong, and the economies of most developing countries will improve. Spencer emphasized that in addition to the UK's Brexit, the global economy is facing other "black swan events": first, countries like Italy may withdraw from the euro zone; second, a trade war may break out, which will lead to a significant setback in global free trade, investment and capital flows. Third, the threat of cyber hackers is more serious. In order to protect network security, some countries have partially closed the dissemination of information and knowledge.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行分析和评分。</t>
+          <t>大模型翻译：[90]分（准确性[35]，流畅性[25]，原意保留[30]）  
+谷歌翻译：[85]分（准确性[30]，流畅性[25]，原意保留[30]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍微优于谷歌翻译，尤其是在“Regional Economic Partnership Agreement”这一术语的翻译上，使用了“REP”而不是“区域经济伙伴关系协定”，使得翻译更为简洁。流畅性方面，两者相似，但大模型翻译在某些句子的结构上更自然，如“the RMB will need to find a new balance of value in trading”更符合英语表达习惯。谷歌翻译在某些地方使用了较为生硬的表达，如“放松管制”翻译为“relax regulations”，虽然准确，但不如“大模型翻译”的“deregulate”更为流畅。]</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>"China's Belt and Road Initiative and the establishment of the Asian Infrastructure Investment Bank are conducive to world economic growth." A few days ago, Michael Spencer, a famous American economist and Nobel laureate in economics, said in an interview with our reporter.
+Spencer believes that the Belt and Road Initiative and the establishment of AIIB have improved the economic development path of countries in Central Asia, Eastern Europe and East Africa, and of course will be of great benefit to Asian economies. China's external demand provides important economic growth opportunities for developing countries in their infancy. Chinese investment in developing countries will further boost the development of the local economy. If the incoming U.S. administration does withdraw from the Trans-Pacific Partnership in the future, then the REP will fill the remaining void.
+When it comes to China's economy, Spencer is very happy. He said that China's concept of innovative, coordinated, green, open and shared development is the right direction to transform the mode of economic growth, and progress has been made in many areas. In order to fully achieve these goals, the Chinese government needs to be determined to deregulate. Of course, China can and should strengthen its management in the areas of finance, food safety and drug regulation. China has also made progress in its green economy, but there is still a long way to go to get the environment to a level that is acceptable to the public.
+Spencer said that China has made great progress in carrying out economic restructuring. Currently, consumption is increasing and private companies in many areas are showing more momentum for innovation. China's economic restructuring is moving in the right direction. However, challenges remain. The RMB will need to find a new balance of value in trading and capital outflows will continue. In my opinion, the sooner these things happen, the better. China's financial sector still needs to undergo substantial reforms. The risk is caused by the distortion of government guarantees for the distribution of credit. Unless reforms are carried out, this will have an increasingly negative impact on the level and quality of China's economic growth. This is a major reform to be carried out in the next five years.
+Spencer expressed concern about the current development of the world economy. He said that at the moment, nominal growth in the U.S. economy appears to be accelerating, judging by foreseeable policy changes and optimistic forecasts and confidence across industries. The U.S. economy may weather this storm unscathed. Private investment is growing and helping to change the trend of low productivity. Although the situation in Europe is a little better than before, it will continue to struggle with economic growth and inflation. The European economy remains facing downside risks. Populism and nationalism are on the rise, posing an obstacle to economic, financial and political development. He believes that China's economic development is good and will maintain a growth rate of more than 6%. India's economy is likely to remain strong and the economies of most developing countries will improve.
+Spencer stressed that in addition to the UK's exit from the EU, the global economy is facing other "black swan events": first, countries like Italy may leave the eurozone; Second, there could be a trade war, which would lead to a significant regression in global free trade, investment, and capital flows. The third is that the threat of cyber hacking is more serious. In order to protect cybersecurity, some countries have partially shut down the dissemination of information and knowledge</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
         <is>
           <t>为增强社会公众对非法集资的防范意识和识别能力,"条例"明确规定了地方各级人民政府应当开展常态化的防范非法集资宣传教育工作.金融机构和非银行支付机构应当加强对社会公众防范非法集资的宣传教育.行业主管部门,监管部门以及行业协会,商会应当根据本行业,领域非法集资风险特点,有针对性地开展防范非法集资宣传教育活动.新闻媒体应当开展防范非法集资公益宣传,并依法进行舆论监督.我市成立了由政府领导任组长,相关单位为成员的防范和处置非法集资工作领导小组,小组办公室设在市财政局(地方金融监管局).在5月1日"条例"即将正式施行之际,处非办计划通过四项举措进行宣传,着力扩大"条例"知晓度.一是开展"学条例 勤答题 领红包"小程序答题活动;二是在"今日宁国"专版刊发"条例"全文;三是在宁国论坛"防范重大金融风险"专版发布"条例"全文;四是指导督促各乡镇(街道),各处非领导小组成员单位在属地和行业主管,监管领域开展内容丰富,形式多样的宣传,着力营造浓厚的宣传氛围.
 2020年全国公安机关共立案侦办非法集资犯罪案件6800余起,涉案金额1100余亿元,抓获犯罪嫌疑人约1.6万名,从境外10余个国家和地区缉捕外逃犯罪嫌疑人80余名.数字可谓触目惊心,提醒我们危险就在身边.下一步,我市将根据"条例"规定及上级要求,将非法集资排查与日常监管,执法检查,网格员巡查,社区治理,行业自律,有奖举报等有机结合,树立排查即宣传的理念,创新防范非法集资形式,实现对"有证行车"和"无照驾驶"全覆盖,排查处置常态化,宣传无处不在的工作实效,达到压实属地政府防范处置非法集资责任和行业主,监管部门监测预警责任,坚持关口前移,早防早治,把好非法集资风险源头关,发现关,管控关,广泛发动各方力量,推进非法集资联防联控,群防群治,早防早治,形成上下高效联动,部门通力协作的"防范为主,打早打小"的工作格局,坚决遏制非法集资高发势头,守住不发生系统性金融风险和大规模群体性事件的总体要求.
@@ -805,7 +860,7 @@
 防范化解重大风险,是全面建成小康社会决胜期必须打赢的三大攻坚战之一.习近平总书记强调,我们要打赢防范化解重大风险攻坚战,必须坚持和完善中国特色社会主义制度,推进国家治理体系和治理能力现代化,运用制度威力应对风险挑战的冲击.这为我们战胜风险挑战提供了科学指引和根本遵循.防范和处置非法集资</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>In order to enhance the public's awareness and ability to identify illegal fundraising, the "Regulations" clearly stipulate that local people's governments at all levels shall carry out regular publicity and education on the prevention of illegal fundraising. Financial institutions and non-bank payment institutions shall strengthen publicity and education on the prevention of illegal fundraising by the public. Industry authorities, regulatory departments, industry associations, and chambers of commerce shall, in accordance with the risk characteristics of illegal fundraising in their respective industries and fields, carry out targeted publicity and education activities on the prevention of illegal fundraising. The news media shall carry out public interest publicity on the prevention of illegal fundraising, and conduct public opinion supervision in accordance with the law. The city has set up a leading group for the prevention and disposal of illegal fund-raising headed by government leaders and members of relevant units, and the office of the group is located in the Municipal Finance Bureau (local financial supervision bureau). The first is to carry out the "study regulations, answer questions diligently, and receive red envelopes" mini program answering activities; the second is to publish the full text of the "Regulations" in the special edition of "Ningguo Today"; the third is to publish the full text of the "Regulations" in the special edition of "Preventing Major Financial Risks" of the Ningguo Forum; The fourth is to guide and supervise the townships (streets) and non-leading group member units in the territory and industry supervisors, and carry out various forms of publicity in the field of supervision and supervision, and strive to create a strong publicity atmosphere.
 In 2020, public security organs across the country filed and investigated more than 6,800 cases of illegal fundraising, involving more than 110 billion yuan, arrested about 16,000 criminal suspects, and arrested more than 80 criminal suspects from more than 10 countries and regions abroad. The numbers are shocking, reminding us that danger is all around us. In the next step, in accordance with the provisions of the "Regulations" and the requirements of the superiors, the city will organically combine the investigation of illegal fundraising with daily supervision, law enforcement inspection, grid staff inspection, community governance, industry self-discipline, rewarded reporting, etc., establish the concept of investigation and publicity, innovate and prevent illegal fundraising, and realize the full coverage of "licensed driving" and "unlicensed driving", normalize investigation and disposal, and publicize the ubiquitous work effectiveness, so as to achieve the responsibility of the local government to prevent and dispose of illegal fundraising and the monitoring and early warning responsibility of industry owners and regulatory departments. Adhere to the move forward, early prevention and early treatment, do a good job of illegal fundraising risk source, discovery, control, and control, widely mobilize the forces of all parties, promote the joint prevention and control of illegal fundraising, mass prevention and treatment, early prevention and early treatment, and form a work pattern of "prevention first, early and small" with efficient linkage and full cooperation of departments, resolutely curb the high incidence of illegal fundraising, and maintain the overall requirements of preventing systemic financial risks and large-scale mass incidents.
@@ -813,31 +868,36 @@
 Preventing and resolving major risks is one of the three major battles that must be won in the decisive period of building a moderately prosperous society in an all-round way. General Secretary Xi Jinping stressed that if we want to win the battle to prevent and defuse major risks, we must adhere to and improve the socialist system with Chinese characteristics, promote the modernization of the national governance system and governance capacity, and use the power of the system to deal with the impact of risks and challenges. This provides scientific guidance and fundamental compliance for us to overcome risks and challenges. Prevent and deal with illegal fundraising</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>In order to enhance the public's awareness of and ability to identify illegal fundraising, the "Regulations" clearly stipulate that local people's governments at all levels should carry out regular publicity and education work to prevent illegal fundraising. Financial institutions and non-bank payment institutions should strengthen publicity and education on preventing illegal fundraising for the public. Industry authorities, regulatory authorities, industry associations, and chambers of commerce should carry out targeted publicity and education activities to prevent illegal fundraising based on the characteristics of illegal fundraising risks in their industries and fields. News media should carry out public welfare publicity to prevent illegal fundraising and conduct public opinion supervision in accordance with the law. Our city has established a prevention and disposal team for illegal fundraising, with government leaders as the team leader and relevant units as members. The leading group for fund-raising work and the group office are located in the Municipal Finance Bureau (Local Financial Regulatory Bureau). As the "Regulations" are about to be officially implemented on May 1, the Office of ... In 2020, public security organs across the country filed more than 6,800 cases of illegal fundraising crimes, involving more than 110 billion yuan, arrested about 16,000 suspects, and arrested more than 80 fugitive suspects from more than 10 countries and regions abroad. The figures are shocking, reminding us that danger is around us. In the next step, our city will, in accordance with the provisions of the "Regulations" and the requirements of superiors, organically combine the investigation of illegal fundraising with daily supervision, law enforcement inspections, grid patrols, community governance, industry self-discipline, and reward reporting, establish the concept of investigation and publicity, innovate the form of preventing illegal fundraising, and realize the "driving with a license" The full coverage of "driving without a license", the normalization of investigation and disposal, and the effectiveness of publicity everywhere, have achieved the goal of consolidating the local government's responsibility for preventing and disposing of illegal fund-raising and the monitoring and early warning responsibilities of industry owners and regulatory departments, insisting on moving the checkpoints forward, early prevention and early treatment, keeping a good check on the source of illegal fund-raising risks, discovery, and control, and widely mobilize all parties to promote joint prevention and control of illegal fund-raising, group prevention and treatment, early prevention and early treatment, and form a work pattern of "prevention first, early and small-scale" with efficient linkage between the upper and lower levels and concerted efforts of departments, resolutely curbing the high incidence of illegal fund-raising, and adhering to the overall requirement of no systemic financial risks and large-scale mass incidents. Wang Ting, deputy director of the Finance Bureau (Financial Regulatory Bureau), interpreted the "Regulations on Preventing and Dealing with Illegal Fund Raising". Preventing and resolving major risks is one of the three major battles that must be won in the decisive period of building a moderately prosperous society in an all-round way. General Secretary Xi Jinping emphasized that if we want to win the battle to prevent and resolve major risks, we must adhere to and improve the socialist system with Chinese characteristics, promote the modernization of the national governance system and governance capabilities, and use the power of the system to respond to the impact of risks and challenges. This provides us with scientific guidance and fundamental principles for overcoming risks and challenges. Preventing and Dealing with Illegal Fund Raising</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>In order to enhance the public's awareness of and ability to identify illegal fundraising, the "Regulations" clearly stipulate that local people's governments at all levels should carry out regular publicity and education work to prevent illegal fundraising. Financial institutions and non-bank payment institutions should strengthen publicity and education on preventing illegal fundraising for the public. Industry authorities, regulatory authorities, industry associations, and chambers of commerce should carry out targeted publicity and education activities to prevent illegal fundraising based on the characteristics of illegal fundraising risks in their industries and fields. News media should carry out public welfare publicity to prevent illegal fundraising and conduct public opinion supervision in accordance with the law. Our city has established a prevention and disposal team for illegal fundraising, with government leaders as the team leader and relevant units as members. The leading group for fund-raising work and the group office are located in the Municipal Finance Bureau (Local Financial Regulatory Bureau). As the "Regulations" are about to be officially implemented on May 1, the Office of ... In 2020, public security organs across the country filed more than 6,800 cases of illegal fundraising crimes, involving more than 110 billion yuan, arrested about 16,000 suspects, and arrested more than 80 fugitive suspects from more than 10 countries and regions abroad. The figures are shocking, reminding us that danger is around us. In the next step, our city will, in accordance with the provisions of the "Regulations" and the requirements of superiors, organically combine the investigation of illegal fundraising with daily supervision, law enforcement inspections, grid patrols, community governance, industry self-discipline, and reward reporting, establish the concept of investigation and publicity, innovate the form of preventing illegal fundraising, and realize the "driving with a license" The full coverage of "driving without a license", the normalization of investigation and disposal, and the effectiveness of publicity everywhere, have achieved the goal of consolidating the local government's responsibility for preventing and disposing of illegal fund-raising and the monitoring and early warning responsibilities of industry owners and regulatory departments, insisting on moving the checkpoints forward, early prevention and early treatment, keeping a good check on the source of illegal fund-raising risks, discovery, and control, and widely mobilize all parties to promote joint prevention and control of illegal fund-raising, group prevention and treatment, early prevention and early treatment, and form a work pattern of "prevention first, early and small-scale" with efficient linkage between the upper and lower levels and concerted efforts of departments, resolutely curbing the high incidence of illegal fund-raising, and adhering to the overall requirement of no systemic financial risks and large-scale mass incidents. Wang Ting, deputy director of the Finance Bureau (Financial Regulatory Bureau), interpreted the "Regulations on Preventing and Dealing with Illegal Fund Raising". Preventing and resolving major risks is one of the three major battles that must be won in the decisive period of building a moderately prosperous society in an all-round way. General Secretary Xi Jinping emphasized that if we want to win the battle to prevent and resolve major risks, we must adhere to and improve the socialist system with Chinese characteristics, promote the modernization of the national governance system and governance capabilities, and use the power of the system to respond to the impact of risks and challenges. This provides us with scientific guidance and fundamental principles for overcoming risks and challenges. Preventing and Dealing with Illegal Fund Raising</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行分析和评分。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：大模型翻译在准确性上稍优，尤其在一些专业术语的使用上，如“local people's governments”与“地方各级人民政府”的对应关系更为准确。流畅性方面，大模型翻译的句子结构较为自然，而谷歌翻译在某些地方显得略为生硬，例如“the leading group for fund-raising work and the group office are located in the Municipal Finance Bureau”这一句在大模型翻译中更为简洁。整体上，大模型翻译更好地保留了原文的语气和细节。</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>In order to enhance the public's awareness and ability to identify illegal fundraising, the "Regulations" clearly stipulate that local people's governments at all levels shall carry out regular publicity and education on the prevention of illegal fundraising. Financial institutions and non-bank payment institutions shall strengthen publicity and education on the prevention of illegal fundraising by the public. Industry authorities, regulatory departments, industry associations, and chambers of commerce shall, in accordance with the risk characteristics of illegal fundraising in their respective industries and fields, carry out targeted publicity and education activities on the prevention of illegal fundraising. The news media shall carry out public interest publicity on the prevention of illegal fundraising, and conduct public opinion supervision in accordance with the law. The city has set up a leading group for the prevention and disposal of illegal fund-raising headed by government leaders and members of relevant units, and the office of the group is located in the Municipal Finance Bureau (local financial supervision bureau). The first is to carry out the "study regulations, answer questions diligently, and receive red envelopes" mini program answering activities; the second is to publish the full text of the "Regulations" in the special edition of "Ningguo Today"; the third is to publish the full text of the "Regulations" in the special edition of "Preventing Major Financial Risks" of the Ningguo Forum; The fourth is to guide and supervise the townships (streets) and non-leading group member units in the territory and industry supervisors, and carry out various forms of publicity in the field of supervision and supervision, and strive to create a strong publicity atmosphere.
+In 2020, public security organs across the country filed and investigated more than 6,800 cases of illegal fundraising, involving more than 110 billion yuan, arrested about 16,000 criminal suspects, and arrested more than 80 criminal suspects from more than 10 countries and regions abroad. The numbers are shocking, reminding us that danger is all around us. In the next step, in accordance with the provisions of the "Regulations" and the requirements of the superiors, the city will organically combine the investigation of illegal fundraising with daily supervision, law enforcement inspection, grid staff inspection, community governance, industry self-discipline, rewarded reporting, etc., establish the concept of investigation and publicity, innovate and prevent illegal fundraising, and realize the full coverage of "licensed driving" and "unlicensed driving", normalize investigation and disposal, and publicize the ubiquitous work effectiveness, so as to achieve the responsibility of the local government to prevent and dispose of illegal fundraising and the monitoring and early warning responsibility of industry owners and regulatory departments. Adhere to the move forward, early prevention and early treatment, do a good job of illegal fundraising risk source, discovery, control, and control, widely mobilize the forces of all parties, promote the joint prevention and control of illegal fundraising, mass prevention and treatment, early prevention and early treatment, and form a work pattern of "prevention first, early and small" with efficient linkage and full cooperation of departments, resolutely curb the high incidence of illegal fundraising, and maintain the overall requirements of preventing systemic financial risks and large-scale mass incidents.
+Wang Ting, Deputy Director of the Financial Services Bureau (Financial Supervision Bureau), interprets the "Regulations on the Prevention and Handling of Illegal Fundraising"
+Preventing and resolving major risks is one of the three major battles that must be won in the decisive period of building a moderately prosperous society in an all-round way. General Secretary Xi Jinping stressed that if we want to win the battle to prevent and defuse major risks, we must adhere to and improve the socialist system with Chinese characteristics, promote the modernization of the national governance system and governance capacity, and use the power of the system to deal with the impact of risks and challenges. This provides scientific guidance and fundamental compliance for us to overcome risks and challenges. Prevent and deal with illegal fundraising</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>中国驻美大使馆9月17日刊发"崔天凯大使应邀接受美国前财长鲍尔森"对话鲍尔森"节目专访(实录)".
 8月28日,崔天凯大使应邀参加美国前财长鲍尔森主持的"对话鲍尔森"播客访谈节目,重点就当前中美关系,两国经贸合作,国际治理,中国经济形势等问题进行交流互动.有关访谈内容已于9月14日对外播出.全文实录如下:
@@ -846,7 +906,7 @@
 鲍尔森:有趣的是,我所尊敬的人在各行各业有不少,但他们都有一个共同点,那就是求知欲.正是求知欲和真正的勇气促使人们走出国门,体验不同文化.我2009年离开财政部时,开始撰写"峭</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>On September 17, the Chinese Embassy in the United States published an exclusive interview with Ambassador Cui Tiankai on the program "Former U.S. Treasury Secretary Paulson's "Dialogue with Paulson" (Transcript)".
 On August 28, Ambassador Cui Tiankai was invited to participate in the "Dialogue with Paulson" podcast hosted by former U.S. Treasury Secretary Paulson, focusing on the current China-US relations, economic and trade cooperation between the two countries, international governance, China's economic situation and other issues. The interview was broadcast on September 14. The full transcript is as follows:
@@ -855,31 +915,37 @@
 Paulson: Interestingly, there are quite a few people I look up to from all walks of life, but they all have one thing in common, and that's intellectual curiosity. It is intellectual curiosity and true courage that motivates people to go abroad and experience different cultures. When I left the Treasury in 2009, I started writing about "Cliffs</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>On September 17, the Chinese Embassy in the United States published "Ambassador Cui Tiankai was invited to accept an exclusive interview with former U.S. Treasury Secretary Paulson on the "Dialogue with Paulson" program (transcript)". On August 28, Ambassador Cui Tiankai was invited to participate in the "Dialogue with Paulson" podcast interview program hosted by former U.S. Treasury Secretary Paulson, focusing on the current Sino-US relations, economic and trade cooperation between the two countries, international governance, China's economic situation and other issues. The relevant interview content was broadcast on September 14. The full transcript is as follows: Paulson: Mr. Ambassador, welcome to the podcast. Last year marked the 40th anniversary of the establishment of diplomatic relations between the United States and China. Obviously, the U.S.-China relationship will be very different in the next 40 years. At present, our economies account for about 35% of the global economy, and we are also the countries with the largest military expenditures in the world. We are both ambitious and competitive countries. Therefore, the world is watching how the United States and China get along or confront each other. As the Chinese ambassador to the United States at a time of tension in bilateral relations, your job is not easy. I have always respected your professionalism and calmness, and your efforts on behalf of the Chinese government to understand the U.S. view on bilateral relations and seek consensus. First, I want to start with the question of how you began your personal career. You were born in 1952. When China began to implement reform and opening up in 1978, you were in your twenties and witnessed much of China's modernization process. How did you become a diplomat? How did your diplomatic career begin? How were you influenced by the things around you at different times? Ambassador Cui: First of all, I am very happy to communicate with Mr. Finance Minister again, and thank you for inviting me to participate in this interview program. When China began to implement reform and opening up, I was in my twenties. Before that, I experienced the turbulent years of the Cultural Revolution. I left my hometown before graduating from high school and went to work in the rural areas of Heilongjiang, which is close to the Sino-Soviet border, where I planted soybeans and wheat for more than five years. This experience gave me a deep understanding of China's rural areas and poverty issues, and also a deep understanding of what the country really needs. Our generation is very lucky. Most of our working time has been in the era of reform and opening up, and we have always believed that our country is on the right track of development. Our historical mission is to go all out to achieve modern cultural goals and contribute to the country and the people. I was also lucky to have the opportunity to work and study in the United States. In a sense, I personally have some experience in both China and the United States, which has given me a better understanding of how China and the United States handle bilateral relations, what they need from each other, and how to learn from each other. The beginning of my diplomatic career is more or less related to my curiosity. I have always been interested in international issues, world situations and related issues. This is why I was admitted to the United Nations Translation Training Program in the late 1970s, when China had just begun its reform and opening up. In the early 1980s, I became a United Nations translator and worked at the headquarters in New York. That was my first time going abroad. Paulson: Interestingly, there are many people I respect in all walks of life, but they all have one thing in common, that is, curiosity. It is curiosity and true courage that motivate people to go abroad and experience different cultures. When I left the Treasury Department in 2009, I began to write "The Cliff</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>On September 17, the Chinese Embassy in the United States published "Ambassador Cui Tiankai was invited to accept an exclusive interview with former U.S. Treasury Secretary Paulson on the "Dialogue with Paulson" program (transcript)". On August 28, Ambassador Cui Tiankai was invited to participate in the "Dialogue with Paulson" podcast interview program hosted by former U.S. Treasury Secretary Paulson, focusing on the current Sino-US relations, economic and trade cooperation between the two countries, international governance, China's economic situation and other issues. The relevant interview content was broadcast on September 14. The full transcript is as follows: Paulson: Mr. Ambassador, welcome to the podcast. Last year marked the 40th anniversary of the establishment of diplomatic relations between the United States and China. Obviously, the U.S.-China relationship will be very different in the next 40 years. At present, our economies account for about 35% of the global economy, and we are also the countries with the largest military expenditures in the world. We are both ambitious and competitive countries. Therefore, the world is watching how the United States and China get along or confront each other. As the Chinese ambassador to the United States at a time of tension in bilateral relations, your job is not easy. I have always respected your professionalism and calmness, and your efforts on behalf of the Chinese government to understand the U.S. view on bilateral relations and seek consensus. First, I want to start with the question of how you began your personal career. You were born in 1952. When China began to implement reform and opening up in 1978, you were in your twenties and witnessed much of China's modernization process. How did you become a diplomat? How did your diplomatic career begin? How were you influenced by the things around you at different times? Ambassador Cui: First of all, I am very happy to communicate with Mr. Finance Minister again, and thank you for inviting me to participate in this interview program. When China began to implement reform and opening up, I was in my twenties. Before that, I experienced the turbulent years of the Cultural Revolution. I left my hometown before graduating from high school and went to work in the rural areas of Heilongjiang, which is close to the Sino-Soviet border, where I planted soybeans and wheat for more than five years. This experience gave me a deep understanding of China's rural areas and poverty issues, and also a deep understanding of what the country really needs. Our generation is very lucky. Most of our working time has been in the era of reform and opening up, and we have always believed that our country is on the right track of development. Our historical mission is to go all out to achieve modern cultural goals and contribute to the country and the people. I was also lucky to have the opportunity to work and study in the United States. In a sense, I personally have some experience in both China and the United States, which has given me a better understanding of how China and the United States handle bilateral relations, what they need from each other, and how to learn from each other. The beginning of my diplomatic career is more or less related to my curiosity. I have always been interested in international issues, world situations and related issues. This is why I was admitted to the United Nations Translation Training Program in the late 1970s, when China had just begun its reform and opening up. In the early 1980s, I became a United Nations translator and worked at the headquarters in New York. That was my first time going abroad. Paulson: Interestingly, there are many people I respect in all walks of life, but they all have one thing in common, that is, curiosity. It is curiosity and true courage that motivate people to go abroad and experience different cultures. When I left the Treasury Department in 2009, I began to write "The Cliff</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行具体的分析和评分。</t>
+          <t>大模型翻译：[90]分（准确性[35]，流畅性[25]，原意保留[30]）  
+谷歌翻译：[85]分（准确性[30]，流畅性[25]，原意保留[30]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上表现更好，尤其是在对话的细节和语气上，例如“我一直很尊重你的专业精神和沉着冷静”被翻译为“I have always respected your professionalism and composure”，准确传达了原意。而谷歌翻译在“你的工作并不轻松”翻译为“your job is not easy”虽然准确，但略显平淡，缺乏原文的语气。此外，大模型翻译在流畅性上也更自然，整体阅读体验更佳。]</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>On September 17, the Chinese Embassy in the United States published an exclusive interview with Ambassador Cui Tiankai on the program "Former U.S. Treasury Secretary Paulson's "Dialogue with Paulson" (Transcript)".
+On August 28, Ambassador Cui Tiankai was invited to participate in the "Dialogue with Paulson" podcast hosted by former U.S. Treasury Secretary Paulson, focusing on the current China-US relations, economic and trade cooperation between the two countries, international governance, China's economic situation and other issues. The interview was broadcast on September 14. The full transcript is as follows:
+Paulson: Mr. Ambassador, welcome to the podcast talk show. Last year marked the 40th anniversary of the establishment of diplomatic relations between the United States and China. It is clear that the U.S.-China relationship will be very different in the next 40 years. At present, our economies account for about 35% of the total global economy, and they are also the countries with the largest military spending in the world. We are all ambitious and competitive countries. As a result, the world is watching how the United States and China get along or go toe-to-toe. Serving as China's ambassador to the United States at a time of tension in bilateral relations is not an easy job for you. I have always respected your professionalism and composure, and your efforts on behalf of the Chinese government to understand the U.S. side's views on the relationship between the two countries and to seek consensus. First of all, I want to start with the question of how you started your career. You were born in 1952. When China began to reform and open up in 1978, you were in your twenties and had witnessed many of the processes of China's modernization. How did you become a diplomat? How did you start your diplomatic career? How have you been influenced by the things around you at different times?
+Ambassador Cui: First of all, it is a pleasure to speak with Mr. Finance Minister again, and thank you for inviting me to participate in this interview program. I was in my twenties when China began to implement reform and opening up. Before that, I experienced the turbulent years of the Cultural Revolution, leaving my hometown before graduating from high school to join the queue in the rural areas of Heilongjiang, close to the Sino-Soviet border, where I planted soybeans and wheat for more than five years. This experience gave me an in-depth understanding of rural China and poverty, as well as what the country really needs. Our generation is fortunate to spend most of their working time in the era of reform and opening up, and always believe that their country is in the right direction of development. Our historical mission is to go all out to achieve the goal of modernization and contribute to the country and its people. I was also fortunate to have the opportunity to work and study in the United States. In a sense, I personally have some experience in both China and the United States, which has given me a better understanding of how China and the United States handle their relationship, what they need from each other, and how they can learn from each other. The beginning of my diplomatic career was more or less related to my curiosity. I have always been interested in international issues, the situation in the world, and related issues. That's why I was accepted into the United Nations Translation Training School at the end of the 70s, when China was just beginning to reform and open up.In the early 80s, I became a United Nations translator and worked at the headquarters in New York. That was my first time going abroad.
+Paulson: Interestingly, there are quite a few people I look up to from all walks of life, but they all have one thing in common, and that's intellectual curiosity. It is intellectual curiosity and true courage that motivates people to go abroad and experience different cultures. When I left the Treasury in 2009, I started writing about "Cliffs</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>如果说,"黑天鹅"是指那些小概率且不可预测的高风险事件,"灰犀牛"是指那些大概率且影响巨大的潜在危机,"疯狗浪"则是指那些表面平静却有暗流涌动,最终突然爆发的事件.
 麦肯锡最近在"哈佛商业评论"发布的一项跨行业研究表明,着眼于长期进行投资的企业,最终经济利润能比竞争对手高出82%,这个结论适用于各行各业.
@@ -895,7 +961,7 @@
 但是,疫情持续蔓延的这两年,我们也能发现人类无法快速终结疫情背后的系统性问题.比如国际旅行和货运加速了病毒传播;城市密度增加,人口老龄化,意味着易受感染的人口更多;而由于人类长期没有经历大型瘟疫,预先的物资储备与防疫知识</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>If the "black swan" refers to those high-risk events with small probability and unpredictability, the "gray rhinoceros" refers to those potential crises with high probability and great impact, and the "mad dog wave" refers to those events that are calm on the surface but have undercurrents surging and eventually erupt suddenly.
 A recent cross-industry study by McKinsey &amp; Company published in the Harvard Business Review showed that companies that invest for the long term can end up with 82% higher economic profits than their competitors, and this conclusion applies to all industries.
@@ -911,31 +977,44 @@
 However, in the past two years of the epidemic, we can also find that mankind cannot quickly end the systemic problems behind the epidemic. For example, international travel and freight transport have accelerated the spread of the virus; Increased urban density and an ageing population mean more vulnerable populations; And because human beings have not experienced a large-scale plague for a long time, advance material reserves and epidemic prevention knowledge</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>If "black swans" refer to those high-risk events with low probability and unpredictability, "gray rhinos" refer to those potential crises with high probability and huge impact, "mad dog waves" refer to those events that are calm on the surface but have undercurrents and eventually erupt suddenly. A cross-industry study recently published by McKinsey in the "Harvard Business Review" shows that companies that focus on long-term investment can ultimately have economic profits 82% higher than their competitors. This conclusion applies to all walks of life. These companies with a long-term investment perspective are also about 40% faster than other companies in recovering from economic downturns caused by disruptive shocks. Today, many people are no longer unfamiliar with the concepts of "black swans" and "gray rhinos", which are caused by the fund boom and stock boom in recent years. The harassment of the new crown epidemic in recent years has once again caused great changes in the economic form and lifestyle of the world, including China, and crises are coming at any time. If "black swans" refer to those high-risk events with low probability and unpredictability, and "gray rhinos" refer to those potential crises with high probability and huge impact, "rogue waves" refer to those events that are calm on the surface but have undercurrents and eventually erupt suddenly. But unlike the first two, rogue waves can be dealt with through a clear framework model. So in today's uncertain era, how should individuals and companies identify "rogue waves" and understand the top ten global undercurrents that trigger the next wave of rogue waves, so as to improve their awareness of dealing with crisis events again and again? Jonathan Brill, HP's global futurist and research director, gave the answer in his new book "Rogue Waves". It will be a necessary risk response guide for companies to help them respond before the storm comes. In geography, when the seabed topography or cross-currents lead the waves to a narrow gap, or small waves in different directions gather together and suddenly hit the reef or the shore, a water wall of dozens or even nearly a hundred feet will be raised in a few seconds. This sudden wave, developed from the swells of the interaction between ocean currents and eddies, is vividly called "Rogue Waves" by scientists. Usually, such waves appear suddenly without any warning, and they are complex crises that are extremely difficult to predict. Returning to the real world we live in, with the increasing connections between countries, changes in social, economic and technological aspects are like undercurrents under the water, constantly injecting more and more energy into the system. When these waves suddenly intersect, a "rogue wave" is inevitable. It has almost no signs, and when you realize that the storm is coming, it is too late. In the early days of the COVID-19 outbreak, people often thought that this was a "black swan" event, a low-probability and unpredictable high-risk event. However, in the two years when the epidemic has continued to spread, we can also find that humans cannot quickly end the systemic problems behind the epidemic. For example, international travel and cargo transportation have accelerated the spread of the virus; the increase in urban density and the aging of the population mean that there are more people susceptible to infection; and because humans have not experienced large-scale plagues for a long time, the advance reserves of materials and epidemic prevention knowledge are not enough.</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>If "black swans" refer to those high-risk events with low probability and unpredictability, "gray rhinos" refer to those potential crises with high probability and huge impact, "mad dog waves" refer to those events that are calm on the surface but have undercurrents and eventually erupt suddenly. A cross-industry study recently published by McKinsey in the "Harvard Business Review" shows that companies that focus on long-term investment can ultimately have economic profits 82% higher than their competitors. This conclusion applies to all walks of life. These companies with a long-term investment perspective are also about 40% faster than other companies in recovering from economic downturns caused by disruptive shocks. Today, many people are no longer unfamiliar with the concepts of "black swans" and "gray rhinos", which are caused by the fund boom and stock boom in recent years. The harassment of the new crown epidemic in recent years has once again caused great changes in the economic form and lifestyle of the world, including China, and crises are coming at any time. If "black swans" refer to those high-risk events with low probability and unpredictability, and "gray rhinos" refer to those potential crises with high probability and huge impact, "rogue waves" refer to those events that are calm on the surface but have undercurrents and eventually erupt suddenly. But unlike the first two, rogue waves can be dealt with through a clear framework model. So in today's uncertain era, how should individuals and companies identify "rogue waves" and understand the top ten global undercurrents that trigger the next wave of rogue waves, so as to improve their awareness of dealing with crisis events again and again? Jonathan Brill, HP's global futurist and research director, gave the answer in his new book "Rogue Waves". It will be a necessary risk response guide for companies to help them respond before the storm comes. In geography, when the seabed topography or cross-currents lead the waves to a narrow gap, or small waves in different directions gather together and suddenly hit the reef or the shore, a water wall of dozens or even nearly a hundred feet will be raised in a few seconds. This sudden wave, developed from the swells of the interaction between ocean currents and eddies, is vividly called "Rogue Waves" by scientists. Usually, such waves appear suddenly without any warning, and they are complex crises that are extremely difficult to predict. Returning to the real world we live in, with the increasing connections between countries, changes in social, economic and technological aspects are like undercurrents under the water, constantly injecting more and more energy into the system. When these waves suddenly intersect, a "rogue wave" is inevitable. It has almost no signs, and when you realize that the storm is coming, it is too late. In the early days of the COVID-19 outbreak, people often thought that this was a "black swan" event, a low-probability and unpredictable high-risk event. However, in the two years when the epidemic has continued to spread, we can also find that humans cannot quickly end the systemic problems behind the epidemic. For example, international travel and cargo transportation have accelerated the spread of the virus; the increase in urban density and the aging of the population mean that there are more people susceptible to infection; and because humans have not experienced large-scale plagues for a long time, the advance reserves of materials and epidemic prevention knowledge are not enough.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行客观评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍胜一筹，尤其是在“mad dog wave”翻译为“mad dog wave”而非“rogue wave”上，保持了原文的特定术语。此外，大模型翻译在流畅性上表现更佳，句子结构更自然，如“these companies with a long-term investment outlook are also about 40% faster than other companies to recover”更符合英语表达习惯。谷歌翻译在某些地方使用了“huge impact”而非“great impact”，虽然意思相近，但不够精准。]</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>If the "black swan" refers to those high-risk events with small probability and unpredictability, the "gray rhinoceros" refers to those potential crises with high probability and great impact, and the "mad dog wave" refers to those events that are calm on the surface but have undercurrents surging and eventually erupt suddenly.
+A recent cross-industry study by McKinsey &amp; Company published in the Harvard Business Review showed that companies that invest for the long term can end up with 82% higher economic profits than their competitors, and this conclusion applies to all industries.
+These companies with a long-term investment outlook are also about 40% faster than other companies to recover from the economic downturn caused by disruptive shocks.
+Today, when it comes to the concepts of "black swan" and "gray rhinoceros", many people are no longer unfamiliar with them, and the cause is the fund fever and stock fever in the past few years. In recent years, the new crown epidemic has once again brought great changes to the economic form and lifestyle of the whole world, including China, and crises are coming at any time.
+If the "black swan" refers to those high-risk events with small probability and unpredictability, the "gray rhinoceros" refers to those potential crises with high probability and great impact, and the "mad dog wave" refers to those events that are calm on the surface but have undercurrents surging and eventually erupt suddenly. But unlike the first two, mad dog waves can be dealt with with with a clear frame model.
+So in this era of uncertainty, how can individuals and businesses identify the "mad dog wave" and understand the top 10 global undercurrents that will trigger the next mad dog wave, so as to raise awareness of responding to crisis events again and again?
+Hewlett-Packard's Global Futurist and Director of Research, Jonathan W. Brill gives the answer in his new book, "The Mad Dog Wave". It will be an essential risk management guide for businesses to help them react before a storm strikes.
+Geographically, when the seabed topography or cross-currents concentrate the waves into a narrow gap, or when small waves in different directions converge and suddenly hit a reef or shore wall, it will lift a wall of water tens or even nearly 100 feet high in a matter of seconds.
+These sudden waves, which arise from the interaction of ocean currents and eddies, are known by scientists as "Rogue Waves".
+Returning to the real world we live in, as countries become more and more connected, social, economic, and technological changes are like undercurrents under the water, constantly injecting more and more energy into the system. When these waves suddenly intersect, a "mad dog wave" will inevitably be avoided. It hardly foreshadows and by the time you realize the storm is coming, it's already too late.
+In the early days of the pandemic, it was often thought that it was a "black swan" event, a high-risk event with a small probability and unpredictability.
+However, in the past two years of the epidemic, we can also find that mankind cannot quickly end the systemic problems behind the epidemic. For example, international travel and freight transport have accelerated the spread of the virus; Increased urban density and an ageing population mean more vulnerable populations; And because human beings have not experienced a large-scale plague for a long time, advance material reserves and epidemic prevention knowledge</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>1.什么是居民企业?
 居民企业是指依照一国法律,法规在该国境内成立,或者实际管理机构,总机构在该国境内的企业.税法草案所称的居民企业是指依照中国法律,法规在中国境内成立,或者实际管理机构在中国境内的企业.例如,在我国注册成立的沃尔玛(中国)公司,通用汽车(中国)公司,就是我国的居民企业;在英国,百慕大群岛等国家和地区注册的公司,但实际管理机构在我国境内,也是我国的居民企业.上述企业应就其来源于我国境内外的所得缴纳企业所得税.
@@ -947,7 +1026,7 @@
 首先,"企业所得税法"对"居民企业"和"非居民企业"的概念的界定使得内资居民企业与外资居民企业站在同一个起跑线上,内外资居民企业的纳税义务,税率,税收优惠措施统一,有利于内外资企业之间的公平竞争.内资居民企业享受到了税率降低的好处,不会再采用将资金转到境外再投资境内的"返程投资"方式享受外</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>1. What is a Resident Enterprise?
 A resident enterprise refers to an enterprise established in the territory of a country in accordance with the laws and regulations of that country, or an enterprise with actual management and head office in the territory of that country. For the purposes of the Draft Tax Law, the term "resident enterprise" refers to an enterprise established in China in accordance with Chinese laws and regulations, or an enterprise with an actual management organization in China. For example, Wal-Mart (China) and General Motors (China) are resident enterprises in China. A company registered in the United Kingdom, Bermuda and other countries and regions, but the actual management agency is within the territory of our country, and it is also a resident enterprise in our country. The above-mentioned enterprises shall pay enterprise income tax on their income derived from sources within and outside China.
@@ -959,31 +1038,40 @@
 First of all, the definition of the concepts of "resident enterprise" and "non-resident enterprise" in the Enterprise Income Tax Law makes domestic resident enterprises and foreign-funded resident enterprises stand on the same starting line, and the tax liability, tax rate and tax incentives of domestic and foreign-funded resident enterprises are unified, which is conducive to fair competition between domestic and foreign-funded enterprises. Domestic resident enterprises have enjoyed the benefits of the reduced tax rate and will no longer use the "return investment" method of transferring funds overseas to reinvest in the mainland</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1. What is a resident enterprise? A resident enterprise refers to an enterprise established in a country in accordance with the laws and regulations of that country, or whose actual management and head office are located in that country. The resident enterprises referred to in the draft tax law refer to enterprises established in China in accordance with Chinese laws and regulations, or whose actual management institutions are located in China. For example, Wal-Mart (China) Co., Ltd. and General Motors (China) Co., Ltd., which are registered in my country, are resident enterprises in my country; companies registered in countries and regions such as the United Kingdom and Bermuda Islands, but whose actual management institutions are located in my country, are also resident enterprises in my country. The above-mentioned enterprises shall pay corporate income tax on their income from inside and outside my country. The new "Enterprise Income Tax Law" is consistent with the common practices of countries around the world in some important concepts, changing the past practice of distinguishing taxpayers by domestic and foreign investment. The concepts of "resident enterprises" and "non-resident enterprises" are introduced to distinguish the tax obligations of taxpayers. The new "Enterprise Income Tax Law" has the following advantages in determining the resident status of enterprises: First, in accordance with international practices, the new law adopts the standardized concepts of "resident enterprises" and "non-resident enterprises". Resident enterprises bear comprehensive tax obligations and pay taxes on all their domestic and foreign income; non-resident enterprises bear limited tax obligations and generally only pay taxes on their income from within my country. The original Foreign Enterprise Income Tax Law did not explicitly adopt the concepts of resident enterprises and non-resident enterprises, because at that time my country distinguished the tax obligations of taxpayers based on the form of domestic and foreign investment, and domestic and foreign enterprises were subject to different income tax laws. Therefore, the concepts of resident enterprises and non-resident enterprises were not important. Second, the new law uses a combination of the "registration place standard" and the "actual management agency place standard" to determine the resident status of an enterprise. Article 2 of the law stipulates that a resident enterprise refers to an enterprise established in China in accordance with the law, or established in accordance with the laws of a foreign country (region) but with its actual management agency in China. This is very different from the original Foreign Enterprise Income Tax Law. Third, the resident tax-paying enterprises in the new law are not limited to enterprises with legal person status. As we all know, there are three forms of foreign-invested enterprises in my country: Sino-foreign joint ventures, Sino-foreign cooperative enterprises and foreign-invested enterprises. According to relevant laws and regulations, Sino-foreign cooperative enterprises may not have legal person status. The new law cancels the provisions in the "Enterprise Income Tax Regulations" regarding the determination of taxpayers based on "independent economic accounting" and defines the scope of taxpayers as enterprises and other organizations that obtain income. This shows that the new law adopts the practices of most countries in the world and regards enterprises with legal person status and entities that are regarded as legal entities under tax laws as taxpayers of corporate income tax. First, the definition of the concepts of "resident enterprises" and "non-resident enterprises" in the "Enterprise Income Tax Law" puts domestic resident enterprises and foreign-invested resident enterprises on the same starting line. The tax obligations, tax rates and tax incentives of domestic and foreign-invested resident enterprises are unified, which is conducive to fair competition between domestic and foreign-invested enterprises. Domestic resident enterprises have enjoyed the benefits of lower tax rates and will no longer adopt the "return investment" method of transferring funds overseas and reinvesting them in China to enjoy foreign tax benefits.</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1. What is a resident enterprise? A resident enterprise refers to an enterprise established in a country in accordance with the laws and regulations of that country, or whose actual management and head office are located in that country. The resident enterprises referred to in the draft tax law refer to enterprises established in China in accordance with Chinese laws and regulations, or whose actual management institutions are located in China. For example, Wal-Mart (China) Co., Ltd. and General Motors (China) Co., Ltd., which are registered in my country, are resident enterprises in my country; companies registered in countries and regions such as the United Kingdom and Bermuda Islands, but whose actual management institutions are located in my country, are also resident enterprises in my country. The above-mentioned enterprises shall pay corporate income tax on their income from inside and outside my country. The new "Enterprise Income Tax Law" is consistent with the common practices of countries around the world in some important concepts, changing the past practice of distinguishing taxpayers by domestic and foreign investment. The concepts of "resident enterprises" and "non-resident enterprises" are introduced to distinguish the tax obligations of taxpayers. The new "Enterprise Income Tax Law" has the following advantages in determining the resident status of enterprises: First, in accordance with international practices, the new law adopts the standardized concepts of "resident enterprises" and "non-resident enterprises". Resident enterprises bear comprehensive tax obligations and pay taxes on all their domestic and foreign income; non-resident enterprises bear limited tax obligations and generally only pay taxes on their income from within my country. The original Foreign Enterprise Income Tax Law did not explicitly adopt the concepts of resident enterprises and non-resident enterprises, because at that time my country distinguished the tax obligations of taxpayers based on the form of domestic and foreign investment, and domestic and foreign enterprises were subject to different income tax laws. Therefore, the concepts of resident enterprises and non-resident enterprises were not important. Second, the new law uses a combination of the "registration place standard" and the "actual management agency place standard" to determine the resident status of an enterprise. Article 2 of the law stipulates that a resident enterprise refers to an enterprise established in China in accordance with the law, or established in accordance with the laws of a foreign country (region) but with its actual management agency in China. This is very different from the original Foreign Enterprise Income Tax Law. Third, the resident tax-paying enterprises in the new law are not limited to enterprises with legal person status. As we all know, there are three forms of foreign-invested enterprises in my country: Sino-foreign joint ventures, Sino-foreign cooperative enterprises and foreign-invested enterprises. According to relevant laws and regulations, Sino-foreign cooperative enterprises may not have legal person status. The new law cancels the provisions in the "Enterprise Income Tax Regulations" regarding the determination of taxpayers based on "independent economic accounting" and defines the scope of taxpayers as enterprises and other organizations that obtain income. This shows that the new law adopts the practices of most countries in the world and regards enterprises with legal person status and entities that are regarded as legal entities under tax laws as taxpayers of corporate income tax. First, the definition of the concepts of "resident enterprises" and "non-resident enterprises" in the "Enterprise Income Tax Law" puts domestic resident enterprises and foreign-invested resident enterprises on the same starting line. The tax obligations, tax rates and tax incentives of domestic and foreign-invested resident enterprises are unified, which is conducive to fair competition between domestic and foreign-invested enterprises. Domestic resident enterprises have enjoyed the benefits of lower tax rates and will no longer adopt the "return investment" method of transferring funds overseas and reinvesting them in China to enjoy foreign tax benefits.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上表现稍好，特别是在对“实际管理机构”的翻译上使用了“actual management organization”，而谷歌翻译则使用了“actual management institutions”，略显笼统。大模型翻译在流畅性上也更自然，尤其是在句子结构的处理上，整体更符合英语的表达习惯。谷歌翻译在某些地方的用词如“my country”显得不够正式，影响了整体的专业性。]</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1. What is a Resident Enterprise?
+A resident enterprise refers to an enterprise established in the territory of a country in accordance with the laws and regulations of that country, or an enterprise with actual management and head office in the territory of that country. For the purposes of the Draft Tax Law, the term "resident enterprise" refers to an enterprise established in China in accordance with Chinese laws and regulations, or an enterprise with an actual management organization in China. For example, Wal-Mart (China) and General Motors (China) are resident enterprises in China. A company registered in the United Kingdom, Bermuda and other countries and regions, but the actual management agency is within the territory of our country, and it is also a resident enterprise in our country. The above-mentioned enterprises shall pay enterprise income tax on their income derived from sources within and outside China.
+The new "Enterprise Income Tax Law" is consistent with the common practice of countries around the world in some important concepts, and has changed the past practice of distinguishing taxpayers between domestic and foreign investment. The concepts of "resident enterprise" and "non-resident enterprise" are introduced to distinguish between taxpayers' tax liability.
+The new Enterprise Income Tax Law shows the following advantages in the determination of the resident status of enterprises:
+First, in accordance with the common practice in the world, the new law adopts the standardized concept of "resident enterprise" and "non-resident enterprise", and resident enterprises bear full tax liability and pay taxes on all their domestic and foreign income: non-resident enterprises bear limited tax liability and generally only pay taxes on their income derived from within the territory of China The original foreign enterprise income tax law did not explicitly adopt the concept of resident enterprises and non-resident enterprises, because at that time, China distinguished the tax liability of taxpayers in the form of domestic and foreign capital. Different income tax laws apply to domestic and foreign-owned enterprises. Therefore, the concepts of resident and non-resident enterprises are not important.
+Article 2 of the Law stipulates that a resident enterprise refers to an enterprise established in accordance with the law, or an enterprise established in accordance with the laws of a foreign country (region) but with an actual management institution in China, which is very different from the original Income Tax Law on Foreign Enterprises.
+Third, the new law is not limited to enterprises with legal personality. As we all know, there are three forms of existence of foreign-invested enterprises in China: Sino-foreign joint ventures, Sino-foreign cooperative joint ventures and foreign-funded enterprises. According to the relevant laws and regulations, a Sino-foreign cooperative joint venture may not have the status of a legal person. The new law abolishes the provisions of the "Regulations on Enterprise Income Tax" on the determination of taxpayers based on "independent economic accounting", and defines the scope of taxpayers as enterprises and other organizations that obtain income.
+First of all, the definition of the concepts of "resident enterprise" and "non-resident enterprise" in the Enterprise Income Tax Law makes domestic resident enterprises and foreign-funded resident enterprises stand on the same starting line, and the tax liability, tax rate and tax incentives of domestic and foreign-funded resident enterprises are unified, which is conducive to fair competition between domestic and foreign-funded enterprises. Domestic resident enterprises have enjoyed the benefits of the reduced tax rate and will no longer use the "return investment" method of transferring funds overseas to reinvest in the mainland</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
         <is>
           <t>导读:我国"个人信息保护法"的颁布,无疑是我国数字经济发展的一个"里程碑",确立了数字社会的基本原则和规则,同时,也将成为我国金融发展历史上的一个"里程碑".
 我国"个人信息保护法"的颁布,无疑是我国数字经济发展的一个"里程碑",确立了数字社会的基本原则和规则,同时,也将成为我国金融发展历史上的一个"里程碑",明确了金融数字化发展应当遵循的基本准则和行为规范.
@@ -997,7 +1085,7 @@
 其次,与其他金融业态不同,保险,属于典型的"个人信息"行业,即保险业对于个人信息的依赖程度更深更广.一是大数法则决定了保险存在的前提和基础是"个人"的集合,而且是"大数"的集合;二是风险的一个重要特征是基于信息不对称,因此,在保险的经营管理过程中,势必要更多地获取信息,以破解信息不对称问题,实现有效的风险管理.从这个视角看,保险与"个人信息"是密不可分的,是"欲罢不能"的.因为,与其他行业不同</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Summary: The promulgation of China's "Personal Information Protection Law" is undoubtedly a "milestone" in the development of China's digital economy, establishing the basic principles and rules of the digital society, and at the same time, it will also become a "milestone" in the history of China's financial development.
 The promulgation of China's "Personal Information Protection Law" is undoubtedly a "milestone" in the development of China's digital economy, establishing the basic principles and rules of the digital society, and at the same time, it will also become a "milestone" in the history of China's financial development, clarifying the basic norms and behavioral norms that should be followed in the development of financial digitalization.
@@ -1011,31 +1099,42 @@
 Secondly, unlike other financial industries, insurance is a typical "personal information" industry, that is, the insurance industry relies on personal information more deeply and extensively. First, the law of large numbers determines that the premise and basis of the existence of insurance is the set of "individuals", and it is the set of "large numbers"; Second, an important feature of risk is based on information asymmetry, therefore, in the process of insurance operation and management, it is necessary to obtain more information to solve the problem of information asymmetry and achieve effective risk management. From this point of view, insurance and "personal information" are inseparable and "unstoppable". Because, unlike other industries</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Introduction: The promulgation of the "Personal Information Protection Law" is undoubtedly a "milestone" in the development of my country's digital economy. It has established the basic principles and rules of the digital society. At the same time, it will also become a "milestone" in the history of my country's financial development. The promulgation of the "Personal Information Protection Law" is undoubtedly a "milestone" in the development of my country's digital economy. It has established the basic principles and rules of the digital society. At the same time, it will also become a "milestone" in the history of my country's financial development, clarifying the basic principles and behavioral norms that should be followed in the development of financial digitalization. In this regard, the vice president and the dean pointed out in an exclusive interview with reporters that the financial industry must have sufficient understanding, sufficient attention and sufficient awareness, because, in the face of personal information protection, the financial industry is "unable to stop". The financial insurance industry cannot do without "personal information" In Wang He's eyes, in the era of personal information protection, finance faces the challenge of "unable to stop". "Unable to stop" means that the financial insurance industry cannot do without "personal information" because "personal information" is the basis for the existence of the financial industry; another meaning is that the promulgation of the "Personal Information Protection Law" will open a new era of standardized development for the financial industry, and it is also an era of sustained and healthy development. The financial industry must seize the opportunity to achieve leapfrog development. In short, facing the new issue of "personal information protection", the financial industry has no way out, and does not need to retreat. Instead, it should keep pace with the times, seize opportunities, take advantage of the situation, break through itself, and pursue "unstoppable" on the road of innovation and development. Wang He further stated that first of all, we must realize that finance is a natural "personal information" industry. Financial financing is based on risk awareness, and the "touching" of information, especially personal information, is the basic logic and necessary premise for the existence of the financial industry. However, the "Personal Information Protection Law" has formulated a series of strict rules for the protection and use of personal information. As "personal information processors", financial enterprises will face the challenge of "high standards and strict requirements", and traditional business concepts, technologies and models are "unsustainable". Therefore, if traditional concepts, technologies and methods are used to adapt to the requirements of the "Personal Information Protection Law", the basic conclusion must be: it cannot be done. However, the financial industry needs to clearly realize that personal information protection is the trend of the times, the will of the people, and the general trend. The financial industry has no choice but to change its concepts, improve its capabilities, embrace the new era of personal information protection, and build new capabilities and achieve new development in accordance with new requirements. Secondly, unlike other financial industries, insurance is a typical "personal information" industry, that is, the insurance industry relies more deeply and widely on personal information. First, the law of large numbers determines that the premise and basis for the existence of insurance is a collection of "individuals" and a collection of "large numbers"; second, an important feature of risk is based on information asymmetry. Therefore, in the process of insurance operation and management, it is necessary to obtain more information to solve the problem of information asymmetry and achieve effective risk management. From this perspective, insurance and "personal information" are inseparable and "cannot be stopped". Because, unlike other industries</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Introduction: The promulgation of the "Personal Information Protection Law" is undoubtedly a "milestone" in the development of my country's digital economy. It has established the basic principles and rules of the digital society. At the same time, it will also become a "milestone" in the history of my country's financial development. The promulgation of the "Personal Information Protection Law" is undoubtedly a "milestone" in the development of my country's digital economy. It has established the basic principles and rules of the digital society. At the same time, it will also become a "milestone" in the history of my country's financial development, clarifying the basic principles and behavioral norms that should be followed in the development of financial digitalization. In this regard, the vice president and the dean pointed out in an exclusive interview with reporters that the financial industry must have sufficient understanding, sufficient attention and sufficient awareness, because, in the face of personal information protection, the financial industry is "unable to stop". The financial insurance industry cannot do without "personal information" In Wang He's eyes, in the era of personal information protection, finance faces the challenge of "unable to stop". "Unable to stop" means that the financial insurance industry cannot do without "personal information" because "personal information" is the basis for the existence of the financial industry; another meaning is that the promulgation of the "Personal Information Protection Law" will open a new era of standardized development for the financial industry, and it is also an era of sustained and healthy development. The financial industry must seize the opportunity to achieve leapfrog development. In short, facing the new issue of "personal information protection", the financial industry has no way out, and does not need to retreat. Instead, it should keep pace with the times, seize opportunities, take advantage of the situation, break through itself, and pursue "unstoppable" on the road of innovation and development. Wang He further stated that first of all, we must realize that finance is a natural "personal information" industry. Financial financing is based on risk awareness, and the "touching" of information, especially personal information, is the basic logic and necessary premise for the existence of the financial industry. However, the "Personal Information Protection Law" has formulated a series of strict rules for the protection and use of personal information. As "personal information processors", financial enterprises will face the challenge of "high standards and strict requirements", and traditional business concepts, technologies and models are "unsustainable". Therefore, if traditional concepts, technologies and methods are used to adapt to the requirements of the "Personal Information Protection Law", the basic conclusion must be: it cannot be done. However, the financial industry needs to clearly realize that personal information protection is the trend of the times, the will of the people, and the general trend. The financial industry has no choice but to change its concepts, improve its capabilities, embrace the new era of personal information protection, and build new capabilities and achieve new development in accordance with new requirements. Secondly, unlike other financial industries, insurance is a typical "personal information" industry, that is, the insurance industry relies more deeply and widely on personal information. First, the law of large numbers determines that the premise and basis for the existence of insurance is a collection of "individuals" and a collection of "large numbers"; second, an important feature of risk is based on information asymmetry. Therefore, in the process of insurance operation and management, it is necessary to obtain more information to solve the problem of information asymmetry and achieve effective risk management. From this perspective, insurance and "personal information" are inseparable and "cannot be stopped". Because, unlike other industries</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍微优于谷歌翻译，尤其是在“欲罢不能”的翻译上，使用了“unstoppable”，更贴近原意，而谷歌翻译则使用了“unable to stop”，稍显生硬。流畅性方面，两者相差不大，但大模型翻译在某些句子结构上更自然，如“the financial industry should seize the opportunity to achieve leapfrog development”比谷歌翻译的“the financial industry must seize the opportunity to achieve leapfrog development”更符合英语表达习惯。]</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Summary: The promulgation of China's "Personal Information Protection Law" is undoubtedly a "milestone" in the development of China's digital economy, establishing the basic principles and rules of the digital society, and at the same time, it will also become a "milestone" in the history of China's financial development.
+The promulgation of China's "Personal Information Protection Law" is undoubtedly a "milestone" in the development of China's digital economy, establishing the basic principles and rules of the digital society, and at the same time, it will also become a "milestone" in the history of China's financial development, clarifying the basic norms and behavioral norms that should be followed in the development of financial digitalization.
+In this regard, the vice president and the dean pointed out in an exclusive interview with reporters that the financial industry should have enough understanding, enough attention and enough awareness, because in the face of personal information protection, the financial industry is "unstoppable".
+The financial and insurance industry is inseparable from "personal information"
+In Wang He's eyes, in the face of the era of personal information protection, finance is facing the challenge of "can't stop".
+The meaning of "can't stop" is that the financial and insurance industry is inseparable from "personal information", because "personal information" is the basis for the existence of the financial industry; Another meaning is that the promulgation of the "Personal Information Protection Law" will open a new era of standardized development for the financial industry, and it is also an era of sustainable and healthy development, and the financial industry should seize the opportunity to achieve leapfrog development.
+In short, in the face of the new topic of "personal information protection", the financial industry has no way out, let alone a way out, but should keep pace with the times, seize the opportunity, take advantage of the situation, break through itself, and pursue "can't stop" on the road of innovation and development.
+Wang He further said that first of all, it is necessary to realize that finance belongs to the natural "personal information" industry.
+Financial financing is based on risk perception, and the "touch" of information, especially personal information, is the basic logic and necessary premise for the existence of the financial industry. However, the "Personal Information Protection Law" has formulated a series of strict rules for the protection and use of personal information, and financial enterprises as "personal information processors" will face the challenge of "high standards and strict requirements", and the traditional business philosophy, technology and model are "unsustainable". Therefore, if we continue to use traditional concepts, technologies and methods to meet the requirements of the "Personal Information Protection Law", the basic conclusion must be: it cannot be done. However, the financial industry needs to be soberly aware that personal information protection is the trend of the times, the desire of the people, and the trend of the times, and the financial industry has no choice but to change its concept, improve its capabilities, embrace the new era of personal information protection, and build new capabilities and achieve new development in accordance with new requirements.
+Secondly, unlike other financial industries, insurance is a typical "personal information" industry, that is, the insurance industry relies on personal information more deeply and extensively. First, the law of large numbers determines that the premise and basis of the existence of insurance is the set of "individuals", and it is the set of "large numbers"; Second, an important feature of risk is based on information asymmetry, therefore, in the process of insurance operation and management, it is necessary to obtain more information to solve the problem of information asymmetry and achieve effective risk management. From this point of view, insurance and "personal information" are inseparable and "unstoppable". Because, unlike other industries</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>中国(上海)自由贸易试验区建设三年总结和评估[转载]
 上海市人民政府发展研究中心课题组于2016年12月6日发布了"中国(上海)自由贸易试验区建设三年总结和评估",对上海自贸试验区3年来的建设情况进行了系统地总结和评估,认为有五大制度创新成果.我会设立的中国(上海)自由贸易试验区仲裁院,是其中自贸试验区改革创新的法治保障制度的重要组成部分.该评估报告针对当前工作推进中存在的一些问题和薄弱环节,对照国际最高标准,提出了上海自贸区未来建设思路和举措建议.
@@ -1048,7 +1147,7 @@
 3,贸易便利化监管制度不断优化.在海关特殊监管区</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Three-year summary and evaluation of the construction of China (Shanghai) Pilot Free Trade Zone[Reprint]
 On December 6, 2016, the research team of the Development Research Center of the Shanghai Municipal People's Government released the "Three-year Summary and Evaluation of the Construction of China (Shanghai) Pilot Free Trade Zone", which systematically summarized and evaluated the construction of the Shanghai Pilot Free Trade Zone in the past three years, and believed that there were five major institutional innovation achievements. The Arbitration Court of the China (Shanghai) Pilot Free Trade Zone, which was established by the Association, is an important part of the legal guarantee system for the reform and innovation of the Pilot Free Trade Zone. In view of some problems and weaknesses in the current work, the evaluation report puts forward ideas and measures for the future construction of the Shanghai Free Trade Zone according to the highest international standards.
@@ -1061,31 +1160,41 @@
 3. The regulatory system for trade facilitation has been continuously optimized. in the special customs supervision area</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The three-year summary and evaluation of the construction of China (Shanghai) Pilot Free Trade Zone [Reprint] On December 6, 2016, the research team of the Development Research Center of the Shanghai Municipal People's Government released the "Three-year Summary and Evaluation of the Construction of China (Shanghai) Pilot Free Trade Zone", which systematically summarized and evaluated the construction of the Shanghai Pilot Free Trade Zone in the past three years, and believed that there were five major institutional innovation achievements. The China (Shanghai) Pilot Free Trade Zone Arbitration Court established by our association is an important part of the legal guarantee system for the reform and innovation of the Pilot Free Trade Zone. This evaluation report targets some problems and weak links in the current work promotion, and puts forward ideas and suggestions for the future construction of the Shanghai Pilot Free Trade Zone in comparison with the highest international standards. Since its launch in September 2013, the Shanghai Pilot Free Trade Zone has closely followed the decisions and arrangements of the CPC Central Committee and the State Council, and under the direct guidance and strong support of relevant state departments, and has carried out a series of reform and opening-up trials around the core of institutional innovation. At present, most of the tasks proposed in the "Overall Plan" and "Deepening Plan" have been implemented, and remarkable results have been achieved. The Shanghai Pilot Free Trade Zone has focused on promoting supply-side structural reforms, taking the lead in reforming and exploring the institutional system and the new open economic system that are connected with the prevailing rules of international investment and trade, and taking the lead in reforming and exploring the institutional system and local government governance system that give full play to the decisive role of the market in allocating resources. A number of system innovation system integration results have been gradually replicated and promoted throughout the country, playing the role of pioneering, leading by example, and serving the whole country, and achieving the expected goals. The main achievements are reflected in five aspects: 1. The negative list management model has been established. Drawing on international rules, the management model of pre-establishment national treatment plus negative list is implemented for foreign investment. The 2013, 2014 and 2015 versions of the negative list for foreign investment have been issued one after another. The unified market access negative list pilot is being carried out in a timely manner. 2. The reform of the overseas investment management system has achieved remarkable results. The management method based on the filing system is implemented for overseas investment, and the overseas investment service promotion platform is improved. The convenience of overseas investment is continuously improved, becoming a "bridgehead" for domestic enterprises to "go global". 3. The opening up of the service industry is gradually expanding. The "Overall Plan" in 2013 proposed 23 measures to expand opening up in six major service sectors. In June 2014, a new round of 31 measures for expanding opening up were introduced, including 14 measures in the service sector. Recently, efforts are being made to further expand opening up. 1. The "single window" for international trade was established first. An inter-departmental comprehensive management service platform for trade, transportation, processing, warehousing and other businesses was established. Enterprises submit relevant information at one time through the single window. The number of participating departments has increased to 20, and the pilot scope covers the entire city, effectively reducing the customs declaration costs of enterprises. 2. The pilot project of cargo status classification supervision was implemented first. A basic framework with information system supervision as the main and customs on-site supervision as the auxiliary has been established, realizing the change from "physical fence" to "electronic fence", which greatly reduces the storage and logistics costs of enterprises. It has been operating normally in the special customs supervision area. 3. The trade facilitation supervision system is constantly being optimized. In the special customs supervision area</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The three-year summary and evaluation of the construction of China (Shanghai) Pilot Free Trade Zone [Reprint] On December 6, 2016, the research team of the Development Research Center of the Shanghai Municipal People's Government released the "Three-year Summary and Evaluation of the Construction of China (Shanghai) Pilot Free Trade Zone", which systematically summarized and evaluated the construction of the Shanghai Pilot Free Trade Zone in the past three years, and believed that there were five major institutional innovation achievements. The China (Shanghai) Pilot Free Trade Zone Arbitration Court established by our association is an important part of the legal guarantee system for the reform and innovation of the Pilot Free Trade Zone. This evaluation report targets some problems and weak links in the current work promotion, and puts forward ideas and suggestions for the future construction of the Shanghai Pilot Free Trade Zone in comparison with the highest international standards. Since its launch in September 2013, the Shanghai Pilot Free Trade Zone has closely followed the decisions and arrangements of the CPC Central Committee and the State Council, and under the direct guidance and strong support of relevant state departments, and has carried out a series of reform and opening-up trials around the core of institutional innovation. At present, most of the tasks proposed in the "Overall Plan" and "Deepening Plan" have been implemented, and remarkable results have been achieved. The Shanghai Pilot Free Trade Zone has focused on promoting supply-side structural reforms, taking the lead in reforming and exploring the institutional system and the new open economic system that are connected with the prevailing rules of international investment and trade, and taking the lead in reforming and exploring the institutional system and local government governance system that give full play to the decisive role of the market in allocating resources. A number of system innovation system integration results have been gradually replicated and promoted throughout the country, playing the role of pioneering, leading by example, and serving the whole country, and achieving the expected goals. The main achievements are reflected in five aspects: 1. The negative list management model has been established. Drawing on international rules, the management model of pre-establishment national treatment plus negative list is implemented for foreign investment. The 2013, 2014 and 2015 versions of the negative list for foreign investment have been issued one after another. The unified market access negative list pilot is being carried out in a timely manner. 2. The reform of the overseas investment management system has achieved remarkable results. The management method based on the filing system is implemented for overseas investment, and the overseas investment service promotion platform is improved. The convenience of overseas investment is continuously improved, becoming a "bridgehead" for domestic enterprises to "go global". 3. The opening up of the service industry is gradually expanding. The "Overall Plan" in 2013 proposed 23 measures to expand opening up in six major service sectors. In June 2014, a new round of 31 measures for expanding opening up were introduced, including 14 measures in the service sector. Recently, efforts are being made to further expand opening up. 1. The "single window" for international trade was established first. An inter-departmental comprehensive management service platform for trade, transportation, processing, warehousing and other businesses was established. Enterprises submit relevant information at one time through the single window. The number of participating departments has increased to 20, and the pilot scope covers the entire city, effectively reducing the customs declaration costs of enterprises. 2. The pilot project of cargo status classification supervision was implemented first. A basic framework with information system supervision as the main and customs on-site supervision as the auxiliary has been established, realizing the change from "physical fence" to "electronic fence", which greatly reduces the storage and logistics costs of enterprises. It has been operating normally in the special customs supervision area. 3. The trade facilitation supervision system is constantly being optimized. In the special customs supervision area</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍微优于谷歌翻译，尤其是在“仲裁院”翻译为“Arbitration Court”时，使用了更为专业的术语。而谷歌翻译在“我会设立的中国(上海)自由贸易试验区仲裁院”中使用了“our association”，这可能导致误解。此外，大模型翻译在流畅性上表现更佳，句子结构更为自然，尤其是在描述改革措施时，使用了“which systematically summarized and evaluated”这样的句式，使得信息传达更为清晰。]</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Three-year summary and evaluation of the construction of China (Shanghai) Pilot Free Trade Zone[Reprint]
+On December 6, 2016, the research team of the Development Research Center of the Shanghai Municipal People's Government released the "Three-year Summary and Evaluation of the Construction of China (Shanghai) Pilot Free Trade Zone", which systematically summarized and evaluated the construction of the Shanghai Pilot Free Trade Zone in the past three years, and believed that there were five major institutional innovation achievements. The Arbitration Court of the China (Shanghai) Pilot Free Trade Zone, which was established by the Association, is an important part of the legal guarantee system for the reform and innovation of the Pilot Free Trade Zone. In view of some problems and weaknesses in the current work, the evaluation report puts forward ideas and measures for the future construction of the Shanghai Free Trade Zone according to the highest international standards.
+Since its listing in September 2013, in accordance with the decision-making and deployment of the CPC Central Committee and the State Council, and under the direct guidance and strong support of relevant state departments, the Shanghai Pilot Free Trade Zone has carried out a series of pilot projects of reform and opening up around the core of institutional innovation. At present, most of the tasks proposed in the "Overall Plan" and the "Deepening Plan" have been implemented and remarkable results have been achieved. The Shanghai Pilot Free Trade Zone focuses on promoting the supply-side structural reform, taking the lead in reforming and exploring the institutional system and the new open economic system that are in line with the prevailing rules of international investment and trade, and taking the lead in reforming and exploring the institutional system and local government governance system that play a decisive role in the allocation of resources by the market. The main results are reflected in five aspects:
+1. The negative list management model has been established. Drawing on international rules, the 2013, 2014 and 2015 versions of the negative list for foreign investment have been promulgated one after another. The pilot of a unified negative list for market access is being carried out in a hurry.
+2. The reform of the overseas investment management system has achieved remarkable results. The implementation of the record-based management mode for overseas investment, the improvement of the overseas investment service promotion platform, the convenience of overseas investment has been continuously improved, and it has become a "bridgehead" for domestic enterprises to "go global".
+In 2013, the "overall plan" put forward 23 measures to expand the opening up in the six major service industries.In June 2014, a new round of 31 measures to expand the opening up was introduced, including 14 in the service industry. In the near future, efforts are being made to further expand the opening up.
+1. The "single window" for international trade was the first to be established. Establish a cross-departmental integrated management service platform for trade, transportation, processing, warehousing and other businesses, enterprises submit relevant information at one time through a single window, and the number of participating departments has increased to 20, and the pilot scope covers the whole city, effectively reducing the cost of customs declaration for enterprises.
+2. The pilot project of classified supervision of cargo status is the first to be implemented. The basic structure of information system supervision has been established, supplemented by customs on-site supervision, which has realized the change from "physical fence" to "electronic fence", which greatly reduces the warehousing and logistics cost of the enterprise. At present, it has been operating normally in the special customs supervision area.
+3. The regulatory system for trade facilitation has been continuously optimized. in the special customs supervision area</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
         <is>
           <t>[编者按]7月15日全国金融工作会议闭幕后,人民日报发表评论员文章称,防范金融风险要"既防'黑天鹅',也防'灰犀牛'".之后,在7月27日的国新办新闻发布会上,中财办一局局长王志军首度对"灰犀牛"做出了中国官方解读:"灰犀牛"包括影子银行,房地产泡沫,国有企业高杠杆,地方债务,违法违规集资等风险隐患.
 "灰犀牛"一词最早源自美国学者米歇尔·渥克2016年出版的"灰犀牛"一书,指发生概率很大,冲击力极强的风险.准确判断风险隐患亦是保障金融安全的前提.因此,中财办提出的五只"灰犀牛"可视为未来一段时期中国防范化解金融风险,维护国家金融安全的重要领域.渥克在接受澎湃新闻记者专访时也表示,中国政府现在采取行动是很明智的.
@@ -1096,7 +1205,7 @@
 在各国的经济实践中,面向大众的集资活动需要受到监管和限制,这已经成为基本的共识.而集资活动之所以需要受到监</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>After the conclusion of the National Financial Work Conference on July 15, the People's Daily published a commentator's article saying that to prevent financial risks, it is necessary to "guard against both 'black swans' and 'gray rhinoceros'".
 The term "gray rhinoceros" originated from the book "gray rhinoceros" published by American scholar Michelle Walker in 2016, which refers to the risk of occurrence with a high probability and strong impact. Accurately judging the hidden risks is also the premise of ensuring financial security. Therefore, the five "gray rhinoceros" proposed by the CFO can be regarded as an important area for China to prevent and resolve financial risks and maintain national financial security in the coming period. In an exclusive interview with The Paper, Walker also said that it is wise for the Chinese government to act now.
@@ -1107,31 +1216,35 @@
 In the economic practice of various countries, it has become a basic consensus that the fundraising activities for the public need to be regulated and restricted. Fund-raising activities need to be monitored</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[Editor's note] After the closing of the National Financial Work Conference on July 15, the People's Daily published an editorial saying that to prevent financial risks, we must "prevent both 'black swans' and 'gray rhinos'". Later, at the State Council Information Office press conference on July 27, Wang Zhijun, director of the First Bureau of the Central Financial and Economic Affairs Commission, made the first official interpretation of the "gray rhinos" in China: "Gray rhinos" include shadow banking, real estate bubbles, high leverage of state-owned enterprises, local debts, illegal and irregular fundraising and other risks. The term "gray rhinos" originated from the book "Gray Rhinos" published by American scholar Michelle Walker in 2016, referring to risks with a high probability of occurrence and a strong impact. Accurately judging risk hazards is also a prerequisite for ensuring financial security. Therefore, the five "gray rhinos" proposed by the Central Financial and Economic Affairs Commission can be regarded as an important area for China to prevent and resolve financial risks and maintain national financial security in the future. In an exclusive interview with a reporter from The Paper, Walker also said that it is wise for the Chinese government to take action now. Where do these five gray rhinos come from, what is their current situation, and how to resolve their risk impact? On these issues, The Paper invited experts and scholars who have in-depth research in the fields of shadow banking, real estate bubbles, high leverage of state-owned enterprises, local debt, illegal and irregular fundraising to write articles for readers and decision-makers. The risk of illegal and irregular fundraising has been listed by the Chinese government as one of the five potential gray rhinoceros risks in China's financial system (the others are shadow banking, real estate bubbles, high leverage of state-owned enterprises, and local debt). This is probably the first time that the issue of illegal fundraising has been discussed from the perspective of preventing systemic financial risks. Of course, this does not mean that illegal fund-raising was not taken seriously before. On the contrary, in the history of China's reform and opening up, the rectification of illegal fund-raising is a task that governments at all levels attach great importance to at different stages. In 1993, the sensational "Great Wall Electromechanical Case" fund-raising case broke out. The main culprit Shen Taifu illegally raised 1 billion in 4 years, which was a very shocking figure at that time. This was the first well-known illegal fund-raising case after the reform and opening up. At that time, there was not even any related crime of illegal fund-raising (such as fund-raising fraud, illegal absorption of public deposits, etc.). In the end, Shen Taifu was sentenced to death for corruption and bribery. Since then, the crackdown on illegal fund-raising has always been an important task for governments at all levels. In 1993, the State Council issued the "Notice on Resolutely Stopping Illegal Fund-raising and Strengthening the Management of Bond Issuance", and the crackdown on illegal fund-raising was intensified. After that, about every four or five years, the Chinese government would launch a round of rectification campaigns against "illegal fund-raising". However, a round of rectification every few years also shows that the phenomenon of illegal fund-raising is hard to stop. In fact, with the development of rectification, the number of "illegal fund-raising" has increased, and the forms have become more and more diverse. Up to now, illegal fund-raising has widely used the Internet and communication technology, and the forms of fund-raising are varied, involving more and more people and larger and larger amounts of money. In the economic practices of various countries, it has become a basic consensus that fund-raising activities for the public need to be regulated and restricted. And the reason why fund-raising activities need to be regulated is that</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>大模型翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+评估：大模型翻译在准确性上表现一般，虽然大部分内容传达了原文的含义，但在某些细节上略显不足，例如“中财办”翻译为“CFO”不够准确，应该是“中央财经委员会”。流畅性较好，整体句子结构较为自然，但某些句子略显生硬。原意保留方面，虽然大部分信息被保留，但在语气和细节的传达上有所欠缺。
+谷歌翻译：[85]分（准确性[35]，流畅性[30]，原意保留[20]）  
+评估：谷歌翻译在准确性上表现较好，能够较为准确地传达原文的含义，尤其是在专业术语的翻译上，如“灰犀牛”一词的使用非常准确。流畅性上，句子结构较为自然，易于理解。然而，原意保留方面稍显不足，部分细节和语气未能完全传达，例如“非法集资”翻译为“illegal and irregular fundraising”可能会导致理解上的偏差。
+更好的翻译：[谷歌翻译]  
+原因：谷歌翻译在准确性和流畅性上表现更佳，尤其是在专业术语的处理上更为到位。尽管在原意保留方面略有不足，但整体上更能传达原文的核心信息和语气。大模型翻译在细节处理上存在一些不准确之处，影响了整体的专业性。</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>[Editor's note] After the closing of the National Financial Work Conference on July 15, the People's Daily published an editorial saying that to prevent financial risks, we must "prevent both 'black swans' and 'gray rhinos'". Later, at the State Council Information Office press conference on July 27, Wang Zhijun, director of the First Bureau of the Central Financial and Economic Affairs Commission, made the first official interpretation of the "gray rhinos" in China: "Gray rhinos" include shadow banking, real estate bubbles, high leverage of state-owned enterprises, local debts, illegal and irregular fundraising and other risks. The term "gray rhinos" originated from the book "Gray Rhinos" published by American scholar Michelle Walker in 2016, referring to risks with a high probability of occurrence and a strong impact. Accurately judging risk hazards is also a prerequisite for ensuring financial security. Therefore, the five "gray rhinos" proposed by the Central Financial and Economic Affairs Commission can be regarded as an important area for China to prevent and resolve financial risks and maintain national financial security in the future. In an exclusive interview with a reporter from The Paper, Walker also said that it is wise for the Chinese government to take action now. Where do these five gray rhinos come from, what is their current situation, and how to resolve their risk impact? On these issues, The Paper invited experts and scholars who have in-depth research in the fields of shadow banking, real estate bubbles, high leverage of state-owned enterprises, local debt, illegal and irregular fundraising to write articles for readers and decision-makers. The risk of illegal and irregular fundraising has been listed by the Chinese government as one of the five potential gray rhinoceros risks in China's financial system (the others are shadow banking, real estate bubbles, high leverage of state-owned enterprises, and local debt). This is probably the first time that the issue of illegal fundraising has been discussed from the perspective of preventing systemic financial risks. Of course, this does not mean that illegal fund-raising was not taken seriously before. On the contrary, in the history of China's reform and opening up, the rectification of illegal fund-raising is a task that governments at all levels attach great importance to at different stages. In 1993, the sensational "Great Wall Electromechanical Case" fund-raising case broke out. The main culprit Shen Taifu illegally raised 1 billion in 4 years, which was a very shocking figure at that time. This was the first well-known illegal fund-raising case after the reform and opening up. At that time, there was not even any related crime of illegal fund-raising (such as fund-raising fraud, illegal absorption of public deposits, etc.). In the end, Shen Taifu was sentenced to death for corruption and bribery. Since then, the crackdown on illegal fund-raising has always been an important task for governments at all levels. In 1993, the State Council issued the "Notice on Resolutely Stopping Illegal Fund-raising and Strengthening the Management of Bond Issuance", and the crackdown on illegal fund-raising was intensified. After that, about every four or five years, the Chinese government would launch a round of rectification campaigns against "illegal fund-raising". However, a round of rectification every few years also shows that the phenomenon of illegal fund-raising is hard to stop. In fact, with the development of rectification, the number of "illegal fund-raising" has increased, and the forms have become more and more diverse. Up to now, illegal fund-raising has widely used the Internet and communication technology, and the forms of fund-raising are varied, involving more and more people and larger and larger amounts of money. In the economic practices of various countries, it has become a basic consensus that fund-raising activities for the public need to be regulated and restricted. And the reason why fund-raising activities need to be regulated is that</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>几年前在丹麦做访问学者,发现这里的人们生活比较悠闲,并不像很多中国人那样拼命工作,但生活水平却很高,我当时就产生一个疑问,为什么他们不努力工作也能过上好日子?后来想明白了,有比努力工作更重要的东西 -  - 资本积累.北欧国家早已建立了有助于资本积累的制度,数个世纪积累下来的资本没有因为战乱和自然灾害而遭受破坏,因此,他们现在可以坐享丰富的资本积累所带来的"资本红利",而中国呢,刚好相反,不是中国人不努力劳动,而是我们一直没有建立有助于资本积累的制度,并且历史上频发的战乱和灾难也使本来就很稀少的资本不断地耗减,这样,换算到每个人头上的资本数量就极其有限.改革开放之后,人们的生活水平迅速提高,引入大量的外资是重要原因之一.
 但至今,这个道理并很多人仍然没有认识到,他们还被一种错误的理论所支配,即"资本剥削劳动",资本和劳动之间是对立的关系,因此,需要政府的介入,或建立工会这样的组织,才能在资本和劳动之间建立和谐的劳动关系,概而言之,他们认为如要改善劳动者的境遇,人为的干预是不可或缺的.对于这种错误的观念,我们有必要予以批驳.
@@ -1139,7 +1252,7 @@
 要注意的是,资本的形成离不开企业家才能这个关键因素,单独的机器,厂房等物品不是资本,单独的劳动力也不是资本,是企业家用他独特的隐含知识,把这些物品和劳动力组合之后,物品和劳动力才成为了资本,也即它(他)们成为了能够满足消费者需求,达到企业家某个目的的手段,成为了具有某种生产力的东西.可见,如一个社会消灭了企业</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>A few years ago, when I was a visiting scholar in Denmark, I found that people here live a more leisurely life, not working as hard as many Chinese, but the standard of living is very high, and I wondered why they can live a good life without working hard. Later I figured out that there is something more important than hard work - capital accumulation. The Nordic countries have long established a system conducive to capital accumulation, and the capital accumulated over the centuries has not been destroyed by wars and natural disasters, so they can now enjoy the "capital dividend" brought by rich capital accumulation, while China, on the contrary, is not that the Chinese do not work hard, but that we have not established a system conducive to capital accumulation, and the frequent wars and disasters in history have also caused the already scarce capital to continue to deplete, so, The amount of capital that translates to each person is extremely limited. After the reform and opening up, people's living standards have improved rapidly, and the introduction of a large amount of foreign capital is one of the important reasons.
 However, many people still do not realize this truth, and they are still dominated by a false theory, that is, "capital exploits labor", and the relationship between capital and labor is antagonistic, so it is necessary for the government to intervene or establish organizations such as trade unions to establish a harmonious labor relationship between capital and labor. It is necessary to refute this misconception.
@@ -1147,31 +1260,36 @@
 It should be noted that the formation of capital is inseparable from the key factor of entrepreneurial talent, individual machines, factories and other items are not capital, and separate labor is not capital, it is the entrepreneur who uses his unique implicit knowledge to combine these goods and labor, and the goods and labor force become capital, that is, they (they) have become a means to meet the needs of consumers and achieve a certain goal of the entrepreneur, and have become something with a certain productivity. It can be seen that such as a society has eliminated enterprises</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>few years ago, I was a visiting scholar in Denmark. I found that people here live a leisurely life. They don't work as hard as many Chinese do, but their living standards are very high. I wondered why they can live a good life without working hard. Later, I figured it out. There is something more important than working hard - capital accumulation. Nordic countries have long established a system that is conducive to capital accumulation. The capital accumulated over centuries has not been destroyed by wars and natural disasters. Therefore, they can now enjoy the "capital dividend" brought by rich capital accumulation. China is just the opposite. It's not that Chinese people don't work hard, but that we have never established a system that is conducive to capital accumulation. Frequent wars and disasters in history have also caused the already scarce capital to continue to deplete. In this way, the amount of capital converted to each person is extremely limited. After the reform and opening up, people's living standards have improved rapidly, and the introduction of a large amount of foreign capital is one of the important reasons. But up to now, many people still do not realize this truth. They are still dominated by a wrong theory, that is, "capital exploits labor". There is an antagonistic relationship between capital and labor. Therefore, it is necessary for the government to intervene or establish organizations such as trade unions to establish a harmonious labor relationship between capital and labor. In short, they believe that if the situation of workers is to be improved, human intervention is indispensable. We need to refute this wrong concept. The improvement of the real income level of workers is based on the improvement of labor productivity, and the improvement of labor productivity must be based on capital accumulation. In a free market economy, with the help of corporate systems such as the banking system and the joint-stock system, the speed of capital accumulation will always be faster than the speed of population growth, which means that labor has become more scarce relative to capital, and the amount of capital per capita has continued to increase. Correspondingly, labor productivity has also increased. Due to the scarcity of labor relative to capital, we must be vigilant against any abuse of concepts such as "surplus labor" or "unemployment". "Labor" is the laborer sacrificing his leisure time to exchange his material living materials (wages), losing labor - - surplus labor or unemployment - - This means that even if these workers are willing to sacrifice their leisure time, they cannot find a job that can satisfy their survival. This situation is only possible when the workers set a minimum standard of living (wage level) or working conditions for themselves, or when they can have a guaranteed income without sacrificing their leisure time. In other words, in a free market, surplus labor or unemployment is always voluntary. It should be noted that the formation of capital is inseparable from the key factor of entrepreneurial talent. Individual machines, factories and other items are not capital, and individual labor is not capital. It is only after entrepreneurs use their unique implicit knowledge to combine these items and labor that items and labor become capital, that is, they become a means to meet consumer needs and achieve a certain goal of entrepreneurs, and become something with a certain productivity. It can be seen that if a society eliminates enterprises,</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>few years ago, I was a visiting scholar in Denmark. I found that people here live a leisurely life. They don't work as hard as many Chinese do, but their living standards are very high. I wondered why they can live a good life without working hard. Later, I figured it out. There is something more important than working hard - capital accumulation. Nordic countries have long established a system that is conducive to capital accumulation. The capital accumulated over centuries has not been destroyed by wars and natural disasters. Therefore, they can now enjoy the "capital dividend" brought by rich capital accumulation. China is just the opposite. It's not that Chinese people don't work hard, but that we have never established a system that is conducive to capital accumulation. Frequent wars and disasters in history have also caused the already scarce capital to continue to deplete. In this way, the amount of capital converted to each person is extremely limited. After the reform and opening up, people's living standards have improved rapidly, and the introduction of a large amount of foreign capital is one of the important reasons. But up to now, many people still do not realize this truth. They are still dominated by a wrong theory, that is, "capital exploits labor". There is an antagonistic relationship between capital and labor. Therefore, it is necessary for the government to intervene or establish organizations such as trade unions to establish a harmonious labor relationship between capital and labor. In short, they believe that if the situation of workers is to be improved, human intervention is indispensable. We need to refute this wrong concept. The improvement of the real income level of workers is based on the improvement of labor productivity, and the improvement of labor productivity must be based on capital accumulation. In a free market economy, with the help of corporate systems such as the banking system and the joint-stock system, the speed of capital accumulation will always be faster than the speed of population growth, which means that labor has become more scarce relative to capital, and the amount of capital per capita has continued to increase. Correspondingly, labor productivity has also increased. Due to the scarcity of labor relative to capital, we must be vigilant against any abuse of concepts such as "surplus labor" or "unemployment". "Labor" is the laborer sacrificing his leisure time to exchange his material living materials (wages), losing labor - - surplus labor or unemployment - - This means that even if these workers are willing to sacrifice their leisure time, they cannot find a job that can satisfy their survival. This situation is only possible when the workers set a minimum standard of living (wage level) or working conditions for themselves, or when they can have a guaranteed income without sacrificing their leisure time. In other words, in a free market, surplus labor or unemployment is always voluntary. It should be noted that the formation of capital is inseparable from the key factor of entrepreneurial talent. Individual machines, factories and other items are not capital, and individual labor is not capital. It is only after entrepreneurs use their unique implicit knowledge to combine these items and labor that items and labor become capital, that is, they become a means to meet consumer needs and achieve a certain goal of entrepreneurs, and become something with a certain productivity. It can be seen that if a society eliminates enterprises,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行具体的分析和评分。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上表现稍好，尤其在一些细节上如“资本积累”与“资本红利”的翻译上更为贴切。谷歌翻译在流畅性上也较好，但在某些句子的结构上显得稍微生硬，例如“在自由市场中，劳动力过剩或失业总是自愿的”这一句在大模型翻译中更为自然。]</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A few years ago, when I was a visiting scholar in Denmark, I found that people here live a more leisurely life, not working as hard as many Chinese, but the standard of living is very high, and I wondered why they can live a good life without working hard. Later I figured out that there is something more important than hard work - capital accumulation. The Nordic countries have long established a system conducive to capital accumulation, and the capital accumulated over the centuries has not been destroyed by wars and natural disasters, so they can now enjoy the "capital dividend" brought by rich capital accumulation, while China, on the contrary, is not that the Chinese do not work hard, but that we have not established a system conducive to capital accumulation, and the frequent wars and disasters in history have also caused the already scarce capital to continue to deplete, so, The amount of capital that translates to each person is extremely limited. After the reform and opening up, people's living standards have improved rapidly, and the introduction of a large amount of foreign capital is one of the important reasons.
+However, many people still do not realize this truth, and they are still dominated by a false theory, that is, "capital exploits labor", and the relationship between capital and labor is antagonistic, so it is necessary for the government to intervene or establish organizations such as trade unions to establish a harmonious labor relationship between capital and labor. It is necessary to refute this misconception.
+The increase in the real income level of workers is based on the increase in labor productivity, and the increase in labor productivity must be based on capital accumulation. In a free market economy, the rate of capital accumulation is always faster than the rate of population increase, which means that labor becomes more scarce relative to capital, and the amount of capital per capita increases, and labor productivity increases. Because of the scarcity of labor relative to capital, we need to be wary of any misuse of concepts such as "labor surplus" or "unemployment." "Labor" is when the laborer sacrifices his leisure in exchange for his material means of subsistence (wages) and loses his labor - - surplus labor or unemployment - means that even if these workers are willing to sacrifice their leisure, they cannot find a job that will satisfy their survival, unless the worker sets a minimum standard of living (wage level) or working conditions for himself, or when they can have a guaranteed income without sacrificing leisure, that is, in the free market, Labor surplus or unemployment is always voluntary.
+It should be noted that the formation of capital is inseparable from the key factor of entrepreneurial talent, individual machines, factories and other items are not capital, and separate labor is not capital, it is the entrepreneur who uses his unique implicit knowledge to combine these goods and labor, and the goods and labor force become capital, that is, they (they) have become a means to meet the needs of consumers and achieve a certain goal of the entrepreneur, and have become something with a certain productivity. It can be seen that such as a society has eliminated enterprises</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
         <is>
           <t>期货投机交易指在期货市场上以获取价差收益为目的的期货交易行为.
 期货投机交易指在期货市场上以获取价差收益为目的的期货交易行为.由于投机的目的是赚取差价收益,所以,投机者一般只是平仓了结持有的期货合约,而不进行实物交割.
@@ -1192,7 +1310,7 @@
 各期货市场商品之间的价格与不同商品之间的价格存在高度相关性.投机者的参与促进了相关市场和相关商品的价格调整,有利于改善不同地区的不合理价格状况;有</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Futures speculative trading refers to futures trading in the futures market for the purpose of obtaining spread gains.
 Futures speculative trading refers to futures trading in the futures market for the purpose of obtaining spread gains. Since the purpose of speculation is to earn the difference in price, speculators generally only close their positions and do not make physical delivery.
@@ -1213,31 +1331,49 @@
 There is a high correlation between the prices of commodities in various futures markets and the prices of different commodities. The participation of speculators promotes the price adjustment of relevant markets and related commodities, which is conducive to improving the unreasonable price situation in different regions; Yes</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Futures speculation refers to futures trading in the futures market for the purpose of obtaining price difference profits. Futures speculation refers to futures trading in the futures market for the purpose of obtaining price difference profits. Since the purpose of speculation is to earn price difference profits, speculators generally just close their futures contracts without making physical delivery. Speculators make decisions to buy or sell based on their own judgment of the futures price trend. If this judgment is the same as the market price trend, the speculators can obtain speculative profits after closing their positions; if the judgment is contrary to the price trend, the speculators will bear speculative losses after closing their positions. Speculative trading is divided into two types: price difference speculation and arbitrage trading. The so-called price difference speculation refers to the activities of speculators who buy when they think the price will rise and sell when the price falls based on their expectations of prices, and then wait for a favorable opportunity to sell or buy the original futures contract to obtain profits. The key to price difference speculation lies in whether the analysis and prediction of the price trend of the futures market is accurate. Since there are many factors that affect the price changes in the futures market, especially the accidental factors such as speculative psychology, which are difficult to predict, it is difficult to make a correct judgment, so the risk of this speculation is relatively high. Arbitrage trading is a special way of futures speculation trading. It uses the relative price difference between different months, different markets, and different commodities in the futures market to buy and sell different types of futures contracts at the same time to make profits. Just as there is often a difference between the spot price and the futures price of a commodity, there are also differences in the price changes of contracts of the same commodity in different delivery months; there are also differences in the price changes of the same commodity in different futures exchanges. Due to the existence of these price differences, arbitrage trading in the futures market becomes possible. Features of futures speculation: From the perspective of trading venues, futures speculation trading mainly operates in the futures market to buy or sell short. Speculators generally do not do spot trading and almost never carry out physical delivery. From the perspective of trading purposes, futures speculation trading is aimed at obtaining greater profits. From the perspective of trading methods, futures speculation mainly uses price fluctuations in the futures market to buy and sell short, thereby obtaining price difference income. From the perspective of trading risks, speculative trading bears great risks when trading. In the futures market, speculative trading is indispensable. It plays a role in increasing market liquidity and transferring risks to hedgers. It is also conducive to the smooth progress of futures trading and the normal operation of the futures market. It is one of the important conditions for the hedging function and price discovery function of the futures market to be exerted. Futures speculators bear the risks that hedgers try to avoid and transfer, which makes hedging possible. Speculators often establish positions and hedge their contracts, which increases the trading volume of the futures market, which not only makes hedging transactions easier to complete, but also reduces the price fluctuations that may be caused by traders entering and exiting the market. There is a high correlation between the prices of commodities in various futures markets and the prices of different commodities. The participation of speculators promotes the price adjustment of related markets and related commodities, which is conducive to improving the unreasonable price situation in different regions;</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Futures speculation refers to futures trading in the futures market for the purpose of obtaining price difference profits. Futures speculation refers to futures trading in the futures market for the purpose of obtaining price difference profits. Since the purpose of speculation is to earn price difference profits, speculators generally just close their futures contracts without making physical delivery. Speculators make decisions to buy or sell based on their own judgment of the futures price trend. If this judgment is the same as the market price trend, the speculators can obtain speculative profits after closing their positions; if the judgment is contrary to the price trend, the speculators will bear speculative losses after closing their positions. Speculative trading is divided into two types: price difference speculation and arbitrage trading. The so-called price difference speculation refers to the activities of speculators who buy when they think the price will rise and sell when the price falls based on their expectations of prices, and then wait for a favorable opportunity to sell or buy the original futures contract to obtain profits. The key to price difference speculation lies in whether the analysis and prediction of the price trend of the futures market is accurate. Since there are many factors that affect the price changes in the futures market, especially the accidental factors such as speculative psychology, which are difficult to predict, it is difficult to make a correct judgment, so the risk of this speculation is relatively high. Arbitrage trading is a special way of futures speculation trading. It uses the relative price difference between different months, different markets, and different commodities in the futures market to buy and sell different types of futures contracts at the same time to make profits. Just as there is often a difference between the spot price and the futures price of a commodity, there are also differences in the price changes of contracts of the same commodity in different delivery months; there are also differences in the price changes of the same commodity in different futures exchanges. Due to the existence of these price differences, arbitrage trading in the futures market becomes possible. Features of futures speculation: From the perspective of trading venues, futures speculation trading mainly operates in the futures market to buy or sell short. Speculators generally do not do spot trading and almost never carry out physical delivery. From the perspective of trading purposes, futures speculation trading is aimed at obtaining greater profits. From the perspective of trading methods, futures speculation mainly uses price fluctuations in the futures market to buy and sell short, thereby obtaining price difference income. From the perspective of trading risks, speculative trading bears great risks when trading. In the futures market, speculative trading is indispensable. It plays a role in increasing market liquidity and transferring risks to hedgers. It is also conducive to the smooth progress of futures trading and the normal operation of the futures market. It is one of the important conditions for the hedging function and price discovery function of the futures market to be exerted. Futures speculators bear the risks that hedgers try to avoid and transfer, which makes hedging possible. Speculators often establish positions and hedge their contracts, which increases the trading volume of the futures market, which not only makes hedging transactions easier to complete, but also reduces the price fluctuations that may be caused by traders entering and exiting the market. There is a high correlation between the prices of commodities in various futures markets and the prices of different commodities. The participation of speculators promotes the price adjustment of related markets and related commodities, which is conducive to improving the unreasonable price situation in different regions;</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行分析和评分。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍微优于谷歌翻译，尤其在“价差收益”一词的翻译上，使用了“spread gains”，而谷歌翻译则使用了“price difference profits”，虽然意思相近，但前者更符合金融术语的使用。此外，大模型翻译在句子结构上更为复杂和多样化，流畅性表现略好。谷歌翻译在某些地方使用了较为简单的句式，导致整体流畅性稍逊。]</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Futures speculative trading refers to futures trading in the futures market for the purpose of obtaining spread gains.
+Futures speculative trading refers to futures trading in the futures market for the purpose of obtaining spread gains. Since the purpose of speculation is to earn the difference in price, speculators generally only close their positions and do not make physical delivery.
+Speculators make a decision to buy or sell based on their own judgment of the futures price trend, and if this judgment is the same as the market price trend, the speculator can obtain speculative profits after closing the position; If the judgment is contrary to the price movement, the speculator bears the speculative loss after closing the position.
+There are two types of speculative trading: spread speculation and arbitrage trading.
+The so-called spread speculation refers to the activity of speculators to buy when they think the price is rising and sell when the price is falling, and then sell or buy the original futures contract at a favorable time to make a profit.
+The key to spread speculation lies in the accuracy of the analysis and prediction of the price change trend of the futures market, because there are many factors affecting the price change of the futures market, especially the accidental factors such as speculative psychology are difficult to predict, therefore, it is difficult to judge correctly, so the risk of this speculation is greater.
+Arbitrage trading is a special way of futures speculation, which uses the relative price difference between different months, different markets and different commodities in the futures market to buy and sell different kinds of futures contracts at the same time to obtain profits.
+Just as there are often differences between the spot price and the futures price of a commodity, there are also differences in the contract price changes of the same commodity in different delivery months; There are also differences in the price movement of the same commodity on different futures exchanges. The existence of these price differences makes arbitrage trading in the futures market possible.
+Characteristics of Futures Speculation:
+From the perspective of trading venues, futures speculative trading is mainly carried out in the futures market to buy or sell short trading activities, speculators generally do not do spot trading, almost no physical delivery.
+From the perspective of trading purposes, futures speculative trading is for the purpose of obtaining greater profits.
+From the perspective of trading methods, futures speculative trading is mainly to use the price fluctuations in the futures market to buy and sell short, so as to obtain the spread income.
+From the point of view of trading risk, speculative trading carries a lot of risk when trading.
+In the futures market, speculative trading is indispensable, it plays a role in increasing market liquidity and bearing the risk of hedging people, and is also conducive to the smooth progress of futures trading and the normal operation of the futures market, which is one of the important conditions for the hedging function and price discovery function of the futures market.
+Futures speculators bear the risk that hedgers are trying to avoid and transfer, which makes hedging possible.
+Speculators often set up positions to hedge their contracts, which increases the volume of trading in the futures market, which not only makes hedging transactions easier to fill, but also reduces the price fluctuations that traders can cause when entering and exiting the market.
+There is a high correlation between the prices of commodities in various futures markets and the prices of different commodities. The participation of speculators promotes the price adjustment of relevant markets and related commodities, which is conducive to improving the unreasonable price situation in different regions; Yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
         <is>
           <t>汇兑损失是指办理外汇买卖和兑换外币等业务产生的损失,即外币资金在使用时,或外币债权,外币债务在偿还时,由于期末汇率与记账汇率的不同而发生的折合为记账本位币的差额,期末汇率低于记账汇率而折合为记账本位币的差额为汇兑损失.
 (1)审查企业列支的汇兑损益是否确已发生,即计算汇兑损益的外币债权,债务是否确实收回或偿还,调剂出售的外汇是否确已实现.
@@ -1253,7 +1389,7 @@
 三,已经计入资产成本以及向所有者进行利润分配相关部分的汇兑损失,不予扣除.由于对于外币非货币性资产,以历史成本计量的,在"企业会计准则第19号 -  - 外币折算"不存在汇兑损失.而以公允价值计量的外币非货币性资产即使产生汇兑损益也是计入公允价值变动损益的.如果企业是用外币资产向所有者进行利润分配的,由于对投资者的利润分配是用税后利润分的,这里,产生的汇兑损失,在税收上我们也不能作为企业支出在税前扣除.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Exchange loss refers to the loss arising from the handling of foreign exchange transactions and foreign currency exchanges, that is, when the foreign currency funds are used, or when the foreign currency claims and foreign currency debts are repaid, the difference between the exchange rate at the end of the period and the accounting exchange rate is converted into the accounting base currency, and the difference between the closing exchange rate and the accounting exchange rate is the exchange loss.
 (1) Examine whether the exchange gains and losses made by the enterprise have indeed occurred, that is, whether the foreign currency claims for calculating the exchange gains and losses, whether the debts have indeed been recovered or repaid, and whether the foreign exchange transferred and sold has indeed been realized.
@@ -1269,31 +1405,44 @@
 3. Exchange losses that have been included in the cost of assets and the relevant part of the profit distribution to the owner shall not be deducted. Since foreign currency non-monetary assets are measured at historical cost, there is no exchange loss in "Accounting Standard for Business Enterprises No. 19 - Foreign Currency Translation". Foreign currency non-monetary assets measured at fair value are included in fair value gains or losses even if they generate exchange gains or losses. If the enterprise uses foreign currency assets to distribute profits to the owners, since the profit distribution to investors is divided by after-tax profits, the exchange losses incurred here cannot be deducted before tax as corporate expenses in terms of taxation.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Exchange losses refer to losses incurred in foreign exchange transactions and foreign currency conversion, that is, the difference in the conversion of foreign currency funds into the accounting base currency due to the difference between the end-of-period exchange rate and the accounting rate when foreign currency funds are used, or when foreign currency debts and credits are repaid. The difference in the conversion into the accounting base currency when the end-of-period exchange rate is lower than the accounting rate is the exchange loss. (1) Review whether the exchange gains and losses recorded by the enterprise have actually occurred, that is, whether the foreign currency debts and credits used to calculate the exchange gains and losses have actually been recovered or repaid, and whether the foreign exchange sold for adjustment has actually been realized. (2) Review the correctness of the calculation of exchange gains and losses and the consistency of the calculation method. (3) Review whether the accounting base currency difference between different amounts of foreign currencies is regarded as exchange gains and losses. (4) Review the exchange gains and losses incurred in the early stage of the enterprise's operation, especially foreign exchange adjustments. The specific time of exchange losses should be found out to see whether there is any behavior of artificially recording exchange losses incurred during the preparation period into exchange losses during the production and operation period in order to extend the tax exemption period. Article 39 of the new "Enterprise Income Tax Implementation Regulations" stipulates that "Exchange losses incurred by enterprises in currency transactions and when converting monetary assets and liabilities other than RMB into RMB at the end of the tax year at the spot RMB midpoint exchange rate, except for the part that has been included in the cost of the relevant assets and the part related to the profit distribution to the owner, are allowed to be deducted." We can understand this provision in the following aspects: First, exchange losses incurred in currency transactions are allowed to be deducted. According to the current "Enterprise Accounting Standard No. 19 - Foreign Currency Conversion", when enterprises conduct foreign currency transactions, they convert foreign currency amounts into the accounting base currency at the spot exchange rate. Foreign currency exchange transactions conducted by enterprises should be converted at the exchange rate actually adopted in the transaction, that is, the bank's buying or selling price. Since the conversion difference generated by the difference between the exchange rate midpoint and the bank's buying or selling price is included in the current period's profit and loss in accounting, it is also allowed to be deducted under the new Enterprise Income Tax Law. Second, exchange losses incurred when converting monetary assets and liabilities other than RMB into RMB at the end of the tax year at the spot exchange rate midpoint exchange rate are allowed to be deducted. That is to say, on the balance sheet date, the exchange gains and losses calculated for foreign currency monetary assets and liabilities according to "Enterprise Accounting Standard No. 19 - Foreign Currency Translation" are allowed to be deducted before corporate income tax. Third, the exchange losses that have been included in the asset cost and the relevant part of the profit distribution to the owner are not deductible. Since foreign currency non-monetary assets are measured at historical cost, there is no exchange loss in "Enterprise Accounting Standard No. 19 - Foreign Currency Translation". Even if foreign currency non-monetary assets measured at fair value generate exchange gains and losses, they are still included in the gains and losses from changes in fair value. If the enterprise uses foreign currency assets to distribute profits to the owner, since the profit distribution to investors is based on after-tax profits, the exchange losses generated here cannot be deducted as corporate expenses before tax.</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Exchange losses refer to losses incurred in foreign exchange transactions and foreign currency conversion, that is, the difference in the conversion of foreign currency funds into the accounting base currency due to the difference between the end-of-period exchange rate and the accounting rate when foreign currency funds are used, or when foreign currency debts and credits are repaid. The difference in the conversion into the accounting base currency when the end-of-period exchange rate is lower than the accounting rate is the exchange loss. (1) Review whether the exchange gains and losses recorded by the enterprise have actually occurred, that is, whether the foreign currency debts and credits used to calculate the exchange gains and losses have actually been recovered or repaid, and whether the foreign exchange sold for adjustment has actually been realized. (2) Review the correctness of the calculation of exchange gains and losses and the consistency of the calculation method. (3) Review whether the accounting base currency difference between different amounts of foreign currencies is regarded as exchange gains and losses. (4) Review the exchange gains and losses incurred in the early stage of the enterprise's operation, especially foreign exchange adjustments. The specific time of exchange losses should be found out to see whether there is any behavior of artificially recording exchange losses incurred during the preparation period into exchange losses during the production and operation period in order to extend the tax exemption period. Article 39 of the new "Enterprise Income Tax Implementation Regulations" stipulates that "Exchange losses incurred by enterprises in currency transactions and when converting monetary assets and liabilities other than RMB into RMB at the end of the tax year at the spot RMB midpoint exchange rate, except for the part that has been included in the cost of the relevant assets and the part related to the profit distribution to the owner, are allowed to be deducted." We can understand this provision in the following aspects: First, exchange losses incurred in currency transactions are allowed to be deducted. According to the current "Enterprise Accounting Standard No. 19 - Foreign Currency Conversion", when enterprises conduct foreign currency transactions, they convert foreign currency amounts into the accounting base currency at the spot exchange rate. Foreign currency exchange transactions conducted by enterprises should be converted at the exchange rate actually adopted in the transaction, that is, the bank's buying or selling price. Since the conversion difference generated by the difference between the exchange rate midpoint and the bank's buying or selling price is included in the current period's profit and loss in accounting, it is also allowed to be deducted under the new Enterprise Income Tax Law. Second, exchange losses incurred when converting monetary assets and liabilities other than RMB into RMB at the end of the tax year at the spot exchange rate midpoint exchange rate are allowed to be deducted. That is to say, on the balance sheet date, the exchange gains and losses calculated for foreign currency monetary assets and liabilities according to "Enterprise Accounting Standard No. 19 - Foreign Currency Translation" are allowed to be deducted before corporate income tax. Third, the exchange losses that have been included in the asset cost and the relevant part of the profit distribution to the owner are not deductible. Since foreign currency non-monetary assets are measured at historical cost, there is no exchange loss in "Enterprise Accounting Standard No. 19 - Foreign Currency Translation". Even if foreign currency non-monetary assets measured at fair value generate exchange gains and losses, they are still included in the gains and losses from changes in fair value. If the enterprise uses foreign currency assets to distribute profits to the owner, since the profit distribution to investors is based on after-tax profits, the exchange losses generated here cannot be deducted as corporate expenses before tax.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行客观评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：[大模型翻译在准确性上稍微优于谷歌翻译，尤其是在对“汇兑损失”定义的表述上，使用了“the difference between the exchange rate at the end of the period and the accounting exchange rate”，更清晰地传达了原文的意思。谷歌翻译在某些地方的用词上略显模糊，例如“the difference in the conversion of foreign currency funds into the accounting base currency”可能会让读者感到不够明确。大模型翻译的流畅性也更好，整体句子结构更自然。]</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Exchange loss refers to the loss arising from the handling of foreign exchange transactions and foreign currency exchanges, that is, when the foreign currency funds are used, or when the foreign currency claims and foreign currency debts are repaid, the difference between the exchange rate at the end of the period and the accounting exchange rate is converted into the accounting base currency, and the difference between the closing exchange rate and the accounting exchange rate is the exchange loss.
+(1) Examine whether the exchange gains and losses made by the enterprise have indeed occurred, that is, whether the foreign currency claims for calculating the exchange gains and losses, whether the debts have indeed been recovered or repaid, and whether the foreign exchange transferred and sold has indeed been realized.
+(2) Review the correctness of the calculation of foreign exchange gains and losses, and the consistency of the calculation method.
+(3) Examine whether the difference between different amounts of foreign currencies is regarded as exchange gains and losses.
+(4) Review the exchange gains and losses incurred in the early stage of the enterprise's operation, especially the foreign exchange adjustment, and find out the specific time when the exchange loss occurred, and whether there is any act of artificially including the exchange loss incurred during the preparation period into the exchange loss during the production and operation period in order to extend the tax reduction and exemption period.
+Article 39 of the new "Regulations for the Implementation of Enterprise Income Tax" stipulates that "the exchange losses incurred by an enterprise in currency transactions and when converting monetary assets and liabilities other than RMB into RMB at the end of the tax year according to the central price of the spot RMB exchange rate at the end of the period shall be allowed to be deducted, except for the part that has been included in the cost of the relevant assets and the part related to the distribution of profits to the owners."
+We can understand this provision in the following aspects:
+1. Deduction of exchange losses incurred in the course of currency transactions is allowed.
+According to the current "Accounting Standard for Business Enterprises No. 19 - Foreign Currency Translation", when an enterprise has a foreign currency transaction, the foreign currency amount is converted into the base currency of accounting at the spot exchange rate. The foreign currency exchange business of the enterprise shall be converted at the exchange rate actually used in the transaction, i.e., the bank's buying or selling price. The difference in translation due to the difference between the central exchange rate and the bank's buying or selling price is accounted for as a profit or loss for the current period, and is also allowed to be deducted under the new enterprise income tax law.
+2. At the end of the tax year, the exchange losses incurred when monetary assets and liabilities other than RMB are converted into RMB at the mid-point exchange rate at the end of the period shall be allowed to be deducted.
+In other words, for the balance sheet date, the foreign exchange gains and losses calculated by the enterprise on the monetary assets and liabilities in foreign currencies are allowed to be deducted before the enterprise income tax according to the "Accounting Standard for Business Enterprises No. 19 - Foreign Currency Translation".
+3. Exchange losses that have been included in the cost of assets and the relevant part of the profit distribution to the owner shall not be deducted. Since foreign currency non-monetary assets are measured at historical cost, there is no exchange loss in "Accounting Standard for Business Enterprises No. 19 - Foreign Currency Translation". Foreign currency non-monetary assets measured at fair value are included in fair value gains or losses even if they generate exchange gains or losses. If the enterprise uses foreign currency assets to distribute profits to the owners, since the profit distribution to investors is divided by after-tax profits, the exchange losses incurred here cannot be deducted before tax as corporate expenses in terms of taxation.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
         <is>
           <t>中国经济50人论坛"中国经济政策研讨会"
 我这是第二次来长安论坛向大家汇报研究成果了,今天我讲的题目叫做"宏观调控三种可能结果".大家知道,从2003年中央经济工作会议开始,我们又进入了一次新的宏观调控,到现在已经快两年了.这一次宏观调控取得了非常显著的阶段性的成果,但是还没有结束,最后可能出现什么样的结果?这是我们从去年就开始研究的一个课题,那时候国务院也要求社科院写过报告.在这里向大家介绍一下我们的研究成果,希望能够得到大家的评论,讲的不对的地方欢迎大家批评指正.
@@ -1302,7 +1451,7 @@
 先说78年,79年的这次宏观调控.在1978年召开的十一届三中全会上,中央决定把工作重点转移到经济建设上来,开始了我们改革开放的历程.但是78年刚刚改革开放就遇到了经济过热,GDP增长率是百分之十二左右.这个问题的出现,还得说是由华国锋造成的,在第一代领导人毛主席和第二代领导人邓小平之间还有一个华国锋,毛主席说"华国锋办事,我放心",从</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>China Economic 50 Forum "China Economic Policy Seminar"
 As you know, starting from the 2003 Central Economic Work Conference, we have entered a new round of macroeconomic regulation and control, and it has been almost two years since then. This time, the macroeconomic control has achieved very remarkable phased results, but it is not over yet, what kind of results may occur in the end? This is a topic that we have been working on since last year, when the State Council also asked the Chinese Academy of Social Sciences to write a report. Here I would like to introduce our research results to you, and hope to get your comments, and welcome criticism and correction if you say something wrong.
@@ -1311,31 +1460,37 @@
 Let's talk about the macro control in 78 and 79 years. At the Third Plenary Session of the 11th CPC Central Committee held in 1978, the Central Committee decided to shift the focus of its work to economic construction, thus beginning the process of reform and opening up. However, in 78 years, just after the reform and opening up, the economy was overheated, and the GDP growth rate was about 12 percent. The emergence of this problem has to be said to be caused by Hua Guofeng, there is also a Hua Guofeng between the first generation leader Chairman Mao and the second generation leader Deng Xiaoping, Chairman Mao said, "Hua Guofeng does things, I can rest assured", from</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>: : : : : : : : : : : : : :</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>: : : : : : : : : : : : : :</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，以便我进行客观评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[70]分（准确性[30]，流畅性[20]，原意保留[20]）  
+更好的翻译：[大模型翻译]  
+原因：大模型翻译在准确性和专业性上表现较好，能够较为准确地传达原文的含义，例如“宏观调控的结果大概就是这三种”翻译为“The results of macroeconomic regulation and control are probably these three”，保留了原文的意思。流畅性方面，大模型翻译的句子结构较为自然，而谷歌翻译在某些地方显得较为生硬，如“the economy is too cold”不如“大模型翻译”中的“the object of macroeconomic control is the economy is too cold”更为清晰。原意保留方面，大模型翻译较好地保留了原文的语气和细节，而谷歌翻译在某些细节上有所缺失。</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>China Economic 50 Forum "China Economic Policy Seminar"
+As you know, starting from the 2003 Central Economic Work Conference, we have entered a new round of macroeconomic regulation and control, and it has been almost two years since then. This time, the macroeconomic control has achieved very remarkable phased results, but it is not over yet, what kind of results may occur in the end? This is a topic that we have been working on since last year, when the State Council also asked the Chinese Academy of Social Sciences to write a report. Here I would like to introduce our research results to you, and hope to get your comments, and welcome criticism and correction if you say something wrong.
+The results of macroeconomic regulation and control are probably these three: one is to be able to achieve the expected goal of macroeconomic regulation and control relatively well, that is, the so-called "soft landing"; There is also the possibility of a "hard landing" in which the economy suffers in some respects; The third possible outcome is a rebound after a certain amount of results. The reason why we come to the conclusion that "there are three possible outcomes of macroeconomic control" is based on the analysis of the historical process. There are two curves on the chart below, the GDP growth rate in red and the inflation rate in blue, for the period from 1978 to 2004. Since the beginning of reform and opening up, we have carried out six macroeconomic adjustments and controls, and three of them are more typical.
+For the first time, at the beginning of reform and opening up in 78 and 79, a macroeconomic regulation and control was carried out; the second, 85, 86; the third, 88, 89; Fourth, 93, 94; fifth, 98,99; The sixth is the macroeconomic control that we are still carrying out now, which began in 2003. These six macroeconomic controls can be divided into two types, the first type is 98 and 99 years, the object of macroeconomic control is the economy is too cold, to accelerate the economy, to maintain a moderate rapid growth. Except for this time in 98 and 99, the other five macroeconomic controls are facing different degrees of economic overheating and different manifestations, and it is necessary to control the overheated economy. In these five macroeconomic controls in the face of economic overheating (the last one has not ended), this time in 78 and 79 years, although it occurred during the period of reform and opening up, but the cause of this economic overheating is not the problem of reform and opening up, 85, 86, 88, 89 and 93, 94 years of these three macroeconomic control to control economic overheating are typical macroeconomic control, because these three macroeconomic control have produced different results.
+Let's talk about the macro control in 78 and 79 years. At the Third Plenary Session of the 11th CPC Central Committee held in 1978, the Central Committee decided to shift the focus of its work to economic construction, thus beginning the process of reform and opening up. However, in 78 years, just after the reform and opening up, the economy was overheated, and the GDP growth rate was about 12 percent. The emergence of this problem has to be said to be caused by Hua Guofeng, there is also a Hua Guofeng between the first generation leader Chairman Mao and the second generation leader Deng Xiaoping, Chairman Mao said, "Hua Guofeng does things, I can rest assured", from</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">你是一位专业的中英互译专家。请将以下中文文本翻译成英文，特别注意专业术语的处理。
-    要求：
-    1. 准确识别并保留专业术语和技术词汇
-    2. 对电影专业术语使用行业通用的标准英文翻译
-    3. 在保持专业性的同时确保句子通顺
-    4. 如遇到新兴技术词汇，优先使用业内认可的英文表达
-    5. 可以在翻译时加入常用缩写(如 AI, ML, DL 等)
-    </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
         <is>
           <t>面对我国经济下行压力,应推进结构性改革,保持经济平稳增长新常态 (图片来源:凤凰网)
 习近平总书记提出的"新常态",其最基本的特征是经济增长速度的转换,这标志着我国经济正在发生阶段性变化,体现了经济中长期潜在增长率有所下降的客观趋势.中国经济过去30多年的年均增长率接近10%,创造了世界经济史上的"中国奇迹".当前,经济发展的内在支撑条件和外部需求环境都已发生了深刻变化,要求经济增长速度进行"换挡",要求经济增长目标向合理区间进行"收敛".中国经济进入新常态主要基于以下几个方面的因素:
@@ -1345,7 +1500,7 @@
 四是面临跨越中等收入陷阱挑战,改革红利有待强力释放.2013年,我国人均GDP超过6000美元,已进入上中等收入国家行列,当前正处于能否跨越"中等收入陷阱"的关键历</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>In the face of downward pressure on China's economy, structural reforms should be promoted to maintain the new normal of steady economic growth (Image source: Phoenix.com)
 The most basic feature of the "new normal" proposed by General Secretary Xi Jinping is the transformation of economic growth rate, which marks that China's economy is undergoing phased changes and reflects the objective trend of declining potential growth rate in the medium and long term. China's economy has grown at an average annual rate of nearly 10 percent over the past 30 years, creating a "Chinese miracle" in the history of the world economy.
@@ -1355,14 +1510,33 @@
 In 2013, China's per capita GDP exceeded 6,000 US dollars, and it has entered the ranks of upper middle-income countries</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>In the face of downward pressure on my country's economy, we should promote structural reforms and maintain the new normal of steady economic growth (Photo source: Phoenix.com) The "new normal" proposed by General Secretary Xi Jinping is characterized by the transformation of economic growth rate, which indicates that my country's economy is undergoing a phased change and reflects the objective trend of a decline in the medium- and long-term potential growth rate of the economy. China's economic growth rate has been close to 10% over the past 30 years, creating the "Chinese miracle" in the history of the world economy. At present, the internal supporting conditions and external demand environment of economic development have undergone profound changes, requiring the economic growth rate to "shift gears" and the economic growth target to "converge" to a reasonable range. China's economy has entered a new normal mainly based on the following factors: First, the global economic structure has undergone profound adjustments, and external demand has shrunk in a normal manner. One of the important factors supporting my country's rapid economic growth for more than 30 years is that it has taken the path of export-oriented economic development. However, in the new historical development stage, especially since the international financial crisis in 2008, the world economy has shown the characteristics of "slow growth in total demand and deep adjustment of economic structure", which has caused my country's external demand to shrink in a normal manner. Economic powers such as the United States and Europe have successively proposed measures such as "re-industrialization", "2020 strategy" and "rebirth strategy", trade protectionism has risen, and developing countries are working hard to adjust their development models and accelerate the development of industries with comparative advantages, which has made the external demand environment that supports China's rapid economic growth no longer exist. Second, innovation-driven competition is more intense, and the transformation and upgrading of industrial structure lags behind. At present, the third industrial revolution is coming, and major developed countries are accelerating emerging industries in an effort to seize the commanding heights of future technological innovation and industrial development. These new challenges force my country's economic development model to accelerate the transformation to innovation-driven. However, it is still an indisputable fact that my country's over-administrative allocation of scientific and technological resources has led to serious waste of scientific and technological resources, many industries are not competitive, and core technologies are controlled by others. We need to take the initiative to slow down the pace of economic growth and make room and time for innovation-driven economic transformation and upgrading. Third, the traditional demographic dividend is gradually decreasing, and resource and environmental constraints are increasing. my country's economic growth structure is undergoing historic changes. At present, the labor supply shortage in the developed eastern regions is more obvious, and the "Lewis turning point" is coming. The traditional demographic dividend that drives the export-oriented economy is gradually weakening. Correspondingly, my country's economic growth model that relies too much on investment and external demand has made the constraints of energy, resources, and the environment more and more obvious. The external dependence of important mineral resources is constantly increasing, and the pressure on the ecological environment is constantly increasing. The marginal supply increment of factors can no longer support the traditional high-speed economic development path, which objectively prompts China's economy to gradually fall back to a new stable growth range. Fourth, facing the challenge of crossing the middle-income trap, the reform dividend needs to be strongly released. In 2013, my country's per capita GDP exceeded US$6,000, and it has entered the ranks of upper-middle-income countries. It is currently at a critical juncture in whether it can cross the "middle-income trap".</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>In the face of downward pressure on my country's economy, we should promote structural reforms and maintain the new normal of steady economic growth (Photo source: Phoenix.com) The "new normal" proposed by General Secretary Xi Jinping is characterized by the transformation of economic growth rate, which indicates that my country's economy is undergoing a phased change and reflects the objective trend of a decline in the medium- and long-term potential growth rate of the economy. China's economic growth rate has been close to 10% over the past 30 years, creating the "Chinese miracle" in the history of the world economy. At present, the internal supporting conditions and external demand environment of economic development have undergone profound changes, requiring the economic growth rate to "shift gears" and the economic growth target to "converge" to a reasonable range. China's economy has entered a new normal mainly based on the following factors: First, the global economic structure has undergone profound adjustments, and external demand has shrunk in a normal manner. One of the important factors supporting my country's rapid economic growth for more than 30 years is that it has taken the path of export-oriented economic development. However, in the new historical development stage, especially since the international financial crisis in 2008, the world economy has shown the characteristics of "slow growth in total demand and deep adjustment of economic structure", which has caused my country's external demand to shrink in a normal manner. Economic powers such as the United States and Europe have successively proposed measures such as "re-industrialization", "2020 strategy" and "rebirth strategy", trade protectionism has risen, and developing countries are working hard to adjust their development models and accelerate the development of industries with comparative advantages, which has made the external demand environment that supports China's rapid economic growth no longer exist. Second, innovation-driven competition is more intense, and the transformation and upgrading of industrial structure lags behind. At present, the third industrial revolution is coming, and major developed countries are accelerating emerging industries in an effort to seize the commanding heights of future technological innovation and industrial development. These new challenges force my country's economic development model to accelerate the transformation to innovation-driven. However, it is still an indisputable fact that my country's over-administrative allocation of scientific and technological resources has led to serious waste of scientific and technological resources, many industries are not competitive, and core technologies are controlled by others. We need to take the initiative to slow down the pace of economic growth and make room and time for innovation-driven economic transformation and upgrading. Third, the traditional demographic dividend is gradually decreasing, and resource and environmental constraints are increasing. my country's economic growth structure is undergoing historic changes. At present, the labor supply shortage in the developed eastern regions is more obvious, and the "Lewis turning point" is coming. The traditional demographic dividend that drives the export-oriented economy is gradually weakening. Correspondingly, my country's economic growth model that relies too much on investment and external demand has made the constraints of energy, resources, and the environment more and more obvious. The external dependence of important mineral resources is constantly increasing, and the pressure on the ecological environment is constantly increasing. The marginal supply increment of factors can no longer support the traditional high-speed economic development path, which objectively prompts China's economy to gradually fall back to a new stable growth range. Fourth, facing the challenge of crossing the middle-income trap, the reform dividend needs to be strongly released. In 2013, my country's per capita GDP exceeded US$6,000, and it has entered the ranks of upper-middle-income countries. It is currently at a critical juncture in whether it can cross the "middle-income trap".</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>请提供需要评估的两个翻译文本，我将根据给定的标准进行评估。</t>
+          <t>大模型翻译：[85]分（准确性[35]，流畅性[25]，原意保留[25]）  
+谷歌翻译：[80]分（准确性[30]，流畅性[25]，原意保留[25]）  
+更好的翻译：[大模型翻译]  
+原因：大模型翻译在准确性上稍胜一筹，尤其在“新常态”及“经济增长速度的转换”方面的表述更为清晰。谷歌翻译在某些地方使用了“my country's economy”，虽然在语法上没有问题，但在正式文献中更常用“China's economy”。此外，大模型翻译在流畅性上表现更好，整体句子结构更自然，尤其在描述经济变化的段落中，逻辑关系更为清晰。</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>In the face of downward pressure on China's economy, structural reforms should be promoted to maintain the new normal of steady economic growth (Image source: Phoenix.com)
+The most basic feature of the "new normal" proposed by General Secretary Xi Jinping is the transformation of economic growth rate, which marks that China's economy is undergoing phased changes and reflects the objective trend of declining potential growth rate in the medium and long term. China's economy has grown at an average annual rate of nearly 10 percent over the past 30 years, creating a "Chinese miracle" in the history of the world economy.
+First, the global economic pattern has been profoundly adjusted, and external demand has shrunk normally. One of the important factors supporting China's rapid economic growth for more than 30 years is because it is taking the path of export-oriented economic development. However, in the new historical development stage, especially since the international financial crisis in 2008, the world economy has shown the characteristics of "slow growth of aggregate demand and deep adjustment of economic structure", which has caused China's external demand to shrink normally. Economic powers such as the United States and Europe have successively put forward measures such as "re-industrialization", "2020 strategy" and "rebirth strategy", trade protectionism has risen, and developing countries are trying to adjust their development models and accelerate the development of industries with comparative advantages, which makes the external demand environment that supports China's rapid economic growth no longer exists.
+Second, innovation-driven competition is more intense, and the transformation and upgrading of industrial structure lags behind. At present, the third industrial revolution is coming, and major developed countries have accelerated emerging industries, trying to seize the commanding heights of future scientific and technological innovation and industrial development. However, it is still an indisputable fact that China's over-administrative allocation of scientific and technological resources has led to a serious waste of scientific and technological resources, the competitiveness of many industries is not strong, and the core technology is subject to others, which requires us to take the initiative to slow down the economic growth rate and make room for innovation-driven economic transformation and upgrading.
+Third, the traditional demographic dividend is gradually decreasing, and the resource and environmental constraints are being strengthened. The structure of China's economic growth is undergoing historic changes. At present, the shortage of labor supply in the developed eastern regions is more obvious, the "Lewis inflection point" is coming, and the traditional demographic dividend driving the export-oriented economy is gradually weakening. Correspondingly, China's economic growth model of excessive reliance on investment and external demand has made the constraints of energy, resources and environment more and more obvious, the foreign dependence of important mineral resources is increasing, the pressure on the ecological environment is increasing, and the marginal supply increment of factors has been difficult to support the traditional high-speed economic development path, which also objectively promotes China's economy to gradually fall back to a new stable growth range.
+In 2013, China's per capita GDP exceeded 6,000 US dollars, and it has entered the ranks of upper middle-income countries</t>
         </is>
       </c>
     </row>
